--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_25.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d82633-Reviews-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>281</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Azul-Inn-West-Los-Angeles-Century-City.h10366.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_25.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="844">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2464 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r587504607-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>82633</t>
+  </si>
+  <si>
+    <t>587504607</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>After been in the Venetian----VegasSan Francisco--- normal hotel Oahu--- resortThis one was my favourite because it is a real American hotel, rooms huge and great. To have a real American experience</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r586829893-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586829893</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Quality value accommodations in West Los Angeles!</t>
+  </si>
+  <si>
+    <t>Convenient location, plenty of parking, friendly staff, clean rooms, and a very comfortable bed!  Lots of restaurants within walking distance on nearby Westwood Boulevard.  Only complaint would be the thin noise transmitting walls typical for this type of older motel.  Hopefully the upcoming remodel will address this issue.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r581128239-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>581128239</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Great rooms</t>
+  </si>
+  <si>
+    <t>Last minute booking, late night arrival, Staff very helpful and friendly. Rooms very clean and beautiful, I ask for information about where to eat and the staff was great. I would defiantly come back.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r560546285-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>560546285</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>RUN DOWN AND SUPER SCARY</t>
+  </si>
+  <si>
+    <t>I think I was the ONLY one staying there when I went. The front desk people are very sketchy and ignorant. The premises are run-down, rusty and unkept. The room WAS clean. The location is not convenient to anything. I felt like this hotel could be the site of a future fatality. I REALLY felt unsafe here!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r557195034-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>557195034</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Its a good location and the rooms are decent</t>
+  </si>
+  <si>
+    <t>I think you guys need to work on customer service and having the people act more professional like bigger hotels do. Because I think the staff can be a little rude sometimes and need to be more courteous to guests in general. Ive stayed here a couple of times and each time the staff doesn't make me feel very welcomed. MoreShow less</t>
+  </si>
+  <si>
+    <t>gmazulinn, Manager at Azul Inn West Los Angeles, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>I think you guys need to work on customer service and having the people act more professional like bigger hotels do. Because I think the staff can be a little rude sometimes and need to be more courteous to guests in general. Ive stayed here a couple of times and each time the staff doesn't make me feel very welcomed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r541981093-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>541981093</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Check was smooth and very friendly. Our 2 "queen" room was VERY cramped. It was a corner room with a stand up shower. We were traveling with 2 small children, that I did note in the special request area of the reservation. A tub would have been ideal for bathing. However we were so exhausted after dealing with all the LA traffic I was not in the mood to move. All in all the pool was ice cold even though it is advertised as a "heated pool". Very disappointing for the children. The beds are lumpy. It was so cramped that it was hard to walk around our room! This is an expensive Inn for a place to lay your heda, and that is all. Nothing AT ALL up to date or fancy about it. Location is convenient. Parking is not. Breakfast was very minimal. But better than nothing. I will not stay here again. $165 is a ridiculous amount for a below average place to only be able to sleep in. Also there are bums all over the neighborhood. Pretty scary when traveling with small children, however most of LA/Hollywood does have bums hanging out all over. Pretty sad.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>gmazulinn, Front Office Manager at Azul Inn West Los Angeles, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Check was smooth and very friendly. Our 2 "queen" room was VERY cramped. It was a corner room with a stand up shower. We were traveling with 2 small children, that I did note in the special request area of the reservation. A tub would have been ideal for bathing. However we were so exhausted after dealing with all the LA traffic I was not in the mood to move. All in all the pool was ice cold even though it is advertised as a "heated pool". Very disappointing for the children. The beds are lumpy. It was so cramped that it was hard to walk around our room! This is an expensive Inn for a place to lay your heda, and that is all. Nothing AT ALL up to date or fancy about it. Location is convenient. Parking is not. Breakfast was very minimal. But better than nothing. I will not stay here again. $165 is a ridiculous amount for a below average place to only be able to sleep in. Also there are bums all over the neighborhood. Pretty scary when traveling with small children, however most of LA/Hollywood does have bums hanging out all over. Pretty sad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r523920474-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523920474</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Close to the I-405, UCLA and great restaurants</t>
+  </si>
+  <si>
+    <t>Liked the service, but loved the room (and AC)!  I was able to park easily and close to my room instead of the trek I normally experience with a parking garage, lobby, elevator ride and hallway just to have a smoke or get something from the car.  It is in a cool neighborhood with a variety of shopping, restaurants, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>gmazulinn, Manager at Azul Inn West Los Angeles, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Liked the service, but loved the room (and AC)!  I was able to park easily and close to my room instead of the trek I normally experience with a parking garage, lobby, elevator ride and hallway just to have a smoke or get something from the car.  It is in a cool neighborhood with a variety of shopping, restaurants, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r523495533-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523495533</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Monica Holidays </t>
+  </si>
+  <si>
+    <t>Nice comfortable clean rooms with good facilities. Staff are helpful and friendly,  public transport on bus to Santa Monica and bus to downtown la cheap and easy to get to. Breakfast is basic but there are many places to get alternative breakfast. A good place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice comfortable clean rooms with good facilities. Staff are helpful and friendly,  public transport on bus to Santa Monica and bus to downtown la cheap and easy to get to. Breakfast is basic but there are many places to get alternative breakfast. A good place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r499401190-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>499401190</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised that the room was very clean and well-appointed (I stayed in room 112) with safe and reasonably-priced parking out back. Comfortable bed, clean bathroom with nice hot water and great supplies,and I was super pleased that there was a fridge in the room! Check-in was quick and pleasant, the front desk guy on duty when I checked in after 10pm couldn't have been nicer!I didn't take advantage of the included continental breakfast, but it looked reasonable enough, considering the price of the room! Just a great overall experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised that the room was very clean and well-appointed (I stayed in room 112) with safe and reasonably-priced parking out back. Comfortable bed, clean bathroom with nice hot water and great supplies,and I was super pleased that there was a fridge in the room! Check-in was quick and pleasant, the front desk guy on duty when I checked in after 10pm couldn't have been nicer!I didn't take advantage of the included continental breakfast, but it looked reasonable enough, considering the price of the room! Just a great overall experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r483662385-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>483662385</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Excellent Motel Style Hotel</t>
+  </si>
+  <si>
+    <t>This hotel offers so much more than what it looks like outside. The rooms look recently renovated, they are smart tidy and offer the same kind of style and comfort you would expect from a big chain such as the holiday Inn. The reception staff were knowledgeable and helpful. The hotel breakfast was good too, for a continental. However could do with being restocked more often. The hotel has great links into the main centre of LA via bus and Santa Monica. Perfect if you don't want to stay too close to the hustle and bustle.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>This hotel offers so much more than what it looks like outside. The rooms look recently renovated, they are smart tidy and offer the same kind of style and comfort you would expect from a big chain such as the holiday Inn. The reception staff were knowledgeable and helpful. The hotel breakfast was good too, for a continental. However could do with being restocked more often. The hotel has great links into the main centre of LA via bus and Santa Monica. Perfect if you don't want to stay too close to the hustle and bustle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r466388878-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>466388878</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Wonderful!!!</t>
+  </si>
+  <si>
+    <t>I came to the inn for a job orientation for a few days and my stay was fantastic! Thanks to Emelda who was so helpful, friendly, and kind. They had well decorated and very clean rooms, made you feel right at home. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2017</t>
+  </si>
+  <si>
+    <t>I came to the inn for a job orientation for a few days and my stay was fantastic! Thanks to Emelda who was so helpful, friendly, and kind. They had well decorated and very clean rooms, made you feel right at home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r466372228-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>466372228</t>
+  </si>
+  <si>
+    <t>VERY Nice upkeep on Older 50's motel- Very Nice (small tho) bathroom</t>
+  </si>
+  <si>
+    <t>stayed 2 nights this month. Booked b/c larger chain hotels I usually book were all booked. Got to room late. At first seemed strange there appeared to be a lot of men - mostly younger- in (viewable if window left open or block out drape not pulled)-.  Next AM at free breakfast realized they were all very clean cut-- probably Morman missionary students from the Mormon Temple which is directly across the streetAlthough no elevator--- and I had a lot of luggage/ business things-- room was updated: new appearing wallpaper, bedding, mattress, bath counters etc - and what I ESPECIALLY APPRECIATE/ what is often missing from major USA chains like Hilton/ Marriott: hand bars in the shower to prevent slips when showering.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>stayed 2 nights this month. Booked b/c larger chain hotels I usually book were all booked. Got to room late. At first seemed strange there appeared to be a lot of men - mostly younger- in (viewable if window left open or block out drape not pulled)-.  Next AM at free breakfast realized they were all very clean cut-- probably Morman missionary students from the Mormon Temple which is directly across the streetAlthough no elevator--- and I had a lot of luggage/ business things-- room was updated: new appearing wallpaper, bedding, mattress, bath counters etc - and what I ESPECIALLY APPRECIATE/ what is often missing from major USA chains like Hilton/ Marriott: hand bars in the shower to prevent slips when showering.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r450863999-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>450863999</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Stay away....until changes are made</t>
+  </si>
+  <si>
+    <t>I have stayed at the Azul Inn several times, although mostly with it's previous owners/name. The Azul Inn is in a great location situated nicely between Century City/Bev Hills and Westwood. This area of LA, as anyone who lives there or visits will tell you, is among the most expensive areas of the city. It is hard to find a room for less than $150/night and this is a great attraction of the Azul Inn (AI), the low prices. In it's previous life, the hotel has always had cleanliness issues and often smells of mildew. I stopped staying at this hotel but after new management came in, I figured I'd give it a try again. It certainly looks nicer on the outside. Service has always been good. But, again, the same problem. Mildew smell even with the A/C blasting.  On this trip I found 2 roaches as well, one on my bed. Ugh! I did complain to the staff and was offered a discount which was kind but not my goal. I'm rooting for this hotel to get it's act together. But, at this point I strongly recommend against staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at the Azul Inn several times, although mostly with it's previous owners/name. The Azul Inn is in a great location situated nicely between Century City/Bev Hills and Westwood. This area of LA, as anyone who lives there or visits will tell you, is among the most expensive areas of the city. It is hard to find a room for less than $150/night and this is a great attraction of the Azul Inn (AI), the low prices. In it's previous life, the hotel has always had cleanliness issues and often smells of mildew. I stopped staying at this hotel but after new management came in, I figured I'd give it a try again. It certainly looks nicer on the outside. Service has always been good. But, again, the same problem. Mildew smell even with the A/C blasting.  On this trip I found 2 roaches as well, one on my bed. Ugh! I did complain to the staff and was offered a discount which was kind but not my goal. I'm rooting for this hotel to get it's act together. But, at this point I strongly recommend against staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r449194912-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>449194912</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Hotel Close to Australian Consulate-General</t>
+  </si>
+  <si>
+    <t>My family and I traveled from out of state to Los Angeles for appointments with the Australian Consulate-General.  I was looking for a place to stay overnight before our appointments.  This is an expensive area for hotels.  I am so grateful we found the Azul Inn with its affordable prices. The Azul Inn is 1.8 miles from the consulate’s office (literally across the street from the LDS Los Angeles California temple), and had very reasonable rates.  The owners have put money into the property that they didn’t have to on small touches that were unexpected and appreciated, including updated furniture.  The bathrooms are small with showers and no tubs, but have been updated and are nice.  There are mini fridges in the room, and in-room safes which I liked.  The towels were higher quality than I expected as were the toiletries.  While the Inn is motel style, opening to the outside instead of a hall corridor and you are close to the street so you hear traffic, the staff were extremely helpful and attentive.  I was very surprised and pleased with the quality of the Inn and am very happy we found this property!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>My family and I traveled from out of state to Los Angeles for appointments with the Australian Consulate-General.  I was looking for a place to stay overnight before our appointments.  This is an expensive area for hotels.  I am so grateful we found the Azul Inn with its affordable prices. The Azul Inn is 1.8 miles from the consulate’s office (literally across the street from the LDS Los Angeles California temple), and had very reasonable rates.  The owners have put money into the property that they didn’t have to on small touches that were unexpected and appreciated, including updated furniture.  The bathrooms are small with showers and no tubs, but have been updated and are nice.  There are mini fridges in the room, and in-room safes which I liked.  The towels were higher quality than I expected as were the toiletries.  While the Inn is motel style, opening to the outside instead of a hall corridor and you are close to the street so you hear traffic, the staff were extremely helpful and attentive.  I was very surprised and pleased with the quality of the Inn and am very happy we found this property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r448601283-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>448601283</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Don't expect too much and you won't be disappointed</t>
+  </si>
+  <si>
+    <t>Cheap place to sleep and shower and that's about it.  Thin walls made the room noisy.  But it was clean and safe.  Charged $10 for parking and then there were no spots.  They did say they would refund it when we had to park on the streetMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Cheap place to sleep and shower and that's about it.  Thin walls made the room noisy.  But it was clean and safe.  Charged $10 for parking and then there were no spots.  They did say they would refund it when we had to park on the streetMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r443890129-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>443890129</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Great westside location and price</t>
+  </si>
+  <si>
+    <t>Friendly, hard working staff and nicely appointed rooms, free breakfast, and ample parking ($10).  Rooms have modern furniture and remodeled bathrooms.  Easy access to many LA attractions, from the beach to UCLA, Hollywood, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Friendly, hard working staff and nicely appointed rooms, free breakfast, and ample parking ($10).  Rooms have modern furniture and remodeled bathrooms.  Easy access to many LA attractions, from the beach to UCLA, Hollywood, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r441624013-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>441624013</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>No hot water,noisy heater.</t>
+  </si>
+  <si>
+    <t>Good location, one night stay for my son's eye surgery, we couldn't shower in the morning because there wasn't hot water, didn't tell us about the free continental breakfast  upon our arrival either, it says free parking, yet the guy at the front desk charged me $10,00 parking fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good location, one night stay for my son's eye surgery, we couldn't shower in the morning because there wasn't hot water, didn't tell us about the free continental breakfast  upon our arrival either, it says free parking, yet the guy at the front desk charged me $10,00 parking fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r440211086-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>440211086</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>check-out</t>
+  </si>
+  <si>
+    <t>although the location is convenient, when we arrived, they gave us the room key of an already occupied room. we opened the door, and that persons stuff and valuables were out in the open. they had not checked-out at all. luckily, we did not run into the guest. the breakfast was ok, but definitely not a healthy breakfast. plastic wrapped muffins, bagels, bread for toast, and pancake machine. staff was friendly enough. you still had to pay 10dollars a day parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>although the location is convenient, when we arrived, they gave us the room key of an already occupied room. we opened the door, and that persons stuff and valuables were out in the open. they had not checked-out at all. luckily, we did not run into the guest. the breakfast was ok, but definitely not a healthy breakfast. plastic wrapped muffins, bagels, bread for toast, and pancake machine. staff was friendly enough. you still had to pay 10dollars a day parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r434843927-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>434843927</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Not impressed.</t>
+  </si>
+  <si>
+    <t>One night into our three night stay so far and we wish we could just check out now and move somewhere else. Pros: Good for the budget traveller.. although, at almost $200US per night, I'd hardly consider that budget.. but this is LA. Plenty of parking, but it comes at $10/night.Cons: The room stinks, although efforts have been made to renovate. The breakfast is meagre. They have a beautiful big fruit juice machine that dispenses no juice. The pool states it opens at 9am, but at 10am when we went to try it out, it was locked. It also appeared quite dirty. It is loud here. We were perhaps in the room farthest away from Santa Monica Blvd and traffic woke us up in the morning. Well, the traffic plus some loser cranking Bon Jovi and singing at the top of his lungs somewhere in the motel at 8:30 am.I understand that this is not the Hotel Roosevelt. But, in comparison, the Roosevelt is well worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>One night into our three night stay so far and we wish we could just check out now and move somewhere else. Pros: Good for the budget traveller.. although, at almost $200US per night, I'd hardly consider that budget.. but this is LA. Plenty of parking, but it comes at $10/night.Cons: The room stinks, although efforts have been made to renovate. The breakfast is meagre. They have a beautiful big fruit juice machine that dispenses no juice. The pool states it opens at 9am, but at 10am when we went to try it out, it was locked. It also appeared quite dirty. It is loud here. We were perhaps in the room farthest away from Santa Monica Blvd and traffic woke us up in the morning. Well, the traffic plus some loser cranking Bon Jovi and singing at the top of his lungs somewhere in the motel at 8:30 am.I understand that this is not the Hotel Roosevelt. But, in comparison, the Roosevelt is well worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r433677565-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>433677565</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Poor Service</t>
+  </si>
+  <si>
+    <t>The hotel location and room were quite good actually. The service was so bad I had to rate the experience a 1. When we arrived we were not greeted warmly at all. The receptionist gave us our room key and when we took it to the room it did not work. We went down to the front desk and had to grab her as she was getting into her car to let her know the key did not work. She gave us a new key and when we went back to try the new key it did not work again. When we went back down she was gone. We waited outside the lobby for 20 minutes until she returned. She gave us another key and this one did not work as well. When we went back down she was helping the other guests that had arrived during the 20 minutes she was gone. Over an hour from our arrival time at the hotel we were actually in our hotel room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The hotel location and room were quite good actually. The service was so bad I had to rate the experience a 1. When we arrived we were not greeted warmly at all. The receptionist gave us our room key and when we took it to the room it did not work. We went down to the front desk and had to grab her as she was getting into her car to let her know the key did not work. She gave us a new key and when we went back to try the new key it did not work again. When we went back down she was gone. We waited outside the lobby for 20 minutes until she returned. She gave us another key and this one did not work as well. When we went back down she was helping the other guests that had arrived during the 20 minutes she was gone. Over an hour from our arrival time at the hotel we were actually in our hotel room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r426257677-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>426257677</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Overpriced</t>
+  </si>
+  <si>
+    <t>A positive... room was spacious and clean.  Negatives....pool was dirty, we had a homeless guy decided to sleep on the bench outside our room and he clearly took a wash in the pool as the staff were pulling his thongs out of there in the morning. Had to pay to park the car at the hotel. Give it a missMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2016</t>
+  </si>
+  <si>
+    <t>A positive... room was spacious and clean.  Negatives....pool was dirty, we had a homeless guy decided to sleep on the bench outside our room and he clearly took a wash in the pool as the staff were pulling his thongs out of there in the morning. Had to pay to park the car at the hotel. Give it a missMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r419202256-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>419202256</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Touring holiday</t>
+  </si>
+  <si>
+    <t>Stayed here in August for 1 night. Was ok and clean but were not impressed by first appearances. It was in the middle of nowhere.  Were no local places nearby to walk and go out to eat. Staff were very nice though and gave good advice. Breakfast was ok.  Wouldn't stay again though would rather pay more money and stay somewhere with more appeal.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here in August for 1 night. Was ok and clean but were not impressed by first appearances. It was in the middle of nowhere.  Were no local places nearby to walk and go out to eat. Staff were very nice though and gave good advice. Breakfast was ok.  Wouldn't stay again though would rather pay more money and stay somewhere with more appeal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r413486434-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>413486434</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Yes...what can you expect for 100 bucks...?</t>
+  </si>
+  <si>
+    <t>I guess the philosophy is this...ok, the rooms are ugly and then pool can hardly be called a pool...the staff try their best but they are clearly seasonal and largely unprepared...and some of them are also a bit arrogant...The breakfast is desolating and the walls are cheap...But you're in West LA, few miles from Santa Monica....So...what else can you expect for 100 bucks...?MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>I guess the philosophy is this...ok, the rooms are ugly and then pool can hardly be called a pool...the staff try their best but they are clearly seasonal and largely unprepared...and some of them are also a bit arrogant...The breakfast is desolating and the walls are cheap...But you're in West LA, few miles from Santa Monica....So...what else can you expect for 100 bucks...?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r405273817-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>405273817</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>What do you expect for $100?</t>
+  </si>
+  <si>
+    <t>The Azul Inn is a motel. The exterior is very poorly kept.  If you are looking for a place to sleep it's just okay.  The room smells from a leak that has been there for sometime.   The carpet had not been thoroughly vacuumed from a prior stay.  The shower was nice with plenty of pressure.  The breakfast is pathetic.  There is no waffle maker anymore and the selection is limited.  Toaster refused to finish toasting bagel and the decaf wasn't available.This is a safe neighborhood with easy access.  I would not come back nor recommend.  Stay at your own risk.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>The Azul Inn is a motel. The exterior is very poorly kept.  If you are looking for a place to sleep it's just okay.  The room smells from a leak that has been there for sometime.   The carpet had not been thoroughly vacuumed from a prior stay.  The shower was nice with plenty of pressure.  The breakfast is pathetic.  There is no waffle maker anymore and the selection is limited.  Toaster refused to finish toasting bagel and the decaf wasn't available.This is a safe neighborhood with easy access.  I would not come back nor recommend.  Stay at your own risk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r387277168-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>387277168</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>WORST DIRTY NASTY</t>
+  </si>
+  <si>
+    <t>Seriously horrible. This place has gone downhill big time. I stayed here about 3 years ago for a couple of weeks, that how nice it used to be. This time, I didn't make it much past check-in time. Plus the front desk staff were super snooty. STAY AWAY from this hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Seriously horrible. This place has gone downhill big time. I stayed here about 3 years ago for a couple of weeks, that how nice it used to be. This time, I didn't make it much past check-in time. Plus the front desk staff were super snooty. STAY AWAY from this hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r381639274-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>381639274</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel.  Room is clean and modern.  Staff was very friendly.  Off street parking for an additional ten dollar fee and breakfast is included. They have a pool, tho we did not use it.  In a safe area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel.  Room is clean and modern.  Staff was very friendly.  Off street parking for an additional ten dollar fee and breakfast is included. They have a pool, tho we did not use it.  In a safe area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r374929464-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>374929464</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Rooms OK but, dirty grounds and high prices should guide you elsewhere.</t>
+  </si>
+  <si>
+    <t>Not OMG awful, but I have to say that the experience of 3 nights at the Azul Inn convinced me that almost anything else in the WLA area would have been a better selection. The photos I saw had little to do with what I saw. The facilities are poorly kept - I mean dirty! Litter everywhere. My room was clean although the toilet seat was broken and the shower dripped water all night and that the room is generally stuffy. Rooms have decent lights and furniture. And the bathroom was very clean. However, you can't turn a sow's ear into a silk purse: this place was originally a TravelLodge, a rival to Motel 6 - it shows. If it was a 100/night hotel it would be OK but at nearly double that... forget it. Oh, the included "continental" breakfast was served in surroundings that were just unclean. Service is at a bargain level as well. The only smiles I saw were from the housekeepers who always said hello.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Not OMG awful, but I have to say that the experience of 3 nights at the Azul Inn convinced me that almost anything else in the WLA area would have been a better selection. The photos I saw had little to do with what I saw. The facilities are poorly kept - I mean dirty! Litter everywhere. My room was clean although the toilet seat was broken and the shower dripped water all night and that the room is generally stuffy. Rooms have decent lights and furniture. And the bathroom was very clean. However, you can't turn a sow's ear into a silk purse: this place was originally a TravelLodge, a rival to Motel 6 - it shows. If it was a 100/night hotel it would be OK but at nearly double that... forget it. Oh, the included "continental" breakfast was served in surroundings that were just unclean. Service is at a bargain level as well. The only smiles I saw were from the housekeepers who always said hello.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r364565636-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>364565636</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>West LA Well Kept Secret???</t>
+  </si>
+  <si>
+    <t>I was seeking an affordable hotel (read less than $200) close to Beverly Hills. The Azul Inn did meet the price point but lacked in all other areas except "friendly personnel."
+This hotel was advertised, on their website, as a "boutique hotel, a well-kept West Los Angeles secret and charming."
+All three of those claims are a stretch of the English language.  First, I would call the Azul Inn a "motel" rather than "hotel" as all the rooms open to either the pool area or a parking lot.  The first room I was assigned had been used since the daily cleaning.  The second room was as clean as could be expected from a motel that appears to have been reincarnated from a  retired TravelLodge Motel.  The entire property is sorely in need of a power washing and some refurbishment.  I was also taken back that the Azul Inn charged $10 for basically alley parking.
+The positives:  It is directly across Santa Monica Blvd. from the Los Angeles LDS edifice, easy off, easy on to Santa Monica Blvd., only 5 minutes in light traffic (if that ever happens during the day) to Santa Monica Blvd. and Wilshire Blvd., breakfast was continental style and nothing to brag or complain about . . . except the awesome pancake machine (magic like the French Fry vending machine at the Boise Airport)  and the staff was cordial and working the best they could with what...I was seeking an affordable hotel (read less than $200) close to Beverly Hills. The Azul Inn did meet the price point but lacked in all other areas except "friendly personnel."This hotel was advertised, on their website, as a "boutique hotel, a well-kept West Los Angeles secret and charming."All three of those claims are a stretch of the English language.  First, I would call the Azul Inn a "motel" rather than "hotel" as all the rooms open to either the pool area or a parking lot.  The first room I was assigned had been used since the daily cleaning.  The second room was as clean as could be expected from a motel that appears to have been reincarnated from a  retired TravelLodge Motel.  The entire property is sorely in need of a power washing and some refurbishment.  I was also taken back that the Azul Inn charged $10 for basically alley parking.The positives:  It is directly across Santa Monica Blvd. from the Los Angeles LDS edifice, easy off, easy on to Santa Monica Blvd., only 5 minutes in light traffic (if that ever happens during the day) to Santa Monica Blvd. and Wilshire Blvd., breakfast was continental style and nothing to brag or complain about . . . except the awesome pancake machine (magic like the French Fry vending machine at the Boise Airport)  and the staff was cordial and working the best they could with what they've got.If the price was closer or under $100 per night, I would give this motel an average (3) rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>I was seeking an affordable hotel (read less than $200) close to Beverly Hills. The Azul Inn did meet the price point but lacked in all other areas except "friendly personnel."
+This hotel was advertised, on their website, as a "boutique hotel, a well-kept West Los Angeles secret and charming."
+All three of those claims are a stretch of the English language.  First, I would call the Azul Inn a "motel" rather than "hotel" as all the rooms open to either the pool area or a parking lot.  The first room I was assigned had been used since the daily cleaning.  The second room was as clean as could be expected from a motel that appears to have been reincarnated from a  retired TravelLodge Motel.  The entire property is sorely in need of a power washing and some refurbishment.  I was also taken back that the Azul Inn charged $10 for basically alley parking.
+The positives:  It is directly across Santa Monica Blvd. from the Los Angeles LDS edifice, easy off, easy on to Santa Monica Blvd., only 5 minutes in light traffic (if that ever happens during the day) to Santa Monica Blvd. and Wilshire Blvd., breakfast was continental style and nothing to brag or complain about . . . except the awesome pancake machine (magic like the French Fry vending machine at the Boise Airport)  and the staff was cordial and working the best they could with what...I was seeking an affordable hotel (read less than $200) close to Beverly Hills. The Azul Inn did meet the price point but lacked in all other areas except "friendly personnel."This hotel was advertised, on their website, as a "boutique hotel, a well-kept West Los Angeles secret and charming."All three of those claims are a stretch of the English language.  First, I would call the Azul Inn a "motel" rather than "hotel" as all the rooms open to either the pool area or a parking lot.  The first room I was assigned had been used since the daily cleaning.  The second room was as clean as could be expected from a motel that appears to have been reincarnated from a  retired TravelLodge Motel.  The entire property is sorely in need of a power washing and some refurbishment.  I was also taken back that the Azul Inn charged $10 for basically alley parking.The positives:  It is directly across Santa Monica Blvd. from the Los Angeles LDS edifice, easy off, easy on to Santa Monica Blvd., only 5 minutes in light traffic (if that ever happens during the day) to Santa Monica Blvd. and Wilshire Blvd., breakfast was continental style and nothing to brag or complain about . . . except the awesome pancake machine (magic like the French Fry vending machine at the Boise Airport)  and the staff was cordial and working the best they could with what they've got.If the price was closer or under $100 per night, I would give this motel an average (3) rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r363973072-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>363973072</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Really happy with my stay there!!</t>
+  </si>
+  <si>
+    <t>I stayed there for 11 nights and it was very good!! The room was exactly as it appeared in the pictures. It was suuuper clrean. It was very comfortable, with lots of facilities like AC, heater, TV, radio, wifi, coffee &amp;tea machine, fridge, iron... I never managed to make the safe work but I didn't ask for help either ^^ The pool was great and the included breakfast too. The bathroom was good and no old at all. I liked all the included toiletries. The place was noisy at night depending on the days. The stuff where friendly and helpful. I would go back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I stayed there for 11 nights and it was very good!! The room was exactly as it appeared in the pictures. It was suuuper clrean. It was very comfortable, with lots of facilities like AC, heater, TV, radio, wifi, coffee &amp;tea machine, fridge, iron... I never managed to make the safe work but I didn't ask for help either ^^ The pool was great and the included breakfast too. The bathroom was good and no old at all. I liked all the included toiletries. The place was noisy at night depending on the days. The stuff where friendly and helpful. I would go back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r359499185-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>359499185</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Clean comfortable good location</t>
+  </si>
+  <si>
+    <t>The interior rooms are well built and decorated beautifully. Very clean and spacious. Nice breakfast. Neat and clean establishment. Good location near buses and slightly residential area and not many homeless people seen. Loses a star as outside slightly shabby and doesn't do justice to whats inside. Lovely helpful staffMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>The interior rooms are well built and decorated beautifully. Very clean and spacious. Nice breakfast. Neat and clean establishment. Good location near buses and slightly residential area and not many homeless people seen. Loses a star as outside slightly shabby and doesn't do justice to whats inside. Lovely helpful staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r347945604-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>347945604</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Presidents Holiday</t>
+  </si>
+  <si>
+    <t>It's a very nice hotel,  been updraded since last time I was here about 2 years go. Close to driving distance of Santa Monica Pier, easy freeway access. Friendly staff, clean location. Parking is great as well. Serve breakfest in the mornings, coffee maker in room so that is good. I Recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>It's a very nice hotel,  been updraded since last time I was here about 2 years go. Close to driving distance of Santa Monica Pier, easy freeway access. Friendly staff, clean location. Parking is great as well. Serve breakfest in the mornings, coffee maker in room so that is good. I Recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r343826758-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>343826758</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>A rose among -- not so many roses!!</t>
+  </si>
+  <si>
+    <t>I guess it depends on what you're looking for:
+Polite and friendly staff - check.
+Clean/spotless bathroom - check
+Comfortable bed - check
+Bright lights and cheerful room - check
+Free wifi - check
+Free parking - check
+Free breakfast - check
+That's not bad for the great rate we got through booking.com and we enjoyed the stay so much we extended for an additional five nights. It is extraordinary value for money.
+Hotel's location is superb, close to everything in Century City, the Mormon Temple, good food, great coffee shops, supermarkets etc. 
+Hotel's exterior - well, it looks fairly awful. It's a renovated Travelodge and it shows. The walkways have been painted but the walls and room doors are that sad hospital blue-grey - and it simply looks depressed. There's a small swimming pool - but it's January and I'm not a masochist.
+So let me compare it with a very fancy-shmancy hotel we stayed in not too long ago where a quadruple espresso was — $40. Four shots of coffee at $10 each shot. Where the staff behaved as though I was doing them a favor by staying there. Where the room was clean and lovely and very chintzy. And where parking on the hotel grounds was $50 a night (for which I would have expected the car to have a garage of its own, and a full service car wash and vacuum etc etc. but no….) The...I guess it depends on what you're looking for:Polite and friendly staff - check.Clean/spotless bathroom - checkComfortable bed - checkBright lights and cheerful room - checkFree wifi - checkFree parking - checkFree breakfast - checkThat's not bad for the great rate we got through booking.com and we enjoyed the stay so much we extended for an additional five nights. It is extraordinary value for money.Hotel's location is superb, close to everything in Century City, the Mormon Temple, good food, great coffee shops, supermarkets etc. Hotel's exterior - well, it looks fairly awful. It's a renovated Travelodge and it shows. The walkways have been painted but the walls and room doors are that sad hospital blue-grey - and it simply looks depressed. There's a small swimming pool - but it's January and I'm not a masochist.So let me compare it with a very fancy-shmancy hotel we stayed in not too long ago where a quadruple espresso was — $40. Four shots of coffee at $10 each shot. Where the staff behaved as though I was doing them a favor by staying there. Where the room was clean and lovely and very chintzy. And where parking on the hotel grounds was $50 a night (for which I would have expected the car to have a garage of its own, and a full service car wash and vacuum etc etc. but no….) The hotel grounds were immaculate. Lovely manicured beds of flowers, beautiful in every way. And the second was 4x the price of the first. Which will I return to - the Azul, absolutely, positively.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>I guess it depends on what you're looking for:
+Polite and friendly staff - check.
+Clean/spotless bathroom - check
+Comfortable bed - check
+Bright lights and cheerful room - check
+Free wifi - check
+Free parking - check
+Free breakfast - check
+That's not bad for the great rate we got through booking.com and we enjoyed the stay so much we extended for an additional five nights. It is extraordinary value for money.
+Hotel's location is superb, close to everything in Century City, the Mormon Temple, good food, great coffee shops, supermarkets etc. 
+Hotel's exterior - well, it looks fairly awful. It's a renovated Travelodge and it shows. The walkways have been painted but the walls and room doors are that sad hospital blue-grey - and it simply looks depressed. There's a small swimming pool - but it's January and I'm not a masochist.
+So let me compare it with a very fancy-shmancy hotel we stayed in not too long ago where a quadruple espresso was — $40. Four shots of coffee at $10 each shot. Where the staff behaved as though I was doing them a favor by staying there. Where the room was clean and lovely and very chintzy. And where parking on the hotel grounds was $50 a night (for which I would have expected the car to have a garage of its own, and a full service car wash and vacuum etc etc. but no….) The...I guess it depends on what you're looking for:Polite and friendly staff - check.Clean/spotless bathroom - checkComfortable bed - checkBright lights and cheerful room - checkFree wifi - checkFree parking - checkFree breakfast - checkThat's not bad for the great rate we got through booking.com and we enjoyed the stay so much we extended for an additional five nights. It is extraordinary value for money.Hotel's location is superb, close to everything in Century City, the Mormon Temple, good food, great coffee shops, supermarkets etc. Hotel's exterior - well, it looks fairly awful. It's a renovated Travelodge and it shows. The walkways have been painted but the walls and room doors are that sad hospital blue-grey - and it simply looks depressed. There's a small swimming pool - but it's January and I'm not a masochist.So let me compare it with a very fancy-shmancy hotel we stayed in not too long ago where a quadruple espresso was — $40. Four shots of coffee at $10 each shot. Where the staff behaved as though I was doing them a favor by staying there. Where the room was clean and lovely and very chintzy. And where parking on the hotel grounds was $50 a night (for which I would have expected the car to have a garage of its own, and a full service car wash and vacuum etc etc. but no….) The hotel grounds were immaculate. Lovely manicured beds of flowers, beautiful in every way. And the second was 4x the price of the first. Which will I return to - the Azul, absolutely, positively.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r342837194-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>342837194</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Surprisingly good</t>
+  </si>
+  <si>
+    <t>Admitted, the looks of the hotel at the corner of Santa Monica Avenue is not that great.The entrance of the look like a ordinary motel.But the price quality is really good.The bathroom was very clean, the beds good the sleep on.Quite close to the 405.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Admitted, the looks of the hotel at the corner of Santa Monica Avenue is not that great.The entrance of the look like a ordinary motel.But the price quality is really good.The bathroom was very clean, the beds good the sleep on.Quite close to the 405.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r332145144-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>332145144</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Appearances can be deceptive, in a good way.</t>
+  </si>
+  <si>
+    <t>Stayed here recently as I had an early morning visit to the passport office. While it doesn't look anything special from the outside I was pleasantly surprised by the rooms.They were spotlessly clean, well equipped with new furnishings and very well maintained. The staff at check in and check out were friendly and helpful and were very accommodating.It was a surprising trip as I didn't expect such a high standard for the $150 I paid for a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here recently as I had an early morning visit to the passport office. While it doesn't look anything special from the outside I was pleasantly surprised by the rooms.They were spotlessly clean, well equipped with new furnishings and very well maintained. The staff at check in and check out were friendly and helpful and were very accommodating.It was a surprising trip as I didn't expect such a high standard for the $150 I paid for a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r331832744-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>331832744</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>The hotel has been open by new owners. Very nice rooms extremely clean very helpful had a slight error on our bill but corrected immediately would stay here anytime it's absolutely top notch for someone that is on a bit of a budget and is looking for top quality lodgingMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>The hotel has been open by new owners. Very nice rooms extremely clean very helpful had a slight error on our bill but corrected immediately would stay here anytime it's absolutely top notch for someone that is on a bit of a budget and is looking for top quality lodgingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r325368079-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>325368079</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>UCLA Parent Weekend</t>
+  </si>
+  <si>
+    <t>Had a good stay at Azul. We didn't like the smell when we first walked in the room, but the office staff was very pleasant. The free parking was a definite  plus. I would recommend it for a last minute short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Had a good stay at Azul. We didn't like the smell when we first walked in the room, but the office staff was very pleasant. The free parking was a definite  plus. I would recommend it for a last minute short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r320409961-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>320409961</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Great Place Great Location</t>
+  </si>
+  <si>
+    <t>Great place and very well priced.  It is centrally located between Santa Monica and Hollywood.  Its also has very easy access to the interstate and restaurants.  Traffic can be a bit crazy sometimes and watch out for the merge in front of the hotel.  The was almost an accident from people not stopping at the stop sign.  A++ MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place and very well priced.  It is centrally located between Santa Monica and Hollywood.  Its also has very easy access to the interstate and restaurants.  Traffic can be a bit crazy sometimes and watch out for the merge in front of the hotel.  The was almost an accident from people not stopping at the stop sign.  A++ More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r319508801-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>319508801</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>good price, nice place</t>
+  </si>
+  <si>
+    <t>The location is near a lot of attractions,  the rooms are spacious, beds are comfy.  I loved being able to take a dip in the pool!It is right on the side of a busy road so don't complain because once you get into bed you can't hear a thing.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>The location is near a lot of attractions,  the rooms are spacious, beds are comfy.  I loved being able to take a dip in the pool!It is right on the side of a busy road so don't complain because once you get into bed you can't hear a thing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r317770993-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>317770993</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Great breakfast, helpful staff</t>
+  </si>
+  <si>
+    <t>We stayed here in August as a family of 4 for 6 nights. It was very well located for most things. The room was very clean and well equipped. Cleaners did a great job every day. Although it's not the most attractive from the outside the rooms were nice and breakfast was great. It had a lot of choice with cereals, fruit, yoghurt, toast, bagels, muffins, buns and my kids loved the pancake making machine. The staff were very helpful. Especially Kevin.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed here in August as a family of 4 for 6 nights. It was very well located for most things. The room was very clean and well equipped. Cleaners did a great job every day. Although it's not the most attractive from the outside the rooms were nice and breakfast was great. It had a lot of choice with cereals, fruit, yoghurt, toast, bagels, muffins, buns and my kids loved the pancake making machine. The staff were very helpful. Especially Kevin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r314899458-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>314899458</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Blue!! me away!</t>
+  </si>
+  <si>
+    <t>Check in was great. Kevin on reception was really helpful and welcoming. Our room was on the first floor facing the main road but noise was never an issue during our stay. The room was spacious, clean and the bathroom adequate. There was air conditioning in the room which was fortunate as the temperature reached 36c while were there.There was tea making in the room but hot and cold beverages were available 24/7 in reception. The area is very local and not in the tourist trail but only about a 15 minute walk to the nearest pick up for the Hop on Hop off tour bus. The swimming pool was clean and very cold but still inviting after a hard days sightseeing. Breakfast was plentiful and varied.Great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was great. Kevin on reception was really helpful and welcoming. Our room was on the first floor facing the main road but noise was never an issue during our stay. The room was spacious, clean and the bathroom adequate. There was air conditioning in the room which was fortunate as the temperature reached 36c while were there.There was tea making in the room but hot and cold beverages were available 24/7 in reception. The area is very local and not in the tourist trail but only about a 15 minute walk to the nearest pick up for the Hop on Hop off tour bus. The swimming pool was clean and very cold but still inviting after a hard days sightseeing. Breakfast was plentiful and varied.Great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r311843367-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>311843367</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Clean and quiet, all I needed</t>
+  </si>
+  <si>
+    <t>The room was small but recently renovated. The carpet and bedding seemed to be new, no smell. It was clean and quiet. The breakfast was decent compared to similar level, with yogurt and fruit. There was coffee in the lobby at any time, although I did not try it. No microwave in the room but they let you use the one in the breakfast area.All in all, overpriced, of course, but good for my business purpose.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff S, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2015</t>
+  </si>
+  <si>
+    <t>The room was small but recently renovated. The carpet and bedding seemed to be new, no smell. It was clean and quiet. The breakfast was decent compared to similar level, with yogurt and fruit. There was coffee in the lobby at any time, although I did not try it. No microwave in the room but they let you use the one in the breakfast area.All in all, overpriced, of course, but good for my business purpose.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r311458993-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>311458993</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Great Location, Good rooms, Bad Lobby</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is good, for the price the location is good- and for LA you can walk to a lot of restaurants. I will stay again! One suggestion is the lobby looks much shabbier than the rest of the hotel, don't let distract you. For the management; get some warm lighting lightbulbs, a couple of bushes and some lounge music on 10$ speakers inside the office and you're more or less there. MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is good, for the price the location is good- and for LA you can walk to a lot of restaurants. I will stay again! One suggestion is the lobby looks much shabbier than the rest of the hotel, don't let distract you. For the management; get some warm lighting lightbulbs, a couple of bushes and some lounge music on 10$ speakers inside the office and you're more or less there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r309494894-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>309494894</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Perfect for a short stay in LA</t>
+  </si>
+  <si>
+    <t>Not a fancy place, but conveniently located for the price. From the outside, it doesn't look that great but the rooms are nice enough and clean. The rooms have been updated not so long ago, but they are not brand new. Our room was located on the second level (no elevator) but facing the boulevard which can be noisy. I recommend earplugs if you are a light sleeper. I think our room was very spacious, but I am not sure they are all that way. The free breakfast was good enough, it was a good way to start the day. It was pretty well located also and that is a must in LA considering the traffic. I'd recommend it for a few nights, but probably not for a long stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Not a fancy place, but conveniently located for the price. From the outside, it doesn't look that great but the rooms are nice enough and clean. The rooms have been updated not so long ago, but they are not brand new. Our room was located on the second level (no elevator) but facing the boulevard which can be noisy. I recommend earplugs if you are a light sleeper. I think our room was very spacious, but I am not sure they are all that way. The free breakfast was good enough, it was a good way to start the day. It was pretty well located also and that is a must in LA considering the traffic. I'd recommend it for a few nights, but probably not for a long stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r304811976-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>304811976</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good and close </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights. It was clean, and price included breakfast, which was enough to get one going. The pool was a nice break from the heat.   Air conditioner can be big loud.  The location is close to Santa Monica ( we walked there!) yes it's about 10km but walking allows you to see other parts of this place.   The gentleman at check-in counter does not appear to talk much, my husband with his funny humor git him going.  Nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights. It was clean, and price included breakfast, which was enough to get one going. The pool was a nice break from the heat.   Air conditioner can be big loud.  The location is close to Santa Monica ( we walked there!) yes it's about 10km but walking allows you to see other parts of this place.   The gentleman at check-in counter does not appear to talk much, my husband with his funny humor git him going.  Nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r303554010-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>303554010</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>reasonable - for westwood</t>
+  </si>
+  <si>
+    <t>It was so convenient to UCLA and the room was quite nice.  Breakfast was average but they had a really cool pancake machine - perfectly adequate.  Room was modern and clean, prices not bad for this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was so convenient to UCLA and the room was quite nice.  Breakfast was average but they had a really cool pancake machine - perfectly adequate.  Room was modern and clean, prices not bad for this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r298948457-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>298948457</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Good base to explore LA</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights whilst on a road trip. The hotel is in a good location if you have a car to explore as most people would in LA. It was clean and the room was comfortable with a good and fairly modern bathroom more than adequate for my husband and I and our son. It is located on a busy road but we were not bothered by any noise. We had no issues parking while we were there. The breakfast was basic but good with the usual buffet offerings. The staff were very friendly and offered helpful suggestions on places to see during our stay. Highly recommended for a stop over/base to explore MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights whilst on a road trip. The hotel is in a good location if you have a car to explore as most people would in LA. It was clean and the room was comfortable with a good and fairly modern bathroom more than adequate for my husband and I and our son. It is located on a busy road but we were not bothered by any noise. We had no issues parking while we were there. The breakfast was basic but good with the usual buffet offerings. The staff were very friendly and offered helpful suggestions on places to see during our stay. Highly recommended for a stop over/base to explore More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r298109920-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>298109920</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Good benefit-cost ratio</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my boyfriend during 4 days in LA and i can say it is well located, with a honest breakfast and great and big rooms. What i liked the most was that we didnt pay for parking and that the beds were really big. I would recommed for those who want to enjoy the city and dont need a lot of ammenities. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff S, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my boyfriend during 4 days in LA and i can say it is well located, with a honest breakfast and great and big rooms. What i liked the most was that we didnt pay for parking and that the beds were really big. I would recommed for those who want to enjoy the city and dont need a lot of ammenities. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r298050200-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>298050200</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>We stayed at this place first night in America after not having slept for close to 48hrs from an international flight and not being allowed to check in until late afternoon. I'm actually thankful for this sleepless state as I think if we weren't so physically exhausted we may not have slept as we did. The motel is on a fairly busy road and our room was next to the cleaners/laundry room. We were lucky enough to get a car space but there is very limited parking and the surrounding street parking is also limited. However room was clean, wifi worked and the breakfast served was the usual American motel fare. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this place first night in America after not having slept for close to 48hrs from an international flight and not being allowed to check in until late afternoon. I'm actually thankful for this sleepless state as I think if we weren't so physically exhausted we may not have slept as we did. The motel is on a fairly busy road and our room was next to the cleaners/laundry room. We were lucky enough to get a car space but there is very limited parking and the surrounding street parking is also limited. However room was clean, wifi worked and the breakfast served was the usual American motel fare. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r282999370-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>282999370</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>"Terrible attitude by management"</t>
+  </si>
+  <si>
+    <t>I stayed there in june 2015 thru the veterans administration who contract with veterans for lodging who travel long distance for treatment at the veterans hospital which is close by.The room was clean, but hot and stuffy, the air was loud, and no circulation even with the window open. I parked in the lot facing santa monica blvd and there are cameras facing the lot from two different locations. my car was swiped on the bumper when either the car next to me was pulling out or in, $1000.00 worth of damage. The motel refuses to provide a copy of the disc for my review. The property manager Jeff Simon of L.A. hotels stated "this isnt our first  rodeo". what a terrible way to treat a guest. god for bid what if some kind of assault happened and management refused to provide documentation, its not the best part of town. very loud lots of traffic. I have attempted to contact management by all means available with no response. what a way to treat guests let alone veterans who stood up to protect you and now need medical treatment, and you are adding to their problems. Sincerely, Jeff GMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jeff S, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>I stayed there in june 2015 thru the veterans administration who contract with veterans for lodging who travel long distance for treatment at the veterans hospital which is close by.The room was clean, but hot and stuffy, the air was loud, and no circulation even with the window open. I parked in the lot facing santa monica blvd and there are cameras facing the lot from two different locations. my car was swiped on the bumper when either the car next to me was pulling out or in, $1000.00 worth of damage. The motel refuses to provide a copy of the disc for my review. The property manager Jeff Simon of L.A. hotels stated "this isnt our first  rodeo". what a terrible way to treat a guest. god for bid what if some kind of assault happened and management refused to provide documentation, its not the best part of town. very loud lots of traffic. I have attempted to contact management by all means available with no response. what a way to treat guests let alone veterans who stood up to protect you and now need medical treatment, and you are adding to their problems. Sincerely, Jeff GMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r278909700-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>278909700</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Clorox Smell Did Not Mask the Filthy Sheets At Azul Inn</t>
+  </si>
+  <si>
+    <t>My husband &amp; I checked in late June 8, 2015- the hotel is obviously old &amp; outdated, but based on most reviews, we assumed it would be all right for a quick stay. The room had an overwhelming smell of Clorox- we were exhausted after a long drive, so for "fresh air" opened the window (to the "lull" of traffic on busy Santa Monica Blvd) and fell asleep- I awakened the next morning, walked through the pretty neighborhood (soon to be the only redeeming part of the stay) to get bagels, and returned to the room &amp; pulled the bed sheet down low to lie down &amp; read &amp; enjoy a bagel, only to find a wide, long smear of human feces down the side of the fitted sheet- repulsive! I pulled the sheet off &amp; took it to the man at the desk and stated as an RN, I know feces are a health hazard- a breach of infection control- and should have been noticed by housekeeping! The man at the desk said I should have reported it the night before, so "too late for a refund."  I said whether I discovered feces smeared sheets five minutes after checking in or five minutes before checking out, I am justified a refund! He told me to contact Expedia- which I did, the Expedia rep stated they weren't able to refund my payment &amp; called the desk herself, and called me...My husband &amp; I checked in late June 8, 2015- the hotel is obviously old &amp; outdated, but based on most reviews, we assumed it would be all right for a quick stay. The room had an overwhelming smell of Clorox- we were exhausted after a long drive, so for "fresh air" opened the window (to the "lull" of traffic on busy Santa Monica Blvd) and fell asleep- I awakened the next morning, walked through the pretty neighborhood (soon to be the only redeeming part of the stay) to get bagels, and returned to the room &amp; pulled the bed sheet down low to lie down &amp; read &amp; enjoy a bagel, only to find a wide, long smear of human feces down the side of the fitted sheet- repulsive! I pulled the sheet off &amp; took it to the man at the desk and stated as an RN, I know feces are a health hazard- a breach of infection control- and should have been noticed by housekeeping! The man at the desk said I should have reported it the night before, so "too late for a refund."  I said whether I discovered feces smeared sheets five minutes after checking in or five minutes before checking out, I am justified a refund! He told me to contact Expedia- which I did, the Expedia rep stated they weren't able to refund my payment &amp; called the desk herself, and called me back stating Azul Inn desk still refused a refund. I contacted the City Attorney &amp; Santa Monica Health Department to file a complaint.  I went back to the Azul Inn's desk and told the man my actions.  He stated he would "talk to the manager again when the manager was there."  We left and have not been contacted and are out $184!  Azul Inn is the dirtiest hotel and worst service I have ever experienced.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>My husband &amp; I checked in late June 8, 2015- the hotel is obviously old &amp; outdated, but based on most reviews, we assumed it would be all right for a quick stay. The room had an overwhelming smell of Clorox- we were exhausted after a long drive, so for "fresh air" opened the window (to the "lull" of traffic on busy Santa Monica Blvd) and fell asleep- I awakened the next morning, walked through the pretty neighborhood (soon to be the only redeeming part of the stay) to get bagels, and returned to the room &amp; pulled the bed sheet down low to lie down &amp; read &amp; enjoy a bagel, only to find a wide, long smear of human feces down the side of the fitted sheet- repulsive! I pulled the sheet off &amp; took it to the man at the desk and stated as an RN, I know feces are a health hazard- a breach of infection control- and should have been noticed by housekeeping! The man at the desk said I should have reported it the night before, so "too late for a refund."  I said whether I discovered feces smeared sheets five minutes after checking in or five minutes before checking out, I am justified a refund! He told me to contact Expedia- which I did, the Expedia rep stated they weren't able to refund my payment &amp; called the desk herself, and called me...My husband &amp; I checked in late June 8, 2015- the hotel is obviously old &amp; outdated, but based on most reviews, we assumed it would be all right for a quick stay. The room had an overwhelming smell of Clorox- we were exhausted after a long drive, so for "fresh air" opened the window (to the "lull" of traffic on busy Santa Monica Blvd) and fell asleep- I awakened the next morning, walked through the pretty neighborhood (soon to be the only redeeming part of the stay) to get bagels, and returned to the room &amp; pulled the bed sheet down low to lie down &amp; read &amp; enjoy a bagel, only to find a wide, long smear of human feces down the side of the fitted sheet- repulsive! I pulled the sheet off &amp; took it to the man at the desk and stated as an RN, I know feces are a health hazard- a breach of infection control- and should have been noticed by housekeeping! The man at the desk said I should have reported it the night before, so "too late for a refund."  I said whether I discovered feces smeared sheets five minutes after checking in or five minutes before checking out, I am justified a refund! He told me to contact Expedia- which I did, the Expedia rep stated they weren't able to refund my payment &amp; called the desk herself, and called me back stating Azul Inn desk still refused a refund. I contacted the City Attorney &amp; Santa Monica Health Department to file a complaint.  I went back to the Azul Inn's desk and told the man my actions.  He stated he would "talk to the manager again when the manager was there."  We left and have not been contacted and are out $184!  Azul Inn is the dirtiest hotel and worst service I have ever experienced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r277426118-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>277426118</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Nice position</t>
+  </si>
+  <si>
+    <t>A perfect "inn" for a night. The rooms were quite clean even if the rest of the place seemed not. Easy to find and easy to park the car just on the back of the place. A short drive away from Hollywood, Beverly Hills and Santa Barbara.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>A perfect "inn" for a night. The rooms were quite clean even if the rest of the place seemed not. Easy to find and easy to park the car just on the back of the place. A short drive away from Hollywood, Beverly Hills and Santa Barbara.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r266136735-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>266136735</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Looks Can Be Deceiving</t>
+  </si>
+  <si>
+    <t>As we pulled up to the hotel, I was uninspired. It looked old, run down, and not very clean. When we checked it, the receptionist was welcoming and directed us to park in the back of the hotel where there was still parking. When we entered our rooms, I changed my mind: it didn't look that bad on the inside. The room was just as good as a Hilton or Marriott hotel and also had all the features/amenities. There was free wifi, a TV, a work desk, plenty of outlets, a closet, a coffee machine, AC/heater, and all the basic toiletries were there. The shower was a stand-in shower (not a tub) and looked pretty clean. The room was pretty spacious as well. In the morning there was free, continental breakfast: cereal, muffins, croissants, juice, pancakes (pancake machine).It is also located very conveniently next to Interstate 405 and 10, Santa Monica Boulevard (which goes to Beverley Hills and Hollywood), and is close to UCLA. Overall, this hotel may look bad on the outside, but lacks nothing on the inside and in terms of location.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>As we pulled up to the hotel, I was uninspired. It looked old, run down, and not very clean. When we checked it, the receptionist was welcoming and directed us to park in the back of the hotel where there was still parking. When we entered our rooms, I changed my mind: it didn't look that bad on the inside. The room was just as good as a Hilton or Marriott hotel and also had all the features/amenities. There was free wifi, a TV, a work desk, plenty of outlets, a closet, a coffee machine, AC/heater, and all the basic toiletries were there. The shower was a stand-in shower (not a tub) and looked pretty clean. The room was pretty spacious as well. In the morning there was free, continental breakfast: cereal, muffins, croissants, juice, pancakes (pancake machine).It is also located very conveniently next to Interstate 405 and 10, Santa Monica Boulevard (which goes to Beverley Hills and Hollywood), and is close to UCLA. Overall, this hotel may look bad on the outside, but lacks nothing on the inside and in terms of location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r264674965-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>264674965</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>New Ownership Didn't Improve Hotel</t>
+  </si>
+  <si>
+    <t>We've stayed here before because of its location, and were hoping that the new ownership would have improved things. But we were not impressed. We were directed to a dark, dingy room on the first floor. When we went in, we found a housekeeper lying on the bed watching TV and the room was a mess. We went back to the front desk and asked for a 2nd floor room but was told there were none (yet the place seemed empty). We were given the room next door to the first one, also in a dark corridor - it had a broken screen to the alley outside. Given the heat, we wanted to leave the window open for some fresh air but felt unsafe. Slept there one night and moved to another hotel for the rest of our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed here before because of its location, and were hoping that the new ownership would have improved things. But we were not impressed. We were directed to a dark, dingy room on the first floor. When we went in, we found a housekeeper lying on the bed watching TV and the room was a mess. We went back to the front desk and asked for a 2nd floor room but was told there were none (yet the place seemed empty). We were given the room next door to the first one, also in a dark corridor - it had a broken screen to the alley outside. Given the heat, we wanted to leave the window open for some fresh air but felt unsafe. Slept there one night and moved to another hotel for the rest of our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r262190236-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>262190236</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>A Recommendable Hotel</t>
+  </si>
+  <si>
+    <t>This hotel satisfied mainly our expectations; The cleanness was the main positive feature of this hotel, besides its good location due to convenient access to Westwood neighbourhood.  Negative points:1. Breakfast was not something special and was simple. It could be better. 2. There was a young guy at the reception with an unacceptable and rather rude attitude. In general, I recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This hotel satisfied mainly our expectations; The cleanness was the main positive feature of this hotel, besides its good location due to convenient access to Westwood neighbourhood.  Negative points:1. Breakfast was not something special and was simple. It could be better. 2. There was a young guy at the reception with an unacceptable and rather rude attitude. In general, I recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r246693994-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>246693994</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Convenient, comfortable place to stay</t>
+  </si>
+  <si>
+    <t>We chose the Azul Inn for its close proximity to Westwood where our son is staying whilst studying at UCLA, we stayed for 2 nights. It was also handy for catching the bus to Hollywood via Beverley Hills. Overall we were happy with the motel, the room was clean and well appointed. The decor was pleasant and the bathroom clean and modern. Parking at the motel was not a problem. Breakfast was adequate, I particularly enjoyed the pancakes from the pancake making machine but the pastries were not always as fresh as I would have liked. There was a room (actually more of a lean-to) off the lobby in which to eat breakfast but it was cold and smelled damp so it was not a pleasant experience. We would have preferred to eat breakfast in our room but didn't fancy the prospect of juggling hot drinks and paper plates up the concrete steps. Overall,it was good value for money and it satisfied our needsMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We chose the Azul Inn for its close proximity to Westwood where our son is staying whilst studying at UCLA, we stayed for 2 nights. It was also handy for catching the bus to Hollywood via Beverley Hills. Overall we were happy with the motel, the room was clean and well appointed. The decor was pleasant and the bathroom clean and modern. Parking at the motel was not a problem. Breakfast was adequate, I particularly enjoyed the pancakes from the pancake making machine but the pastries were not always as fresh as I would have liked. There was a room (actually more of a lean-to) off the lobby in which to eat breakfast but it was cold and smelled damp so it was not a pleasant experience. We would have preferred to eat breakfast in our room but didn't fancy the prospect of juggling hot drinks and paper plates up the concrete steps. Overall,it was good value for money and it satisfied our needsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r231502319-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>231502319</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Easy but nice</t>
+  </si>
+  <si>
+    <t>Nice rooms, new carpet and furniture. Breakfast was okay! Very nice and friendly staff at the reception. The street in front of the motel is loud, but it is okay. Free parking and in front of the Motel is a bus stop, which drives directly to Santa Monica Pier. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Nice rooms, new carpet and furniture. Breakfast was okay! Very nice and friendly staff at the reception. The street in front of the motel is loud, but it is okay. Free parking and in front of the Motel is a bus stop, which drives directly to Santa Monica Pier. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r229429192-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>229429192</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Convenient and comfortable</t>
+  </si>
+  <si>
+    <t>This was a very convenient place to stay - easy to get to Santa Monica beach and centre as well as Hollywood/Sunset Boulevard.  Very clean and well decorated.  Front desk staff were averagely helpful (I think we just got the 1 elderly guy that couldn't have cared less).  Breakfast very average but filled the gap.  Although on the main rd, our room was relatively quiet.  Good, safe area.  Very pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This was a very convenient place to stay - easy to get to Santa Monica beach and centre as well as Hollywood/Sunset Boulevard.  Very clean and well decorated.  Front desk staff were averagely helpful (I think we just got the 1 elderly guy that couldn't have cared less).  Breakfast very average but filled the gap.  Although on the main rd, our room was relatively quiet.  Good, safe area.  Very pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r221018681-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>221018681</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Nice,  clean and convenient</t>
+  </si>
+  <si>
+    <t>We stayed two nights in July 2014 and for our needs it was perfect.  Friendly staff and a convenient location with plenty of parking space. The only thing I felt a bit uncomfortable with was coming to our room after dark. The place is not closed off and i felt a bit uneasy walking the stairs rushing to my room.  But it seemed like a safe neighborhood and i assume it was my own feeling more than anything.  The room was very clean and fresh,  nicely decorated. Overall a great stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed two nights in July 2014 and for our needs it was perfect.  Friendly staff and a convenient location with plenty of parking space. The only thing I felt a bit uncomfortable with was coming to our room after dark. The place is not closed off and i felt a bit uneasy walking the stairs rushing to my room.  But it seemed like a safe neighborhood and i assume it was my own feeling more than anything.  The room was very clean and fresh,  nicely decorated. Overall a great stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r220758866-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>220758866</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Best bargain in West Los Angeles</t>
+  </si>
+  <si>
+    <t>Azul Inn is an old economy motel that has been renovated with a real retrograde feel.  Conveniently located and fairly easy access right off the 405 Freeway.  Very reasonable rates for the area.  The staff is friendly and helpful, they have a nice swimming pool, and it's surprisingly quiet for being right on Santa Monica Blvd.  Parking is a little tight, but (and pay attention here) IT'S FREE!  This is my choice for future stays in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Azul Inn is an old economy motel that has been renovated with a real retrograde feel.  Conveniently located and fairly easy access right off the 405 Freeway.  Very reasonable rates for the area.  The staff is friendly and helpful, they have a nice swimming pool, and it's surprisingly quiet for being right on Santa Monica Blvd.  Parking is a little tight, but (and pay attention here) IT'S FREE!  This is my choice for future stays in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r220721490-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>220721490</t>
+  </si>
+  <si>
+    <t>Affordable and conveniently located</t>
+  </si>
+  <si>
+    <t>We weren't sure when we booked what Azul Inn would be like, but it turned out to be right around the corner from where I had been attending a conference and only a short drive from the Getty, Santa Monica, and the airport. In addition there are great places to eat, most of them reasonably priced, on Westwood Blvd. The breakfast buffet was decent, the room was comfortable, and overall we'd stay here again. The one down-side was a bed that was too soft for our backs.MoreShow less</t>
+  </si>
+  <si>
+    <t>We weren't sure when we booked what Azul Inn would be like, but it turned out to be right around the corner from where I had been attending a conference and only a short drive from the Getty, Santa Monica, and the airport. In addition there are great places to eat, most of them reasonably priced, on Westwood Blvd. The breakfast buffet was decent, the room was comfortable, and overall we'd stay here again. The one down-side was a bed that was too soft for our backs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r216249808-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>216249808</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Great area and nicely remodeled motel!</t>
+  </si>
+  <si>
+    <t>We were very happy with our stay. For a reasonable price, we got a great room in a central area. The breakfast was good although carb heavy. The room was ok size, clean, updated but a bit noisy. We could hear traffic and the neighbors...MoreShow less</t>
+  </si>
+  <si>
+    <t>We were very happy with our stay. For a reasonable price, we got a great room in a central area. The breakfast was good although carb heavy. The room was ok size, clean, updated but a bit noisy. We could hear traffic and the neighbors...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r204842839-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>204842839</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This was the second time we stayed here. My boyfriend had surgery at the VA in West L.A., and the VA offers vouchers for people who live further than 50 miles. The room was clean, and the staff was very accomodating. Our room had a king bed, it was comfortable. The back of the room looked out into a parking area and an apartment complex. If we opened the windows it got a bit loud -- especially the day the trash truck came! Otherwise, the location is perfect for people visiting Los Angeles -- it's between Century City/Beverly Hills to the east and Santa Monica to the west. To the north you have UCLA and Westwood Village. The very beautiful Mormon Temple is directly across the street.The breakfast bar gets a big crowded -- because everything offered is in a small, crowded space. However, the fruit was fresh, they offer bagels and pancakes. The coffee was good. By the way, I may have left my coffee mug there -- I'm wondering if mgmnt found it? It doesn't really matter -- I've already bought a new one!Anyway, for anyone visiting L.A. on a budget, I'd recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>This was the second time we stayed here. My boyfriend had surgery at the VA in West L.A., and the VA offers vouchers for people who live further than 50 miles. The room was clean, and the staff was very accomodating. Our room had a king bed, it was comfortable. The back of the room looked out into a parking area and an apartment complex. If we opened the windows it got a bit loud -- especially the day the trash truck came! Otherwise, the location is perfect for people visiting Los Angeles -- it's between Century City/Beverly Hills to the east and Santa Monica to the west. To the north you have UCLA and Westwood Village. The very beautiful Mormon Temple is directly across the street.The breakfast bar gets a big crowded -- because everything offered is in a small, crowded space. However, the fruit was fresh, they offer bagels and pancakes. The coffee was good. By the way, I may have left my coffee mug there -- I'm wondering if mgmnt found it? It doesn't really matter -- I've already bought a new one!Anyway, for anyone visiting L.A. on a budget, I'd recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r204037894-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>204037894</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Great value, safe location</t>
+  </si>
+  <si>
+    <t>Very pleasantly surprised here!  All of the rooms appear to have been recently renovated, so on the inside, it looked very new and very clean.  I had a queen bed room, space was a bit tight.  I saw a king bed room, and it looked about 20% bigger, where there was a little room to walk around inside the room.  The bathroom was very compact, but all brand new, and all sparkling clean.  Nice amenities provided.  Really great water pressure in the shower.  There was a small refrigerator, and nice coffee setup, and a nice big flat screen t.v. with lots of cable channels including HBO.  
+I didn't hear any noise from my neighbors, but I suspect that the insulation is not the best possible, and I did hear people walking around upstairs on the 2nd floor.  Most of that is drowned out by the air conditioning unit, which is on the loud side.  The bed was reasonably comfortable, but the linens and towels were not the best possible quality/thickness.  
+There was a nice clean small pool, a few vending machines, and a nice breakfast offered in the lobby, included in the room rate.  I suspect there isn't too much extra parking, so if you arrive a night you might have a problem, but the lobby told me they would tell me where to find it.  There is no convenience store in the immediate area, about a 15 minute walk...Very pleasantly surprised here!  All of the rooms appear to have been recently renovated, so on the inside, it looked very new and very clean.  I had a queen bed room, space was a bit tight.  I saw a king bed room, and it looked about 20% bigger, where there was a little room to walk around inside the room.  The bathroom was very compact, but all brand new, and all sparkling clean.  Nice amenities provided.  Really great water pressure in the shower.  There was a small refrigerator, and nice coffee setup, and a nice big flat screen t.v. with lots of cable channels including HBO.  I didn't hear any noise from my neighbors, but I suspect that the insulation is not the best possible, and I did hear people walking around upstairs on the 2nd floor.  Most of that is drowned out by the air conditioning unit, which is on the loud side.  The bed was reasonably comfortable, but the linens and towels were not the best possible quality/thickness.  There was a nice clean small pool, a few vending machines, and a nice breakfast offered in the lobby, included in the room rate.  I suspect there isn't too much extra parking, so if you arrive a night you might have a problem, but the lobby told me they would tell me where to find it.  There is no convenience store in the immediate area, about a 15 minute walk away I think, to Westwood Boulevard where there are gas stations.  The location is very safe, so despite the rooms being open to the street, it's as safe an area as you will find in Los Angeles.  The manager told me they are full every night, and I suspect that is true, compared to prices of other hotels nearby, which can easily be twice the price.  I love that the parking is free, which saves a lot of money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very pleasantly surprised here!  All of the rooms appear to have been recently renovated, so on the inside, it looked very new and very clean.  I had a queen bed room, space was a bit tight.  I saw a king bed room, and it looked about 20% bigger, where there was a little room to walk around inside the room.  The bathroom was very compact, but all brand new, and all sparkling clean.  Nice amenities provided.  Really great water pressure in the shower.  There was a small refrigerator, and nice coffee setup, and a nice big flat screen t.v. with lots of cable channels including HBO.  
+I didn't hear any noise from my neighbors, but I suspect that the insulation is not the best possible, and I did hear people walking around upstairs on the 2nd floor.  Most of that is drowned out by the air conditioning unit, which is on the loud side.  The bed was reasonably comfortable, but the linens and towels were not the best possible quality/thickness.  
+There was a nice clean small pool, a few vending machines, and a nice breakfast offered in the lobby, included in the room rate.  I suspect there isn't too much extra parking, so if you arrive a night you might have a problem, but the lobby told me they would tell me where to find it.  There is no convenience store in the immediate area, about a 15 minute walk...Very pleasantly surprised here!  All of the rooms appear to have been recently renovated, so on the inside, it looked very new and very clean.  I had a queen bed room, space was a bit tight.  I saw a king bed room, and it looked about 20% bigger, where there was a little room to walk around inside the room.  The bathroom was very compact, but all brand new, and all sparkling clean.  Nice amenities provided.  Really great water pressure in the shower.  There was a small refrigerator, and nice coffee setup, and a nice big flat screen t.v. with lots of cable channels including HBO.  I didn't hear any noise from my neighbors, but I suspect that the insulation is not the best possible, and I did hear people walking around upstairs on the 2nd floor.  Most of that is drowned out by the air conditioning unit, which is on the loud side.  The bed was reasonably comfortable, but the linens and towels were not the best possible quality/thickness.  There was a nice clean small pool, a few vending machines, and a nice breakfast offered in the lobby, included in the room rate.  I suspect there isn't too much extra parking, so if you arrive a night you might have a problem, but the lobby told me they would tell me where to find it.  There is no convenience store in the immediate area, about a 15 minute walk away I think, to Westwood Boulevard where there are gas stations.  The location is very safe, so despite the rooms being open to the street, it's as safe an area as you will find in Los Angeles.  The manager told me they are full every night, and I suspect that is true, compared to prices of other hotels nearby, which can easily be twice the price.  I love that the parking is free, which saves a lot of money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r197992013-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>197992013</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>It was OK for one night</t>
+  </si>
+  <si>
+    <t>I stayed here because of the reasonable price and was a little let down by the feel of this hotel.  I planned on staying 10 nights but checked out after the first, since I didn't feel very secure there.  The rooms all open to the street, it's noisy and run down, with a musty smell in the room.  It was OK for one night but I won't stay there in the future since I found better rates (UCLA discounts) at nicer hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I stayed here because of the reasonable price and was a little let down by the feel of this hotel.  I planned on staying 10 nights but checked out after the first, since I didn't feel very secure there.  The rooms all open to the street, it's noisy and run down, with a musty smell in the room.  It was OK for one night but I won't stay there in the future since I found better rates (UCLA discounts) at nicer hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r197429533-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>197429533</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>Between Santa Monica and Century City</t>
+  </si>
+  <si>
+    <t>Great location between Santa Monica Pier and the park above the bluffs.  Its near Venice Beach and Century City Westfield Mall.  It is an older hotel that has been refurbished nicely.  The staff is cordial enough until you get to know them and then they are very nice especially Haqu.  We travel here for medical treatment for my wife and he always makes sure she gets a bath tub as most rooms have showers. We very much appreciate him. It is within walking distance to many ethnic restaurants including Persian, Mexican, Chinese, Italian, Pizza, Mexican and American that I know and have visited.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location between Santa Monica Pier and the park above the bluffs.  Its near Venice Beach and Century City Westfield Mall.  It is an older hotel that has been refurbished nicely.  The staff is cordial enough until you get to know them and then they are very nice especially Haqu.  We travel here for medical treatment for my wife and he always makes sure she gets a bath tub as most rooms have showers. We very much appreciate him. It is within walking distance to many ethnic restaurants including Persian, Mexican, Chinese, Italian, Pizza, Mexican and American that I know and have visited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r194567601-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>194567601</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Location location location</t>
+  </si>
+  <si>
+    <t>If your purpose of finding a place is to be near the LDS temple in LA, you've hit the jackpot. Right across the street, with easy walking access, you can't do better than this hotel.  The hotel itself is pretty uninspiring. It's a refurbished (to some degree) older property, and it doesn't take long to realize refurbishing only goes so far. It served its purpose without fanfare. It was clean enough, parking was sufficient, and breakfast was decent. If you're going to the LDS temple, I highly recommend it. If you just need to be in the area, I would suggest looking at alternatives and compare. This is not a bad place, and it is not a great place. BTW, hotel staff was not warm and fuzzy. They did the job efficiently, but with no personal touch. Like the property itself, they were all about function.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>If your purpose of finding a place is to be near the LDS temple in LA, you've hit the jackpot. Right across the street, with easy walking access, you can't do better than this hotel.  The hotel itself is pretty uninspiring. It's a refurbished (to some degree) older property, and it doesn't take long to realize refurbishing only goes so far. It served its purpose without fanfare. It was clean enough, parking was sufficient, and breakfast was decent. If you're going to the LDS temple, I highly recommend it. If you just need to be in the area, I would suggest looking at alternatives and compare. This is not a bad place, and it is not a great place. BTW, hotel staff was not warm and fuzzy. They did the job efficiently, but with no personal touch. Like the property itself, they were all about function.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r189812598-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>189812598</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly pleasant</t>
+  </si>
+  <si>
+    <t>Needed a hotel close to the Mormon Temple in Los Angeles.  This is directly across the street and easy to find from the freeway.  Even though it is an older property, the interior renovation is very well done.  Ample continental breakfast (I didn't try the pancake machine, but it might be fun!).  Even though I was alone, I felt secure here, and was able to park my car just steps away from my room.  A lot if interesting restaurants within easy driving distance.  Had a much better stay here than at a Marriott Courtyard the next night.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Needed a hotel close to the Mormon Temple in Los Angeles.  This is directly across the street and easy to find from the freeway.  Even though it is an older property, the interior renovation is very well done.  Ample continental breakfast (I didn't try the pancake machine, but it might be fun!).  Even though I was alone, I felt secure here, and was able to park my car just steps away from my room.  A lot if interesting restaurants within easy driving distance.  Had a much better stay here than at a Marriott Courtyard the next night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r188632640-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>188632640</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Quiet &amp; Clean</t>
+  </si>
+  <si>
+    <t>We needed a place between LAX &amp; the French consulate for a late night flight and early morning appointment.  This place fit the bill exactly.  It was clean &amp; quiet (our window did face the back, rather than Santa Monica Blvd), the room was updated &amp; spotless, and there was a pleasant continental breakfast in the morning.  It surely saved us from horrific morning freeway traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We needed a place between LAX &amp; the French consulate for a late night flight and early morning appointment.  This place fit the bill exactly.  It was clean &amp; quiet (our window did face the back, rather than Santa Monica Blvd), the room was updated &amp; spotless, and there was a pleasant continental breakfast in the morning.  It surely saved us from horrific morning freeway traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r185640931-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>185640931</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Check in or not to Check in</t>
+  </si>
+  <si>
+    <t>Horrific experience. We reached at around 4:30 PM (check in time 3:00 PM) only to understand that our rooms were not ready. The manager (most pathetic I have ever seen), didn't even share this with us. We stand in front of the room to get another hostile treatment from the janitor. The manager told my wife that I was lying (Screw him).I would never recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Jeff S, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded November 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2013</t>
+  </si>
+  <si>
+    <t>Horrific experience. We reached at around 4:30 PM (check in time 3:00 PM) only to understand that our rooms were not ready. The manager (most pathetic I have ever seen), didn't even share this with us. We stand in front of the room to get another hostile treatment from the janitor. The manager told my wife that I was lying (Screw him).I would never recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r182037072-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>182037072</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Surprisingly good!</t>
+  </si>
+  <si>
+    <t>This hotel has had a big makeover in the last few years. The name has changed, went through different management and is much better. When I first stayed years ago it was a Motel6 and since then I was hesitant on staying again. This time it was surprisingly good. I felt leaving my car. I have stayed three times and the only complaint I have is needs more water pressure in shower. Other than that very comfortable and very quiet!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>This hotel has had a big makeover in the last few years. The name has changed, went through different management and is much better. When I first stayed years ago it was a Motel6 and since then I was hesitant on staying again. This time it was surprisingly good. I felt leaving my car. I have stayed three times and the only complaint I have is needs more water pressure in shower. Other than that very comfortable and very quiet!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r181038504-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>181038504</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>good location, low price</t>
+  </si>
+  <si>
+    <t>It's almost the cheapest hotel near UCLA. The room is clean, the bed is comfortable. In summer, the swiming pool is clean. The complimentary breakfast is not bad. Parking is very convinient. The receptionists are also friendly.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>It's almost the cheapest hotel near UCLA. The room is clean, the bed is comfortable. In summer, the swiming pool is clean. The complimentary breakfast is not bad. Parking is very convinient. The receptionists are also friendly.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r179862982-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>179862982</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Great value for money</t>
+  </si>
+  <si>
+    <t>Recently re-decorated Inn/motel. Good clean rooms, flat screen tv, coffee/fridge facilities. We took a shot on this place after some mixed reviews (I believe these reviews were before re-model) For the price, you can't argue. If you want a spacious room that is cleaned daily and in an ideal location, this is the place for you. Continental breakfast is actually very good -  side door does open out for more room -eat as much as you like. Staff are friendly. If you don't have a car (we didn't) you will rely on buses - 10 min walk to the left for main bus stops -you also pass a 7-11. 20 min journey to santa monica (big blue bus ideal) or 30 mins to downtown la - you can then catch another bus to Farmers Market or Hollywood. We had plenty of evenings out and felt comfortable walking around at night.We are returning to the Azul inn next week to end our stay in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Recently re-decorated Inn/motel. Good clean rooms, flat screen tv, coffee/fridge facilities. We took a shot on this place after some mixed reviews (I believe these reviews were before re-model) For the price, you can't argue. If you want a spacious room that is cleaned daily and in an ideal location, this is the place for you. Continental breakfast is actually very good -  side door does open out for more room -eat as much as you like. Staff are friendly. If you don't have a car (we didn't) you will rely on buses - 10 min walk to the left for main bus stops -you also pass a 7-11. 20 min journey to santa monica (big blue bus ideal) or 30 mins to downtown la - you can then catch another bus to Farmers Market or Hollywood. We had plenty of evenings out and felt comfortable walking around at night.We are returning to the Azul inn next week to end our stay in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r174399439-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174399439</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Clean basic motel in an excellent location</t>
+  </si>
+  <si>
+    <t>I stayed here last December for five nights and thoroughly enjoyed my stay. The location is perfect for UCLA and much cheaper than surrounding hotels if booked in advance. The staff are extremely friendly and attentive, especially Hector on reception. I reported that the Wifi was down and it was fixed within the hour. Housekeeper was rather persistent for her tip but that didn't detract from the stay and the room was very clean. The only downside was the noise from the traffic but this is Santa Monica Blvd so was expected. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>gmazulinn, Manager at Azul Inn West Los Angeles, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here last December for five nights and thoroughly enjoyed my stay. The location is perfect for UCLA and much cheaper than surrounding hotels if booked in advance. The staff are extremely friendly and attentive, especially Hector on reception. I reported that the Wifi was down and it was fixed within the hour. Housekeeper was rather persistent for her tip but that didn't detract from the stay and the room was very clean. The only downside was the noise from the traffic but this is Santa Monica Blvd so was expected. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r173982916-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>173982916</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay - Good Location</t>
+  </si>
+  <si>
+    <t>No frills hotel, nice location, budget hotel. If you are looking for a hotel near Santa Monica, and close to LA main attractions this is the place. Is the cheapest decent place that you will find in santa Monica. The hotel has been renovated recently. Would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>No frills hotel, nice location, budget hotel. If you are looking for a hotel near Santa Monica, and close to LA main attractions this is the place. Is the cheapest decent place that you will find in santa Monica. The hotel has been renovated recently. Would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r173434527-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>173434527</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>This is a take it or leave it motel.  Don't think it's worth the price we paid which was $135 a night.  It's clean and a place to put your head down but nothing else really.  The pancake machine is the best part.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>This is a take it or leave it motel.  Don't think it's worth the price we paid which was $135 a night.  It's clean and a place to put your head down but nothing else really.  The pancake machine is the best part.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r172296291-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>172296291</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Comfortable stay!</t>
+  </si>
+  <si>
+    <t>Spent 1 night at the Azul Inn last week.  Exactly what my wife and I needed.  A comfortable place, free parking, and a clean room.  Was not noisy at all, and the bed was comfortable.  Enjoyed the free WiFi in the room.  They do serve a continental breakfast in the lobby, but we opted to go to IHOP instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent 1 night at the Azul Inn last week.  Exactly what my wife and I needed.  A comfortable place, free parking, and a clean room.  Was not noisy at all, and the bed was comfortable.  Enjoyed the free WiFi in the room.  They do serve a continental breakfast in the lobby, but we opted to go to IHOP instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r166184894-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166184894</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Would not do it again</t>
+  </si>
+  <si>
+    <t>Although the bed was comfortable and clean, it was not what I expected from reading their description of their hotel.  The rooms for the most part faced a busy street and was somewhat noisy even into the night.  There is no elevator and the steps to the second floor are very sharp and steep and dangerous in my opinion especially for those that might have muscle or joint problems esp. having to lug the suitcases up the stairs.  The ad says climate controlled which in most hotels means that the air conditioning is thermostatically controlled but this is not.  Its the old fashion room noisy air conditioner under the window.  The internet they provide for you is slow and I could not even get Southwest Early boarding pass from it.  The continental breakfast they provide is very limited to rolls and cereal and pancakes that basically you make yourself.  The staff was not very friendly or helpful either day or night.  There is parking as it says but a lot of the customers think that pulling in and taking up two places is ok and then you have to report them and whether its taken care of not is questionable.  The last thing was I found a cockroach in the bathroom at night which I had to chase to kill and when there is one, you know the rest I think, there are more.  I reported it and they said...Although the bed was comfortable and clean, it was not what I expected from reading their description of their hotel.  The rooms for the most part faced a busy street and was somewhat noisy even into the night.  There is no elevator and the steps to the second floor are very sharp and steep and dangerous in my opinion especially for those that might have muscle or joint problems esp. having to lug the suitcases up the stairs.  The ad says climate controlled which in most hotels means that the air conditioning is thermostatically controlled but this is not.  Its the old fashion room noisy air conditioner under the window.  The internet they provide for you is slow and I could not even get Southwest Early boarding pass from it.  The continental breakfast they provide is very limited to rolls and cereal and pancakes that basically you make yourself.  The staff was not very friendly or helpful either day or night.  There is parking as it says but a lot of the customers think that pulling in and taking up two places is ok and then you have to report them and whether its taken care of not is questionable.  The last thing was I found a cockroach in the bathroom at night which I had to chase to kill and when there is one, you know the rest I think, there are more.  I reported it and they said they would spray my room the next day.  Whether they did or not, is unknown but I did not see another but it was unsettling.  Granted it is an old building that was I believe at one time Travel lodge so don't expect anything fancy..  There is nothing to do within walking distance not even a 7 11.  Westwood Blvd. is about a ten minute walk and not much at that end of it.  Closet is ok,  There are dressers for clothes, a hairdryer and iron and board.  Room itself is adequate but sorry I would not stay there again.  The only nice part was the housekeepers did an adequate job of cleaning and making the bed with comfortable sheets and no bed bugs, believe me I have checked.    If you have no problems with steep steps and don't care about the rest, cost is reasonable but you get what you pay for so keep it in mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff S, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded July 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2013</t>
+  </si>
+  <si>
+    <t>Although the bed was comfortable and clean, it was not what I expected from reading their description of their hotel.  The rooms for the most part faced a busy street and was somewhat noisy even into the night.  There is no elevator and the steps to the second floor are very sharp and steep and dangerous in my opinion especially for those that might have muscle or joint problems esp. having to lug the suitcases up the stairs.  The ad says climate controlled which in most hotels means that the air conditioning is thermostatically controlled but this is not.  Its the old fashion room noisy air conditioner under the window.  The internet they provide for you is slow and I could not even get Southwest Early boarding pass from it.  The continental breakfast they provide is very limited to rolls and cereal and pancakes that basically you make yourself.  The staff was not very friendly or helpful either day or night.  There is parking as it says but a lot of the customers think that pulling in and taking up two places is ok and then you have to report them and whether its taken care of not is questionable.  The last thing was I found a cockroach in the bathroom at night which I had to chase to kill and when there is one, you know the rest I think, there are more.  I reported it and they said...Although the bed was comfortable and clean, it was not what I expected from reading their description of their hotel.  The rooms for the most part faced a busy street and was somewhat noisy even into the night.  There is no elevator and the steps to the second floor are very sharp and steep and dangerous in my opinion especially for those that might have muscle or joint problems esp. having to lug the suitcases up the stairs.  The ad says climate controlled which in most hotels means that the air conditioning is thermostatically controlled but this is not.  Its the old fashion room noisy air conditioner under the window.  The internet they provide for you is slow and I could not even get Southwest Early boarding pass from it.  The continental breakfast they provide is very limited to rolls and cereal and pancakes that basically you make yourself.  The staff was not very friendly or helpful either day or night.  There is parking as it says but a lot of the customers think that pulling in and taking up two places is ok and then you have to report them and whether its taken care of not is questionable.  The last thing was I found a cockroach in the bathroom at night which I had to chase to kill and when there is one, you know the rest I think, there are more.  I reported it and they said they would spray my room the next day.  Whether they did or not, is unknown but I did not see another but it was unsettling.  Granted it is an old building that was I believe at one time Travel lodge so don't expect anything fancy..  There is nothing to do within walking distance not even a 7 11.  Westwood Blvd. is about a ten minute walk and not much at that end of it.  Closet is ok,  There are dressers for clothes, a hairdryer and iron and board.  Room itself is adequate but sorry I would not stay there again.  The only nice part was the housekeepers did an adequate job of cleaning and making the bed with comfortable sheets and no bed bugs, believe me I have checked.    If you have no problems with steep steps and don't care about the rest, cost is reasonable but you get what you pay for so keep it in mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r166054493-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166054493</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Stay!</t>
+  </si>
+  <si>
+    <t>This is my second time at the Azul, and everything was exactly the same which is a good thing! Clean room, bed more comfortable than my own, and no noise. Wide screen TV and cable, free wifi, and computer in the lobby, with printer.  The bathroom was nice and good closet space. I really enjoyed my stay, they also serve cereal, pancakes, bagles/pasteries and very good coffee and tea selection. The location is really convenient, for the price it cant get any better. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my second time at the Azul, and everything was exactly the same which is a good thing! Clean room, bed more comfortable than my own, and no noise. Wide screen TV and cable, free wifi, and computer in the lobby, with printer.  The bathroom was nice and good closet space. I really enjoyed my stay, they also serve cereal, pancakes, bagles/pasteries and very good coffee and tea selection. The location is really convenient, for the price it cant get any better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r162911674-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162911674</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Some good, some bad.</t>
+  </si>
+  <si>
+    <t>Pros:  Nice decor, excellent large flat-screen TV, good location, good pricing with advance booking, free wifi.Cons:  On a busy street (Santa Monica Blvd) so it was somewhat noisy, the carpeting in our unit looked clean but my socks were filthy after a couple of hours, barely adequate parking, no fan in bathroom made for a damp feeling in the room I was just not able to eliminate (even with the A/C running continuously), outdated online booking interface, SLOW wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros:  Nice decor, excellent large flat-screen TV, good location, good pricing with advance booking, free wifi.Cons:  On a busy street (Santa Monica Blvd) so it was somewhat noisy, the carpeting in our unit looked clean but my socks were filthy after a couple of hours, barely adequate parking, no fan in bathroom made for a damp feeling in the room I was just not able to eliminate (even with the A/C running continuously), outdated online booking interface, SLOW wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r158611648-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>158611648</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Good value for LA</t>
+  </si>
+  <si>
+    <t>Spent one night and found the value quite good. The rooms are well kept and bed was very comfortable. The outside appearance is not so great, but don't let if fool you. Hotel is within walking distance of a number of very casual restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Spent one night and found the value quite good. The rooms are well kept and bed was very comfortable. The outside appearance is not so great, but don't let if fool you. Hotel is within walking distance of a number of very casual restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r158501694-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>158501694</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Best bed I've ever slept in</t>
+  </si>
+  <si>
+    <t>The Azul Inn ended up being a great place to stay.  The location was great and the beds were the most comfortable I've ever slept in.  I hated waking up!  It does looks shady from the outside but the rooms inside are nice and clean.  Worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Azul Inn ended up being a great place to stay.  The location was great and the beds were the most comfortable I've ever slept in.  I hated waking up!  It does looks shady from the outside but the rooms inside are nice and clean.  Worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r151259311-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>151259311</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Azul- Good place for the money</t>
+  </si>
+  <si>
+    <t>Much, much better than the Stars Inn and the Little Inn down the street.  Spend a little extra money and stay here. The beds are comfortable and the bathrooms are clean.  Recent remodel greatly improved property.Negatives-  parking difficult and no elevator to second floor/ forget the free coffee etc... that was terrible - go to Starbucks down the street instead.  But, the location is great - We have business in Westwood and the  hotels in Westwood charge a fortune.  This place is a bargain and quite comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Much, much better than the Stars Inn and the Little Inn down the street.  Spend a little extra money and stay here. The beds are comfortable and the bathrooms are clean.  Recent remodel greatly improved property.Negatives-  parking difficult and no elevator to second floor/ forget the free coffee etc... that was terrible - go to Starbucks down the street instead.  But, the location is great - We have business in Westwood and the  hotels in Westwood charge a fortune.  This place is a bargain and quite comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r150703303-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>150703303</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>Not a place to stay!!!!!</t>
+  </si>
+  <si>
+    <t>Over charge, give you a price, then when you leave they over charge your credit card &amp; when you call them they don't care about helping you. i would never stay there again!!.. The room was not clean, the heater didn't work, &amp; most of all you couldn't sleep because it was too loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff S, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded January 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2013</t>
+  </si>
+  <si>
+    <t>Over charge, give you a price, then when you leave they over charge your credit card &amp; when you call them they don't care about helping you. i would never stay there again!!.. The room was not clean, the heater didn't work, &amp; most of all you couldn't sleep because it was too loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r144203007-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>144203007</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Newly renovated; not the best but the cleanest</t>
+  </si>
+  <si>
+    <t>I've been living in different hotels in WLA from Hilton to travelodge. I saw the ad on ucla's website and came here. Conclusively, Azul inn is the cleanest motel---cleaner than those 4 stars, trust me! The outside looks meh but every part of the room is extremely clean because it's newly renovated. The only complaint is the parking lot and the price. If they lower the price there will be no vacancies...It has the cleanest bathroom and the most comfortable bed! Ucla students have 10% off! If you are tired of those hotel chains, try this one. You won't regret...MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been living in different hotels in WLA from Hilton to travelodge. I saw the ad on ucla's website and came here. Conclusively, Azul inn is the cleanest motel---cleaner than those 4 stars, trust me! The outside looks meh but every part of the room is extremely clean because it's newly renovated. The only complaint is the parking lot and the price. If they lower the price there will be no vacancies...It has the cleanest bathroom and the most comfortable bed! Ucla students have 10% off! If you are tired of those hotel chains, try this one. You won't regret...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r139660577-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>139660577</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>Super clean, new room - always welcome</t>
+  </si>
+  <si>
+    <t>All rooms redone late fall last year, so we definitely enjoyed our spiffy room with all the amenities ... shower is excellent ... HOPEFULLY the fairly dismal breakfast area will be the next to get "facelifted."  It needs it.  Location in Westwood (W LA) is excellent and just minutes from major attractions such as Beverly Hills, Hollywood, Malibu ... UCLA, etc.  Also, even though we had a car, it was nice to be able to walk a bit to some locations.  Manager (an expat NYer) was exceptionally efficient and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>All rooms redone late fall last year, so we definitely enjoyed our spiffy room with all the amenities ... shower is excellent ... HOPEFULLY the fairly dismal breakfast area will be the next to get "facelifted."  It needs it.  Location in Westwood (W LA) is excellent and just minutes from major attractions such as Beverly Hills, Hollywood, Malibu ... UCLA, etc.  Also, even though we had a car, it was nice to be able to walk a bit to some locations.  Manager (an expat NYer) was exceptionally efficient and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r136867460-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>136867460</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Lock Your Valuables In Your Car</t>
+  </si>
+  <si>
+    <t>We chose Azul for its proximity to a close friend's wedding. At first, we didn't want to judge Azul Inn by its cover. The room seemed clean and the person at the front desk was friendly. It wasn't until we arrived back after the wedding that we were very unpleasantly surprised.The first thing we noticed was that both our luggages were unzipped. Not only unzipped but all compartments inside were unzipped as well. After logging a complaint to the front desk and checking our valuables we got ready for bed only to notice the bathroom hadn't even been cleaned. The towels were still originally where we left them and there was still a disgusing bloodstain on the shower curtain (attached pic to follow). Unfortunately since we're here for a wedding we still have a night with the Azul Inn however we feel so violated that not only did we tell the front desk we'd be writing a negative review online but we're going to lock all of our belongings in the car tomorrow when we leave. It's very unfortunate that the safe in the room is the only thing that made me feel safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose Azul for its proximity to a close friend's wedding. At first, we didn't want to judge Azul Inn by its cover. The room seemed clean and the person at the front desk was friendly. It wasn't until we arrived back after the wedding that we were very unpleasantly surprised.The first thing we noticed was that both our luggages were unzipped. Not only unzipped but all compartments inside were unzipped as well. After logging a complaint to the front desk and checking our valuables we got ready for bed only to notice the bathroom hadn't even been cleaned. The towels were still originally where we left them and there was still a disgusing bloodstain on the shower curtain (attached pic to follow). Unfortunately since we're here for a wedding we still have a night with the Azul Inn however we feel so violated that not only did we tell the front desk we'd be writing a negative review online but we're going to lock all of our belongings in the car tomorrow when we leave. It's very unfortunate that the safe in the room is the only thing that made me feel safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r135835581-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135835581</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Nice motel</t>
+  </si>
+  <si>
+    <t>We stayed at azul inn with a group of friends for our visit in LA. It has a convenient location if you have a car, the parking area is free and we always had a place everynight. It has a small pool which can be used for sunbathing but we didnt used it. The rooms are really nicely decorated, we have stayed at the two queen bed room and it was quite spacey. Bathroom is also new and nice although a bit small. There were no bedbugs as mentioned like the other travellers. Thanks that I didnt read the comments about the bedbugs before we went.For the breakfast, there wasnt much choise, but it was the best in our entire trip. There was coffee, decaf, variety of tea choises, orange and apple juices, corn flakes, bagels, cinnamon rolls, muffins, cream cheese, jam, apple and banana. People were nice and helpful. Price is a bit high for this kind of motel, it was $131, for two double bedroom. But it was nice and clean and at a good location for traveling around LA. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We stayed at azul inn with a group of friends for our visit in LA. It has a convenient location if you have a car, the parking area is free and we always had a place everynight. It has a small pool which can be used for sunbathing but we didnt used it. The rooms are really nicely decorated, we have stayed at the two queen bed room and it was quite spacey. Bathroom is also new and nice although a bit small. There were no bedbugs as mentioned like the other travellers. Thanks that I didnt read the comments about the bedbugs before we went.For the breakfast, there wasnt much choise, but it was the best in our entire trip. There was coffee, decaf, variety of tea choises, orange and apple juices, corn flakes, bagels, cinnamon rolls, muffins, cream cheese, jam, apple and banana. People were nice and helpful. Price is a bit high for this kind of motel, it was $131, for two double bedroom. But it was nice and clean and at a good location for traveling around LA. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r134672711-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134672711</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>A bit pricey for what you get</t>
+  </si>
+  <si>
+    <t>We stayed at the Azul Inn twice during our visit to Los Angeles as it was close to the activities we had planned. The first stay we were right on the santa Monica blvd side and it was so loud all throughout the day and night, which made it next to impossible to sleep!!The price was pretty steep for what you get, I would expect a motel like this to charge around $100 a night, as the noise is really loud from the road, and the walls are pretty thin... We could hear the room next door talking.The second stay we were out the back of the motel and it was better noise wise at night time, until 6am in the morning when the diggers behind the motel at a construction site started up and did not stop until later on...The front desk staff were helpful when we asked questions, as we are from NZ we did not know where anything was, and we were here over 4th of July, so they gave us some suggestions on where to go, and were always helpful with where to eat and ordering taxis...Would stay again as we know the area now, but would hope that the price drops a bit...MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Azul Inn twice during our visit to Los Angeles as it was close to the activities we had planned. The first stay we were right on the santa Monica blvd side and it was so loud all throughout the day and night, which made it next to impossible to sleep!!The price was pretty steep for what you get, I would expect a motel like this to charge around $100 a night, as the noise is really loud from the road, and the walls are pretty thin... We could hear the room next door talking.The second stay we were out the back of the motel and it was better noise wise at night time, until 6am in the morning when the diggers behind the motel at a construction site started up and did not stop until later on...The front desk staff were helpful when we asked questions, as we are from NZ we did not know where anything was, and we were here over 4th of July, so they gave us some suggestions on where to go, and were always helpful with where to eat and ordering taxis...Would stay again as we know the area now, but would hope that the price drops a bit...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r133377313-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>133377313</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>OK ! I first booked a Kimpton hotel few blocks away from this hotel and then changed it !Anyway, I am not comparing this one to a Kimpton hotel, but overall it was a good stay.The room is clean and updated. The free parking is a HUGE plus, cause we had two cars. The location is great. Can't be better for me. I just grabbed a cup of tea from the breakfast bar, but it was usual breakfast. It is interesting that somebody said he skipped it because it wasn't organic !! I am not sure even Ritz-Carlton offers organic food for free ! The lobby is not as clean as the room and has a strange smell. Also the front-desk had problem with communication. If you want to be in the area and don't want to spend a lot of money book this motel. It is not disappointing at all !MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>OK ! I first booked a Kimpton hotel few blocks away from this hotel and then changed it !Anyway, I am not comparing this one to a Kimpton hotel, but overall it was a good stay.The room is clean and updated. The free parking is a HUGE plus, cause we had two cars. The location is great. Can't be better for me. I just grabbed a cup of tea from the breakfast bar, but it was usual breakfast. It is interesting that somebody said he skipped it because it wasn't organic !! I am not sure even Ritz-Carlton offers organic food for free ! The lobby is not as clean as the room and has a strange smell. Also the front-desk had problem with communication. If you want to be in the area and don't want to spend a lot of money book this motel. It is not disappointing at all !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r132849034-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132849034</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>A decent motel in a fantastic location</t>
+  </si>
+  <si>
+    <t>Great location in the heart of Westwood, close to everything, yet not too close to the crowd. A nice little motel, the decor is quite tastefully done and could easily pass for some 3.5 star chains I stayed. HD flat panel TV, Free parking, free breakfast, free internet, though not really usable. They do give out WiFi password generously, but the connection is so bad that I only checked email once and then gave up completely. We also spent our last night without hot water, so no shower. The linen also feels thin and cheap. Overall, decent stay for the price (booked it during a promotion for $90/night), but not the $129 standard rate as posted on their website.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location in the heart of Westwood, close to everything, yet not too close to the crowd. A nice little motel, the decor is quite tastefully done and could easily pass for some 3.5 star chains I stayed. HD flat panel TV, Free parking, free breakfast, free internet, though not really usable. They do give out WiFi password generously, but the connection is so bad that I only checked email once and then gave up completely. We also spent our last night without hot water, so no shower. The linen also feels thin and cheap. Overall, decent stay for the price (booked it during a promotion for $90/night), but not the $129 standard rate as posted on their website.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r131584589-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131584589</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Spotless bathrooms</t>
+  </si>
+  <si>
+    <t>The cleanest bathrooms I've ever seen,  quiet rooms, comfortable bed, good breakfast, friendly professional staff, an excellent value overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>The cleanest bathrooms I've ever seen,  quiet rooms, comfortable bed, good breakfast, friendly professional staff, an excellent value overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r129679343-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>129679343</t>
+  </si>
+  <si>
+    <t>05/09/2012</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Adorable decor, great amenities, quiet, nice linens, great helpful staff, free parking, good price.  From the outside you can not tell how great it is on the inside.  Even the toiletries are high quality.  Definitely don't judge a book by its cover.  Great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Adorable decor, great amenities, quiet, nice linens, great helpful staff, free parking, good price.  From the outside you can not tell how great it is on the inside.  Even the toiletries are high quality.  Definitely don't judge a book by its cover.  Great value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r129364572-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>129364572</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>Very good value and great location, some kinks</t>
+  </si>
+  <si>
+    <t>I stayed here recently when I had a job interview in Century City.  I wanted a location that was close by.  The Azul Inn is just down the road from Century City on Santa Monica Blvd., a few minutes drive.  The location was convenient.  I got an affordable rate on Hotwire, which mentioned free parking, free breakfast and WI-FI available.  Good value.
+The Azul Inn is basically a renovated motel.  The building's exterior isn't in great condition and it looks like a motel.  However, the rooms are newly renovated with mid-century modernesque furnishings, flat screen TV, and are in good condition.  This was a convenient home base from which I did a lot of prepping for my interview in the hotel room.
+The Asian female hotel desk clerk at checkin was busy, stressed and not in a good mood.  Guests did not receive a friendly welcome.
+The free wi-fi was not working when I got to my room.  I went downstairs to the lobby, they said they had recently reset the connection and to try it again in a few minutes.  Then it worked fine.  However, late that evening it stopped working again and wasn't working when I woke up the next morning.  I asked them to restart the router again, waited, but it still didn't work.  Fortunately, I was able to access the internet using my smartphone.
+I requested a quiet room away from the street noise.  They accommodated...I stayed here recently when I had a job interview in Century City.  I wanted a location that was close by.  The Azul Inn is just down the road from Century City on Santa Monica Blvd., a few minutes drive.  The location was convenient.  I got an affordable rate on Hotwire, which mentioned free parking, free breakfast and WI-FI available.  Good value.The Azul Inn is basically a renovated motel.  The building's exterior isn't in great condition and it looks like a motel.  However, the rooms are newly renovated with mid-century modernesque furnishings, flat screen TV, and are in good condition.  This was a convenient home base from which I did a lot of prepping for my interview in the hotel room.The Asian female hotel desk clerk at checkin was busy, stressed and not in a good mood.  Guests did not receive a friendly welcome.The free wi-fi was not working when I got to my room.  I went downstairs to the lobby, they said they had recently reset the connection and to try it again in a few minutes.  Then it worked fine.  However, late that evening it stopped working again and wasn't working when I woke up the next morning.  I asked them to restart the router again, waited, but it still didn't work.  Fortunately, I was able to access the internet using my smartphone.I requested a quiet room away from the street noise.  They accommodated my request, however, a large building was being constructed behind the hotel.  Due to this huge erection, enthusiastic jackhammering took place beginning at 7 am and they were still going at it strong when I checked out.The mattress was a very comfortable and high quality Simmons Beautyrest WorldClass.  I only know this because I accidentally yanked the sheet off the mattress during the middle of the night ;)There were a number of eateries within a convenient distance.  I walked 5-10 minutes to a healthy chicken / Indian restaurant near the corner of Westwood and Santa Monica Blvd. for dinner.  I didn't partake of the free breakfast in the morning because it was coffee (which I don't drink), tea (didn't like the quality of the tea), carbs (which I try to avoid, especially when I don't want a food coma), Minute Maid juices from a machine (I prefer fresh squeezed or not from concentrate juices), and non-organic fruit.  I don't expect a free breakfast to be gourmet, and I was fine driving down to Westwood and Pico to Junior's where I ordered breakfast and lunch to go.  The desk clerk at checkout was accommodating and agreed to let me to check out later than usual since I didn't need to be in Century City until 2 PM.   I would recommend staying here for convenience and value, if you don't mind the temporary daytime construction noise.  Don't count on the WI-FI working the entire time.  Bring your smartphone if you need internet access.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I stayed here recently when I had a job interview in Century City.  I wanted a location that was close by.  The Azul Inn is just down the road from Century City on Santa Monica Blvd., a few minutes drive.  The location was convenient.  I got an affordable rate on Hotwire, which mentioned free parking, free breakfast and WI-FI available.  Good value.
+The Azul Inn is basically a renovated motel.  The building's exterior isn't in great condition and it looks like a motel.  However, the rooms are newly renovated with mid-century modernesque furnishings, flat screen TV, and are in good condition.  This was a convenient home base from which I did a lot of prepping for my interview in the hotel room.
+The Asian female hotel desk clerk at checkin was busy, stressed and not in a good mood.  Guests did not receive a friendly welcome.
+The free wi-fi was not working when I got to my room.  I went downstairs to the lobby, they said they had recently reset the connection and to try it again in a few minutes.  Then it worked fine.  However, late that evening it stopped working again and wasn't working when I woke up the next morning.  I asked them to restart the router again, waited, but it still didn't work.  Fortunately, I was able to access the internet using my smartphone.
+I requested a quiet room away from the street noise.  They accommodated...I stayed here recently when I had a job interview in Century City.  I wanted a location that was close by.  The Azul Inn is just down the road from Century City on Santa Monica Blvd., a few minutes drive.  The location was convenient.  I got an affordable rate on Hotwire, which mentioned free parking, free breakfast and WI-FI available.  Good value.The Azul Inn is basically a renovated motel.  The building's exterior isn't in great condition and it looks like a motel.  However, the rooms are newly renovated with mid-century modernesque furnishings, flat screen TV, and are in good condition.  This was a convenient home base from which I did a lot of prepping for my interview in the hotel room.The Asian female hotel desk clerk at checkin was busy, stressed and not in a good mood.  Guests did not receive a friendly welcome.The free wi-fi was not working when I got to my room.  I went downstairs to the lobby, they said they had recently reset the connection and to try it again in a few minutes.  Then it worked fine.  However, late that evening it stopped working again and wasn't working when I woke up the next morning.  I asked them to restart the router again, waited, but it still didn't work.  Fortunately, I was able to access the internet using my smartphone.I requested a quiet room away from the street noise.  They accommodated my request, however, a large building was being constructed behind the hotel.  Due to this huge erection, enthusiastic jackhammering took place beginning at 7 am and they were still going at it strong when I checked out.The mattress was a very comfortable and high quality Simmons Beautyrest WorldClass.  I only know this because I accidentally yanked the sheet off the mattress during the middle of the night ;)There were a number of eateries within a convenient distance.  I walked 5-10 minutes to a healthy chicken / Indian restaurant near the corner of Westwood and Santa Monica Blvd. for dinner.  I didn't partake of the free breakfast in the morning because it was coffee (which I don't drink), tea (didn't like the quality of the tea), carbs (which I try to avoid, especially when I don't want a food coma), Minute Maid juices from a machine (I prefer fresh squeezed or not from concentrate juices), and non-organic fruit.  I don't expect a free breakfast to be gourmet, and I was fine driving down to Westwood and Pico to Junior's where I ordered breakfast and lunch to go.  The desk clerk at checkout was accommodating and agreed to let me to check out later than usual since I didn't need to be in Century City until 2 PM.   I would recommend staying here for convenience and value, if you don't mind the temporary daytime construction noise.  Don't count on the WI-FI working the entire time.  Bring your smartphone if you need internet access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r123276906-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123276906</t>
+  </si>
+  <si>
+    <t>01/18/2012</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay and so are the rates.</t>
+  </si>
+  <si>
+    <t>You will not even get close to this nice of a place to stay in w.los angeles for the price ILL BE BACK.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>You will not even get close to this nice of a place to stay in w.los angeles for the price ILL BE BACK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r119404950-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>119404950</t>
+  </si>
+  <si>
+    <t>10/17/2011</t>
+  </si>
+  <si>
+    <t>This little retro-styled inn was a pleasant surprise!</t>
+  </si>
+  <si>
+    <t>I needed a room nearby the Beverly Hilton (obviously, I can't spend the $300+ it costs to get a room there). I came across the Azul Inn and booked a room, expecting it to be a complete pit. However, I was pleasantly surprised by how cute and clean the room was! As the previous poster said the hallways are a bit shabby, yes, but unless you are planning to sleep in the the hallway corridor, I wouldn't worry about it. My room was totally cute and it has the following benefits:
+1) Um..free parking. Where else can you get that in the Beverly Hills area? 
+2) Close location to major hotels/attractions
+3) Friendly front desk staff (usually people that work at motels are super-rude. The guy that checked us in couldn't have been nicer)
+4) Free breakfast (it's not the Ritz, but they had a nice selection of danish, juice and coffee. And it's free...so stop complaining people, geez!) 
+The rooms are all decorated in a mid-century modern-esque theme, which I loved. The beds were comfy and the room was huge (for a motel). 
+The area is a bit sketchy if you head toward the freeway, but, again, unless you're planning to wander the streets around the motel at night, you'll be fine. 
+This is the best hotel you'll find in this location, unless you have a fat wallet and want to spend over $300 a night at some of...I needed a room nearby the Beverly Hilton (obviously, I can't spend the $300+ it costs to get a room there). I came across the Azul Inn and booked a room, expecting it to be a complete pit. However, I was pleasantly surprised by how cute and clean the room was! As the previous poster said the hallways are a bit shabby, yes, but unless you are planning to sleep in the the hallway corridor, I wouldn't worry about it. My room was totally cute and it has the following benefits:1) Um..free parking. Where else can you get that in the Beverly Hills area? 2) Close location to major hotels/attractions3) Friendly front desk staff (usually people that work at motels are super-rude. The guy that checked us in couldn't have been nicer)4) Free breakfast (it's not the Ritz, but they had a nice selection of danish, juice and coffee. And it's free...so stop complaining people, geez!) The rooms are all decorated in a mid-century modern-esque theme, which I loved. The beds were comfy and the room was huge (for a motel). The area is a bit sketchy if you head toward the freeway, but, again, unless you're planning to wander the streets around the motel at night, you'll be fine. This is the best hotel you'll find in this location, unless you have a fat wallet and want to spend over $300 a night at some of the ritzy places.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>LAHotels, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded October 24, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2011</t>
+  </si>
+  <si>
+    <t>I needed a room nearby the Beverly Hilton (obviously, I can't spend the $300+ it costs to get a room there). I came across the Azul Inn and booked a room, expecting it to be a complete pit. However, I was pleasantly surprised by how cute and clean the room was! As the previous poster said the hallways are a bit shabby, yes, but unless you are planning to sleep in the the hallway corridor, I wouldn't worry about it. My room was totally cute and it has the following benefits:
+1) Um..free parking. Where else can you get that in the Beverly Hills area? 
+2) Close location to major hotels/attractions
+3) Friendly front desk staff (usually people that work at motels are super-rude. The guy that checked us in couldn't have been nicer)
+4) Free breakfast (it's not the Ritz, but they had a nice selection of danish, juice and coffee. And it's free...so stop complaining people, geez!) 
+The rooms are all decorated in a mid-century modern-esque theme, which I loved. The beds were comfy and the room was huge (for a motel). 
+The area is a bit sketchy if you head toward the freeway, but, again, unless you're planning to wander the streets around the motel at night, you'll be fine. 
+This is the best hotel you'll find in this location, unless you have a fat wallet and want to spend over $300 a night at some of...I needed a room nearby the Beverly Hilton (obviously, I can't spend the $300+ it costs to get a room there). I came across the Azul Inn and booked a room, expecting it to be a complete pit. However, I was pleasantly surprised by how cute and clean the room was! As the previous poster said the hallways are a bit shabby, yes, but unless you are planning to sleep in the the hallway corridor, I wouldn't worry about it. My room was totally cute and it has the following benefits:1) Um..free parking. Where else can you get that in the Beverly Hills area? 2) Close location to major hotels/attractions3) Friendly front desk staff (usually people that work at motels are super-rude. The guy that checked us in couldn't have been nicer)4) Free breakfast (it's not the Ritz, but they had a nice selection of danish, juice and coffee. And it's free...so stop complaining people, geez!) The rooms are all decorated in a mid-century modern-esque theme, which I loved. The beds were comfy and the room was huge (for a motel). The area is a bit sketchy if you head toward the freeway, but, again, unless you're planning to wander the streets around the motel at night, you'll be fine. This is the best hotel you'll find in this location, unless you have a fat wallet and want to spend over $300 a night at some of the ritzy places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r118544249-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>118544249</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>Nice room.....shame about everything else!!</t>
+  </si>
+  <si>
+    <t>The rooms have been refurbished to a nice standard, very clean and cool furnishings.They should clean up out side as it is disgraceful. Horrid old stinky carpets and filth. You think you will catch something nasty by walking in the corridors. I know they are still mid refurb but they should do something!!!!As for the staff...so unprofessionally run. The Leslie Chow lookalike/soundalike is so rude......If Doug calls... I've checked out!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>LAHotels, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded September 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2011</t>
+  </si>
+  <si>
+    <t>The rooms have been refurbished to a nice standard, very clean and cool furnishings.They should clean up out side as it is disgraceful. Horrid old stinky carpets and filth. You think you will catch something nasty by walking in the corridors. I know they are still mid refurb but they should do something!!!!As for the staff...so unprofessionally run. The Leslie Chow lookalike/soundalike is so rude......If Doug calls... I've checked out!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r116143168-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116143168</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>Don't stay here - incredible high prices for a room. Crazy!</t>
+  </si>
+  <si>
+    <t>Okay, they have some brandnew rooms. Clean. But that is what I EXPECT from a Motel/Hotel! But from the outside this Motel (Ex-Travelodge) looks like a horror-motel! Ugly, unsafe, stinky, dark hallways, and 60(?) years old carpets. This place is a horror! Every Motel 6 all over America is MUCH better!!!!! And the price for a room. Starts from 114 Dollar and up!!!! Plus tax!!!! ha ha ha ha, who is so damn stupid to pay that? Okay, I was..... Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>LAHotels, General Manager at Azul Inn West Los Angeles, responded to this reviewResponded August 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2011</t>
+  </si>
+  <si>
+    <t>Okay, they have some brandnew rooms. Clean. But that is what I EXPECT from a Motel/Hotel! But from the outside this Motel (Ex-Travelodge) looks like a horror-motel! Ugly, unsafe, stinky, dark hallways, and 60(?) years old carpets. This place is a horror! Every Motel 6 all over America is MUCH better!!!!! And the price for a room. Starts from 114 Dollar and up!!!! Plus tax!!!! ha ha ha ha, who is so damn stupid to pay that? Okay, I was..... Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r104450291-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>104450291</t>
+  </si>
+  <si>
+    <t>04/18/2011</t>
+  </si>
+  <si>
+    <t>reasonable...</t>
+  </si>
+  <si>
+    <t>this place was ok, suited what we needed - a cheaper place to stay in west la.  some staff were helpful +++, some staff were far from helpful (the asian lady who worked at the front desk was not helpful).  we had the upgraded larger room.  close to restaurants and a 7/11 just down the road.  our friends parked their car here with no issues.  it seems like a bit of a dodgey area, but generally it seems quiet safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>this place was ok, suited what we needed - a cheaper place to stay in west la.  some staff were helpful +++, some staff were far from helpful (the asian lady who worked at the front desk was not helpful).  we had the upgraded larger room.  close to restaurants and a 7/11 just down the road.  our friends parked their car here with no issues.  it seems like a bit of a dodgey area, but generally it seems quiet safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r102580014-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>102580014</t>
+  </si>
+  <si>
+    <t>04/02/2011</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>The Hotel is no longer called Travelodge. It is now called "AZUL INN". The Hotel is  2 miles from UCLA &amp; about 5 miles from Santa Monica Pier. From the outside very dirty and smelly, but from the inside it was clean. We tried to check in at 11:30am and was denied by the Front Desk Clerk. We were not allowed to check in until 1:30p even after we had told the clerk we had a wedding to attend to at 4pm. We booked a non smoking room but the smoke from other rooms went through the vents anyways, so it was like we were having second hand smoke. The price we paid for one night including taxes was $100.58 for single queen bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Hotel is no longer called Travelodge. It is now called "AZUL INN". The Hotel is  2 miles from UCLA &amp; about 5 miles from Santa Monica Pier. From the outside very dirty and smelly, but from the inside it was clean. We tried to check in at 11:30am and was denied by the Front Desk Clerk. We were not allowed to check in until 1:30p even after we had told the clerk we had a wedding to attend to at 4pm. We booked a non smoking room but the smoke from other rooms went through the vents anyways, so it was like we were having second hand smoke. The price we paid for one night including taxes was $100.58 for single queen bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r49010578-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>49010578</t>
+  </si>
+  <si>
+    <t>11/11/2009</t>
+  </si>
+  <si>
+    <t>Good location!</t>
+  </si>
+  <si>
+    <t>We visited LACMA, Beverly Hills, Westwood, Santa Monica, and the Getty Center, so the motel's location was convenient.  Our room opened to Santa Monica Blvd, so it was a bit noisy, but it was a good, no-frills room with free wifi at a decent price.  The complimentary breakfast was appreciated--pastries, bagels, coffee, and juices.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>gmazulinn, Owner at Azul Inn West Los Angeles, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>We visited LACMA, Beverly Hills, Westwood, Santa Monica, and the Getty Center, so the motel's location was convenient.  Our room opened to Santa Monica Blvd, so it was a bit noisy, but it was a good, no-frills room with free wifi at a decent price.  The complimentary breakfast was appreciated--pastries, bagels, coffee, and juices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r27548584-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>27548584</t>
+  </si>
+  <si>
+    <t>04/06/2009</t>
+  </si>
+  <si>
+    <t>Noisy hotel</t>
+  </si>
+  <si>
+    <t>the hotel was very clean with lots of parking space. but it was TOO NOISY (near fire station). and again the tv for one of the neighbors was too loud and they had party from 11pm to 4am.!!! I asked the front desk 2 times to take care of that, but they did NOTHING. I had to go and knock their door. they were so drunk.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>the hotel was very clean with lots of parking space. but it was TOO NOISY (near fire station). and again the tv for one of the neighbors was too loud and they had party from 11pm to 4am.!!! I asked the front desk 2 times to take care of that, but they did NOTHING. I had to go and knock their door. they were so drunk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r15759704-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>15759704</t>
+  </si>
+  <si>
+    <t>05/07/2008</t>
+  </si>
+  <si>
+    <t>Good average motel</t>
+  </si>
+  <si>
+    <t>Spent one nite in there, great location, nice staff, the place is reasonably clean but a little worn out.Great for a good night sleep and a shower, expect nothing more.Rates are very affordable considering the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>Spent one nite in there, great location, nice staff, the place is reasonably clean but a little worn out.Great for a good night sleep and a shower, expect nothing more.Rates are very affordable considering the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r12477924-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>12477924</t>
+  </si>
+  <si>
+    <t>01/09/2008</t>
+  </si>
+  <si>
+    <t>that´s ist after 11 hours flight</t>
+  </si>
+  <si>
+    <t>located near westwood - lots of good restaurants - this is a fine stop after a long intercontinental flight. Book a room fronting the backyard so there´s not much noise from the street.some rooms have beds with plastic mats which make you sweat. we put them awaywe´ve been to the travelodge twice and we will come back on our next trip to death valley.MoreShow less</t>
+  </si>
+  <si>
+    <t>located near westwood - lots of good restaurants - this is a fine stop after a long intercontinental flight. Book a room fronting the backyard so there´s not much noise from the street.some rooms have beds with plastic mats which make you sweat. we put them awaywe´ve been to the travelodge twice and we will come back on our next trip to death valley.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r8040311-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>8040311</t>
+  </si>
+  <si>
+    <t>07/01/2007</t>
+  </si>
+  <si>
+    <t>Terrible Hotel</t>
+  </si>
+  <si>
+    <t>We booked this hotel since it was close to UCLA. When we arrived at 4 pm, we were given keys to go to the room. When we went to the room, it was not ready and maid was still cleaning it. We were asked to wait another 30 minutes. Finally when we got the room, the toilet was not working. I had to call at least 5 times for them to come and fix it. They kept coming and say it is done but it was not fixed. Finally manager came and he said it is fixed and it was not. Four of us had to use the office toilet until about 9 pm. Never agian I will saty in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>We booked this hotel since it was close to UCLA. When we arrived at 4 pm, we were given keys to go to the room. When we went to the room, it was not ready and maid was still cleaning it. We were asked to wait another 30 minutes. Finally when we got the room, the toilet was not working. I had to call at least 5 times for them to come and fix it. They kept coming and say it is done but it was not fixed. Finally manager came and he said it is fixed and it was not. Four of us had to use the office toilet until about 9 pm. Never agian I will saty in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r7870034-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7870034</t>
+  </si>
+  <si>
+    <t>06/16/2007</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>We spent one night in a room with two beds.  They were advertized as queens, but I would guess they were more like doubles.  While the room &amp; bathroom were small, I could see the management had done all they could to equip it with conveniences for the guest.   There was a coffee maker, hair dryer, large television, laundry bag, shower head with massage options,  etc.  The carpet and linens were in good shape.   The location was great and we didn't notice the noise from the street since we had our fan on in the room.  We didn't use the pool or eat at the continental breakfast but both looked good.   If you're looking for a place with a great location at an affordable price, I would recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent one night in a room with two beds.  They were advertized as queens, but I would guess they were more like doubles.  While the room &amp; bathroom were small, I could see the management had done all they could to equip it with conveniences for the guest.   There was a coffee maker, hair dryer, large television, laundry bag, shower head with massage options,  etc.  The carpet and linens were in good shape.   The location was great and we didn't notice the noise from the street since we had our fan on in the room.  We didn't use the pool or eat at the continental breakfast but both looked good.   If you're looking for a place with a great location at an affordable price, I would recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r5440619-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5440619</t>
+  </si>
+  <si>
+    <t>07/07/2006</t>
+  </si>
+  <si>
+    <t>a little friend</t>
+  </si>
+  <si>
+    <t>usually when I sleep in hotels, the day after I put anything I have in my baggage and I close it up... I don't like people touch my stuff...but one morning I forgot....when I come back in my room, in the night, I found my pijama on the furniture (where I left it), I took it and a lillte bug felt on the floor and ran behind my bed...I put my pijama in a plastic bag... I would have burned it if I had a lighter...I slept with the lights on dreaming about a terrible bug walking on my skin...AWFUL !!!There is a bad smell in the room, and the sink is yellow near the hole...and what about the pool? nothing, I'm not so brave to dive into a green water pool...MoreShow less</t>
+  </si>
+  <si>
+    <t>usually when I sleep in hotels, the day after I put anything I have in my baggage and I close it up... I don't like people touch my stuff...but one morning I forgot....when I come back in my room, in the night, I found my pijama on the furniture (where I left it), I took it and a lillte bug felt on the floor and ran behind my bed...I put my pijama in a plastic bag... I would have burned it if I had a lighter...I slept with the lights on dreaming about a terrible bug walking on my skin...AWFUL !!!There is a bad smell in the room, and the sink is yellow near the hole...and what about the pool? nothing, I'm not so brave to dive into a green water pool...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r5191511-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5191511</t>
+  </si>
+  <si>
+    <t>05/21/2006</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>I had a very enjoyable stay - the rooms are average and the traffic noises fairly high but at the same time it's walking distance to Century City, Beverly Hills (3 miles) and Westwood Village. Shopping centers to the East, North and South and the staff were very hospitable. I'd come again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a very enjoyable stay - the rooms are average and the traffic noises fairly high but at the same time it's walking distance to Century City, Beverly Hills (3 miles) and Westwood Village. Shopping centers to the East, North and South and the staff were very hospitable. I'd come again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r4995775-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4995775</t>
+  </si>
+  <si>
+    <t>04/21/2006</t>
+  </si>
+  <si>
+    <t>basic but good value for LA</t>
+  </si>
+  <si>
+    <t>tatty at the edges. staff were friendly enough.  The room was just about OK, though carpets were dirty and there was a stain in one corner, hopefully wine but the kids decided it was blood!  and this was the sleepy bears room.But it is good value for LA and were located for hollywood, universal and santa monica - the nicer parts of town are close.Be warned this is close to airport and you may well be woken at 5am as travellers noisily departMoreShow less</t>
+  </si>
+  <si>
+    <t>tatty at the edges. staff were friendly enough.  The room was just about OK, though carpets were dirty and there was a stain in one corner, hopefully wine but the kids decided it was blood!  and this was the sleepy bears room.But it is good value for LA and were located for hollywood, universal and santa monica - the nicer parts of town are close.Be warned this is close to airport and you may well be woken at 5am as travellers noisily departMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r3781991-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3781991</t>
+  </si>
+  <si>
+    <t>08/16/2005</t>
+  </si>
+  <si>
+    <t>An old property with good service at a low price</t>
+  </si>
+  <si>
+    <t>The LA West Travelodge has been where I've hung my hat for about a year of business commuting, with monthly stays of about 4 nights per visit.  I chose it because it's not the LAX Motel 6, it's near bus lines on Westwood and Santa Monica Blvds, and it's pretty much the cheapest rate you can find in LA.
+The downsides:  The property is badly in need of refurbishing, and nearby Santa Monica Blvd is basically a raceway.  My advice:  ask for a second-floor room when you arrive.  The rooms get very warm and usually don't have enough windows, so you'll be running the air conditioner most days out of the year.  You can generally leave the AC on during the day while you're out, without the maid turning it off, if you leave the temperature set to "normal."  That helps keep it cooler.  Depending on how loud the AC turns on and off, which varies depending on the room, I've generally found I get a restful night's sleep only when wearing earplugs, but I'm a fairly light sleeper.  The shower heads are pretty searing and positioned too low.  They do indeed have a pool, but it's never available when I'm there, before or after business hours.  They lock it up, for obvious reasons.
+The upsides:  Although it won't look it when you arrive, the surrounding neighborhood, near the Mormon Temple, is actually pretty decent.  I jog during the mornings...The LA West Travelodge has been where I've hung my hat for about a year of business commuting, with monthly stays of about 4 nights per visit.  I chose it because it's not the LAX Motel 6, it's near bus lines on Westwood and Santa Monica Blvds, and it's pretty much the cheapest rate you can find in LA.The downsides:  The property is badly in need of refurbishing, and nearby Santa Monica Blvd is basically a raceway.  My advice:  ask for a second-floor room when you arrive.  The rooms get very warm and usually don't have enough windows, so you'll be running the air conditioner most days out of the year.  You can generally leave the AC on during the day while you're out, without the maid turning it off, if you leave the temperature set to "normal."  That helps keep it cooler.  Depending on how loud the AC turns on and off, which varies depending on the room, I've generally found I get a restful night's sleep only when wearing earplugs, but I'm a fairly light sleeper.  The shower heads are pretty searing and positioned too low.  They do indeed have a pool, but it's never available when I'm there, before or after business hours.  They lock it up, for obvious reasons.The upsides:  Although it won't look it when you arrive, the surrounding neighborhood, near the Mormon Temple, is actually pretty decent.  I jog during the mornings southward down Overland Ave, past an elementary school.  There's a Seven Eleven right across the street.  Each room I've stayed in also has a mini refrigerator.  Santa Monica Big Blue Buses troll along Westwood and Santa Monica up to Westwood, but that's about a 4 block hike.  It's incredibly cheap for LA, which is no doubt why the place is in disrepair.  You get free bagels/danishes/coffee in the mornings until 10am.  The service tends to be pretty good, although the morning guy is a little odd.  And best of all, they frequently have rooms available, and you can cancel up until 4pm day-of.  They claim not to guarantee parking, but I've never had a problem with it.  You probably will want a rental car in this location, since it's far from anything including Westwood, unless you enjoy waiting for buses.  (I kind of do!)Bottom Line:  Cheap!  You'll save money, but you won't want to hang out there a whole lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2005</t>
+  </si>
+  <si>
+    <t>The LA West Travelodge has been where I've hung my hat for about a year of business commuting, with monthly stays of about 4 nights per visit.  I chose it because it's not the LAX Motel 6, it's near bus lines on Westwood and Santa Monica Blvds, and it's pretty much the cheapest rate you can find in LA.
+The downsides:  The property is badly in need of refurbishing, and nearby Santa Monica Blvd is basically a raceway.  My advice:  ask for a second-floor room when you arrive.  The rooms get very warm and usually don't have enough windows, so you'll be running the air conditioner most days out of the year.  You can generally leave the AC on during the day while you're out, without the maid turning it off, if you leave the temperature set to "normal."  That helps keep it cooler.  Depending on how loud the AC turns on and off, which varies depending on the room, I've generally found I get a restful night's sleep only when wearing earplugs, but I'm a fairly light sleeper.  The shower heads are pretty searing and positioned too low.  They do indeed have a pool, but it's never available when I'm there, before or after business hours.  They lock it up, for obvious reasons.
+The upsides:  Although it won't look it when you arrive, the surrounding neighborhood, near the Mormon Temple, is actually pretty decent.  I jog during the mornings...The LA West Travelodge has been where I've hung my hat for about a year of business commuting, with monthly stays of about 4 nights per visit.  I chose it because it's not the LAX Motel 6, it's near bus lines on Westwood and Santa Monica Blvds, and it's pretty much the cheapest rate you can find in LA.The downsides:  The property is badly in need of refurbishing, and nearby Santa Monica Blvd is basically a raceway.  My advice:  ask for a second-floor room when you arrive.  The rooms get very warm and usually don't have enough windows, so you'll be running the air conditioner most days out of the year.  You can generally leave the AC on during the day while you're out, without the maid turning it off, if you leave the temperature set to "normal."  That helps keep it cooler.  Depending on how loud the AC turns on and off, which varies depending on the room, I've generally found I get a restful night's sleep only when wearing earplugs, but I'm a fairly light sleeper.  The shower heads are pretty searing and positioned too low.  They do indeed have a pool, but it's never available when I'm there, before or after business hours.  They lock it up, for obvious reasons.The upsides:  Although it won't look it when you arrive, the surrounding neighborhood, near the Mormon Temple, is actually pretty decent.  I jog during the mornings southward down Overland Ave, past an elementary school.  There's a Seven Eleven right across the street.  Each room I've stayed in also has a mini refrigerator.  Santa Monica Big Blue Buses troll along Westwood and Santa Monica up to Westwood, but that's about a 4 block hike.  It's incredibly cheap for LA, which is no doubt why the place is in disrepair.  You get free bagels/danishes/coffee in the mornings until 10am.  The service tends to be pretty good, although the morning guy is a little odd.  And best of all, they frequently have rooms available, and you can cancel up until 4pm day-of.  They claim not to guarantee parking, but I've never had a problem with it.  You probably will want a rental car in this location, since it's far from anything including Westwood, unless you enjoy waiting for buses.  (I kind of do!)Bottom Line:  Cheap!  You'll save money, but you won't want to hang out there a whole lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r1556149-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1556149</t>
+  </si>
+  <si>
+    <t>01/17/2004</t>
+  </si>
+  <si>
+    <t>What a dump!</t>
+  </si>
+  <si>
+    <t>I stayed here in September 2003. I had a reservation for 3 nights, but left after the first night. The room was cramped, and looked and smelled none too clean. Carpets were stained. When the air conditioning came on it sounded like a 747 landing next to the bed, and it went off with a loud clang. Combined with the traffic noise, a good night's sleep was next to impossible.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here in September 2003. I had a reservation for 3 nights, but left after the first night. The room was cramped, and looked and smelled none too clean. Carpets were stained. When the air conditioning came on it sounded like a 747 landing next to the bed, and it went off with a loud clang. Combined with the traffic noise, a good night's sleep was next to impossible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r924405-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>924405</t>
+  </si>
+  <si>
+    <t>03/25/2003</t>
+  </si>
+  <si>
+    <t>This hotel is located minutes from Beverly Hills and Rodeo Drive.  Hollywood Blvd is only a 15-minute drive and everything is very accessible (I-405 is minutes away).  The hotel isn't flashy and the rooms are small, but it's clean and safe.  A continental breakfast is included but we walked across the street where there is a 7-11, a doughnut shop, and a Mexican restaurant.  The breakfast at the hotel is skimpy and un-appetizing.  The staff is friendly and helpful, but it would be good to already map out your plans before hand so you won't have to rely on the hotel staff.  Overall, I would stay there again in a heartbeat.  You just can't beat the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is located minutes from Beverly Hills and Rodeo Drive.  Hollywood Blvd is only a 15-minute drive and everything is very accessible (I-405 is minutes away).  The hotel isn't flashy and the rooms are small, but it's clean and safe.  A continental breakfast is included but we walked across the street where there is a 7-11, a doughnut shop, and a Mexican restaurant.  The breakfast at the hotel is skimpy and un-appetizing.  The staff is friendly and helpful, but it would be good to already map out your plans before hand so you won't have to rely on the hotel staff.  Overall, I would stay there again in a heartbeat.  You just can't beat the location.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3106,7359 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>225</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>251</v>
+      </c>
+      <c r="X27" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>183</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>259</v>
+      </c>
+      <c r="X28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>268</v>
+      </c>
+      <c r="X30" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>301</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>302</v>
+      </c>
+      <c r="X33" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s">
+        <v>309</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>301</v>
+      </c>
+      <c r="O34" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>310</v>
+      </c>
+      <c r="X34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>146</v>
+      </c>
+      <c r="X37" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>338</v>
+      </c>
+      <c r="J38" t="s">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s">
+        <v>341</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>146</v>
+      </c>
+      <c r="X38" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>146</v>
+      </c>
+      <c r="X39" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>351</v>
+      </c>
+      <c r="J40" t="s">
+        <v>352</v>
+      </c>
+      <c r="K40" t="s">
+        <v>353</v>
+      </c>
+      <c r="L40" t="s">
+        <v>354</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>355</v>
+      </c>
+      <c r="O40" t="s">
+        <v>88</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>146</v>
+      </c>
+      <c r="X40" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>357</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" t="s">
+        <v>359</v>
+      </c>
+      <c r="K41" t="s">
+        <v>360</v>
+      </c>
+      <c r="L41" t="s">
+        <v>361</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>146</v>
+      </c>
+      <c r="X41" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>355</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>368</v>
+      </c>
+      <c r="X42" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" t="s">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s">
+        <v>375</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>283</v>
+      </c>
+      <c r="O43" t="s">
+        <v>88</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>146</v>
+      </c>
+      <c r="X43" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>378</v>
+      </c>
+      <c r="J44" t="s">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>283</v>
+      </c>
+      <c r="O44" t="s">
+        <v>225</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>146</v>
+      </c>
+      <c r="X44" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>383</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" t="s">
+        <v>385</v>
+      </c>
+      <c r="K45" t="s">
+        <v>386</v>
+      </c>
+      <c r="L45" t="s">
+        <v>387</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>146</v>
+      </c>
+      <c r="X45" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>146</v>
+      </c>
+      <c r="X46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>146</v>
+      </c>
+      <c r="X47" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
+        <v>403</v>
+      </c>
+      <c r="K48" t="s">
+        <v>404</v>
+      </c>
+      <c r="L48" t="s">
+        <v>405</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>348</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>406</v>
+      </c>
+      <c r="X48" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>410</v>
+      </c>
+      <c r="J49" t="s">
+        <v>403</v>
+      </c>
+      <c r="K49" t="s">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s">
+        <v>412</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>413</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>406</v>
+      </c>
+      <c r="X49" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J50" t="s">
+        <v>417</v>
+      </c>
+      <c r="K50" t="s">
+        <v>418</v>
+      </c>
+      <c r="L50" t="s">
+        <v>419</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>420</v>
+      </c>
+      <c r="O50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>421</v>
+      </c>
+      <c r="X50" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>425</v>
+      </c>
+      <c r="J51" t="s">
+        <v>426</v>
+      </c>
+      <c r="K51" t="s">
+        <v>427</v>
+      </c>
+      <c r="L51" t="s">
+        <v>428</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>429</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>406</v>
+      </c>
+      <c r="X51" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>431</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>432</v>
+      </c>
+      <c r="J52" t="s">
+        <v>433</v>
+      </c>
+      <c r="K52" t="s">
+        <v>434</v>
+      </c>
+      <c r="L52" t="s">
+        <v>435</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>436</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>421</v>
+      </c>
+      <c r="X52" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>443</v>
+      </c>
+      <c r="O53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>421</v>
+      </c>
+      <c r="X53" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>445</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>446</v>
+      </c>
+      <c r="J54" t="s">
+        <v>447</v>
+      </c>
+      <c r="K54" t="s">
+        <v>448</v>
+      </c>
+      <c r="L54" t="s">
+        <v>449</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>443</v>
+      </c>
+      <c r="O54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>146</v>
+      </c>
+      <c r="X54" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>451</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>452</v>
+      </c>
+      <c r="J55" t="s">
+        <v>453</v>
+      </c>
+      <c r="K55" t="s">
+        <v>454</v>
+      </c>
+      <c r="L55" t="s">
+        <v>455</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>456</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>146</v>
+      </c>
+      <c r="X55" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>458</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>459</v>
+      </c>
+      <c r="J56" t="s">
+        <v>460</v>
+      </c>
+      <c r="K56" t="s">
+        <v>461</v>
+      </c>
+      <c r="L56" t="s">
+        <v>462</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>463</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>146</v>
+      </c>
+      <c r="X56" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" t="s">
+        <v>468</v>
+      </c>
+      <c r="L57" t="s">
+        <v>469</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>470</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>146</v>
+      </c>
+      <c r="X57" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>474</v>
+      </c>
+      <c r="K58" t="s">
+        <v>475</v>
+      </c>
+      <c r="L58" t="s">
+        <v>476</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>477</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>146</v>
+      </c>
+      <c r="X58" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>479</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>480</v>
+      </c>
+      <c r="J59" t="s">
+        <v>481</v>
+      </c>
+      <c r="K59" t="s">
+        <v>482</v>
+      </c>
+      <c r="L59" t="s">
+        <v>483</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>477</v>
+      </c>
+      <c r="O59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>146</v>
+      </c>
+      <c r="X59" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>485</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>486</v>
+      </c>
+      <c r="J60" t="s">
+        <v>487</v>
+      </c>
+      <c r="K60" t="s">
+        <v>488</v>
+      </c>
+      <c r="L60" t="s">
+        <v>489</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>436</v>
+      </c>
+      <c r="O60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>146</v>
+      </c>
+      <c r="X60" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>491</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>492</v>
+      </c>
+      <c r="J61" t="s">
+        <v>487</v>
+      </c>
+      <c r="K61" t="s">
+        <v>493</v>
+      </c>
+      <c r="L61" t="s">
+        <v>494</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>436</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>146</v>
+      </c>
+      <c r="X61" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>496</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>497</v>
+      </c>
+      <c r="J62" t="s">
+        <v>498</v>
+      </c>
+      <c r="K62" t="s">
+        <v>499</v>
+      </c>
+      <c r="L62" t="s">
+        <v>500</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>477</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>146</v>
+      </c>
+      <c r="X62" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>502</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>503</v>
+      </c>
+      <c r="J63" t="s">
+        <v>504</v>
+      </c>
+      <c r="K63" t="s">
+        <v>505</v>
+      </c>
+      <c r="L63" t="s">
+        <v>506</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>507</v>
+      </c>
+      <c r="O63" t="s">
+        <v>67</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>146</v>
+      </c>
+      <c r="X63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>510</v>
+      </c>
+      <c r="J64" t="s">
+        <v>511</v>
+      </c>
+      <c r="K64" t="s">
+        <v>512</v>
+      </c>
+      <c r="L64" t="s">
+        <v>513</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>507</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>146</v>
+      </c>
+      <c r="X64" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>515</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>516</v>
+      </c>
+      <c r="J65" t="s">
+        <v>517</v>
+      </c>
+      <c r="K65" t="s">
+        <v>518</v>
+      </c>
+      <c r="L65" t="s">
+        <v>519</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>520</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>146</v>
+      </c>
+      <c r="X65" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>522</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>523</v>
+      </c>
+      <c r="J66" t="s">
+        <v>524</v>
+      </c>
+      <c r="K66" t="s">
+        <v>525</v>
+      </c>
+      <c r="L66" t="s">
+        <v>526</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>520</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>146</v>
+      </c>
+      <c r="X66" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>528</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>529</v>
+      </c>
+      <c r="J67" t="s">
+        <v>530</v>
+      </c>
+      <c r="K67" t="s">
+        <v>531</v>
+      </c>
+      <c r="L67" t="s">
+        <v>532</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>533</v>
+      </c>
+      <c r="O67" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>146</v>
+      </c>
+      <c r="X67" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>535</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>536</v>
+      </c>
+      <c r="J68" t="s">
+        <v>537</v>
+      </c>
+      <c r="K68" t="s">
+        <v>538</v>
+      </c>
+      <c r="L68" t="s">
+        <v>539</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>540</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>146</v>
+      </c>
+      <c r="X68" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>542</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>543</v>
+      </c>
+      <c r="J69" t="s">
+        <v>544</v>
+      </c>
+      <c r="K69" t="s">
+        <v>545</v>
+      </c>
+      <c r="L69" t="s">
+        <v>546</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>547</v>
+      </c>
+      <c r="O69" t="s">
+        <v>88</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>146</v>
+      </c>
+      <c r="X69" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>549</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>550</v>
+      </c>
+      <c r="J70" t="s">
+        <v>551</v>
+      </c>
+      <c r="K70" t="s">
+        <v>552</v>
+      </c>
+      <c r="L70" t="s">
+        <v>553</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>554</v>
+      </c>
+      <c r="O70" t="s">
+        <v>88</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>555</v>
+      </c>
+      <c r="X70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>558</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>559</v>
+      </c>
+      <c r="J71" t="s">
+        <v>560</v>
+      </c>
+      <c r="K71" t="s">
+        <v>561</v>
+      </c>
+      <c r="L71" t="s">
+        <v>562</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>563</v>
+      </c>
+      <c r="O71" t="s">
+        <v>67</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>555</v>
+      </c>
+      <c r="X71" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>565</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>566</v>
+      </c>
+      <c r="J72" t="s">
+        <v>567</v>
+      </c>
+      <c r="K72" t="s">
+        <v>568</v>
+      </c>
+      <c r="L72" t="s">
+        <v>569</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>570</v>
+      </c>
+      <c r="O72" t="s">
+        <v>88</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>555</v>
+      </c>
+      <c r="X72" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>572</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>573</v>
+      </c>
+      <c r="J73" t="s">
+        <v>574</v>
+      </c>
+      <c r="K73" t="s">
+        <v>575</v>
+      </c>
+      <c r="L73" t="s">
+        <v>576</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>577</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>555</v>
+      </c>
+      <c r="X73" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>579</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>580</v>
+      </c>
+      <c r="J74" t="s">
+        <v>581</v>
+      </c>
+      <c r="K74" t="s">
+        <v>582</v>
+      </c>
+      <c r="L74" t="s">
+        <v>583</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>584</v>
+      </c>
+      <c r="X74" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>587</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>588</v>
+      </c>
+      <c r="J75" t="s">
+        <v>589</v>
+      </c>
+      <c r="K75" t="s">
+        <v>590</v>
+      </c>
+      <c r="L75" t="s">
+        <v>591</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>592</v>
+      </c>
+      <c r="O75" t="s">
+        <v>88</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>584</v>
+      </c>
+      <c r="X75" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>594</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>595</v>
+      </c>
+      <c r="J76" t="s">
+        <v>596</v>
+      </c>
+      <c r="K76" t="s">
+        <v>597</v>
+      </c>
+      <c r="L76" t="s">
+        <v>598</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>599</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>584</v>
+      </c>
+      <c r="X76" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>601</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>602</v>
+      </c>
+      <c r="J77" t="s">
+        <v>603</v>
+      </c>
+      <c r="K77" t="s">
+        <v>604</v>
+      </c>
+      <c r="L77" t="s">
+        <v>605</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>599</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>584</v>
+      </c>
+      <c r="X77" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>608</v>
+      </c>
+      <c r="J78" t="s">
+        <v>609</v>
+      </c>
+      <c r="K78" t="s">
+        <v>610</v>
+      </c>
+      <c r="L78" t="s">
+        <v>611</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>570</v>
+      </c>
+      <c r="O78" t="s">
+        <v>225</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>612</v>
+      </c>
+      <c r="X78" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>615</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>616</v>
+      </c>
+      <c r="J79" t="s">
+        <v>617</v>
+      </c>
+      <c r="K79" t="s">
+        <v>618</v>
+      </c>
+      <c r="L79" t="s">
+        <v>619</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>146</v>
+      </c>
+      <c r="X79" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>621</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>622</v>
+      </c>
+      <c r="J80" t="s">
+        <v>623</v>
+      </c>
+      <c r="K80" t="s">
+        <v>624</v>
+      </c>
+      <c r="L80" t="s">
+        <v>625</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>570</v>
+      </c>
+      <c r="O80" t="s">
+        <v>88</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>146</v>
+      </c>
+      <c r="X80" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>627</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>628</v>
+      </c>
+      <c r="J81" t="s">
+        <v>629</v>
+      </c>
+      <c r="K81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L81" t="s">
+        <v>631</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>632</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>612</v>
+      </c>
+      <c r="X81" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>634</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>635</v>
+      </c>
+      <c r="J82" t="s">
+        <v>636</v>
+      </c>
+      <c r="K82" t="s">
+        <v>637</v>
+      </c>
+      <c r="L82" t="s">
+        <v>638</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>632</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>146</v>
+      </c>
+      <c r="X82" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>640</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>641</v>
+      </c>
+      <c r="J83" t="s">
+        <v>642</v>
+      </c>
+      <c r="K83" t="s">
+        <v>643</v>
+      </c>
+      <c r="L83" t="s">
+        <v>644</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>645</v>
+      </c>
+      <c r="O83" t="s">
+        <v>67</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>584</v>
+      </c>
+      <c r="X83" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>648</v>
+      </c>
+      <c r="J84" t="s">
+        <v>649</v>
+      </c>
+      <c r="K84" t="s">
+        <v>650</v>
+      </c>
+      <c r="L84" t="s">
+        <v>651</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>652</v>
+      </c>
+      <c r="X84" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>655</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>656</v>
+      </c>
+      <c r="J85" t="s">
+        <v>657</v>
+      </c>
+      <c r="K85" t="s">
+        <v>658</v>
+      </c>
+      <c r="L85" t="s">
+        <v>659</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>652</v>
+      </c>
+      <c r="X85" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>661</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>662</v>
+      </c>
+      <c r="J86" t="s">
+        <v>663</v>
+      </c>
+      <c r="K86" t="s">
+        <v>664</v>
+      </c>
+      <c r="L86" t="s">
+        <v>665</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>666</v>
+      </c>
+      <c r="O86" t="s">
+        <v>225</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>584</v>
+      </c>
+      <c r="X86" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>668</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>669</v>
+      </c>
+      <c r="J87" t="s">
+        <v>670</v>
+      </c>
+      <c r="K87" t="s">
+        <v>671</v>
+      </c>
+      <c r="L87" t="s">
+        <v>672</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>584</v>
+      </c>
+      <c r="X87" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>674</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>675</v>
+      </c>
+      <c r="J88" t="s">
+        <v>676</v>
+      </c>
+      <c r="K88" t="s">
+        <v>677</v>
+      </c>
+      <c r="L88" t="s">
+        <v>678</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>679</v>
+      </c>
+      <c r="O88" t="s">
+        <v>225</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>584</v>
+      </c>
+      <c r="X88" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>681</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>682</v>
+      </c>
+      <c r="J89" t="s">
+        <v>683</v>
+      </c>
+      <c r="K89" t="s">
+        <v>684</v>
+      </c>
+      <c r="L89" t="s">
+        <v>685</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>679</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>584</v>
+      </c>
+      <c r="X89" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>687</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>688</v>
+      </c>
+      <c r="J90" t="s">
+        <v>689</v>
+      </c>
+      <c r="K90" t="s">
+        <v>690</v>
+      </c>
+      <c r="L90" t="s">
+        <v>691</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>692</v>
+      </c>
+      <c r="O90" t="s">
+        <v>225</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>584</v>
+      </c>
+      <c r="X90" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>694</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>695</v>
+      </c>
+      <c r="J91" t="s">
+        <v>696</v>
+      </c>
+      <c r="K91" t="s">
+        <v>697</v>
+      </c>
+      <c r="L91" t="s">
+        <v>698</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>692</v>
+      </c>
+      <c r="O91" t="s">
+        <v>88</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>146</v>
+      </c>
+      <c r="X91" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>700</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>701</v>
+      </c>
+      <c r="J92" t="s">
+        <v>702</v>
+      </c>
+      <c r="K92" t="s">
+        <v>703</v>
+      </c>
+      <c r="L92" t="s">
+        <v>704</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>146</v>
+      </c>
+      <c r="X92" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>706</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>707</v>
+      </c>
+      <c r="J93" t="s">
+        <v>708</v>
+      </c>
+      <c r="K93" t="s">
+        <v>709</v>
+      </c>
+      <c r="L93" t="s">
+        <v>710</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>711</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>146</v>
+      </c>
+      <c r="X93" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>713</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>714</v>
+      </c>
+      <c r="J94" t="s">
+        <v>715</v>
+      </c>
+      <c r="K94" t="s">
+        <v>716</v>
+      </c>
+      <c r="L94" t="s">
+        <v>717</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>718</v>
+      </c>
+      <c r="O94" t="s">
+        <v>67</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>146</v>
+      </c>
+      <c r="X94" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>720</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>721</v>
+      </c>
+      <c r="J95" t="s">
+        <v>722</v>
+      </c>
+      <c r="K95" t="s">
+        <v>723</v>
+      </c>
+      <c r="L95" t="s">
+        <v>724</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>725</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>146</v>
+      </c>
+      <c r="X95" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>727</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>728</v>
+      </c>
+      <c r="J96" t="s">
+        <v>729</v>
+      </c>
+      <c r="K96" t="s">
+        <v>730</v>
+      </c>
+      <c r="L96" t="s">
+        <v>731</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>732</v>
+      </c>
+      <c r="O96" t="s">
+        <v>88</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>733</v>
+      </c>
+      <c r="X96" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>736</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>737</v>
+      </c>
+      <c r="J97" t="s">
+        <v>738</v>
+      </c>
+      <c r="K97" t="s">
+        <v>739</v>
+      </c>
+      <c r="L97" t="s">
+        <v>740</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>741</v>
+      </c>
+      <c r="O97" t="s">
+        <v>88</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>742</v>
+      </c>
+      <c r="X97" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>745</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>746</v>
+      </c>
+      <c r="J98" t="s">
+        <v>747</v>
+      </c>
+      <c r="K98" t="s">
+        <v>748</v>
+      </c>
+      <c r="L98" t="s">
+        <v>749</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>750</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>751</v>
+      </c>
+      <c r="X98" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>754</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>755</v>
+      </c>
+      <c r="J99" t="s">
+        <v>756</v>
+      </c>
+      <c r="K99" t="s">
+        <v>757</v>
+      </c>
+      <c r="L99" t="s">
+        <v>758</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>759</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>584</v>
+      </c>
+      <c r="X99" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>761</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>762</v>
+      </c>
+      <c r="J100" t="s">
+        <v>763</v>
+      </c>
+      <c r="K100" t="s">
+        <v>764</v>
+      </c>
+      <c r="L100" t="s">
+        <v>765</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>759</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>584</v>
+      </c>
+      <c r="X100" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>767</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>768</v>
+      </c>
+      <c r="J101" t="s">
+        <v>769</v>
+      </c>
+      <c r="K101" t="s">
+        <v>770</v>
+      </c>
+      <c r="L101" t="s">
+        <v>771</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>772</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>773</v>
+      </c>
+      <c r="X101" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>775</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>776</v>
+      </c>
+      <c r="J102" t="s">
+        <v>777</v>
+      </c>
+      <c r="K102" t="s">
+        <v>778</v>
+      </c>
+      <c r="L102" t="s">
+        <v>779</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>780</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>584</v>
+      </c>
+      <c r="X102" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>782</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>783</v>
+      </c>
+      <c r="J103" t="s">
+        <v>784</v>
+      </c>
+      <c r="K103" t="s">
+        <v>785</v>
+      </c>
+      <c r="L103" t="s">
+        <v>786</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>787</v>
+      </c>
+      <c r="O103" t="s">
+        <v>88</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>584</v>
+      </c>
+      <c r="X103" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>789</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>790</v>
+      </c>
+      <c r="J104" t="s">
+        <v>791</v>
+      </c>
+      <c r="K104" t="s">
+        <v>792</v>
+      </c>
+      <c r="L104" t="s">
+        <v>793</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>146</v>
+      </c>
+      <c r="X104" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>795</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>796</v>
+      </c>
+      <c r="J105" t="s">
+        <v>797</v>
+      </c>
+      <c r="K105" t="s">
+        <v>798</v>
+      </c>
+      <c r="L105" t="s">
+        <v>799</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>800</v>
+      </c>
+      <c r="O105" t="s">
+        <v>88</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>146</v>
+      </c>
+      <c r="X105" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>802</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>803</v>
+      </c>
+      <c r="J106" t="s">
+        <v>804</v>
+      </c>
+      <c r="K106" t="s">
+        <v>805</v>
+      </c>
+      <c r="L106" t="s">
+        <v>806</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>146</v>
+      </c>
+      <c r="X106" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>808</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>809</v>
+      </c>
+      <c r="J107" t="s">
+        <v>810</v>
+      </c>
+      <c r="K107" t="s">
+        <v>811</v>
+      </c>
+      <c r="L107" t="s">
+        <v>812</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>146</v>
+      </c>
+      <c r="X107" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>814</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>815</v>
+      </c>
+      <c r="J108" t="s">
+        <v>816</v>
+      </c>
+      <c r="K108" t="s">
+        <v>817</v>
+      </c>
+      <c r="L108" t="s">
+        <v>818</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>146</v>
+      </c>
+      <c r="X108" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>820</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>821</v>
+      </c>
+      <c r="J109" t="s">
+        <v>822</v>
+      </c>
+      <c r="K109" t="s">
+        <v>823</v>
+      </c>
+      <c r="L109" t="s">
+        <v>824</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>146</v>
+      </c>
+      <c r="X109" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>826</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>827</v>
+      </c>
+      <c r="J110" t="s">
+        <v>828</v>
+      </c>
+      <c r="K110" t="s">
+        <v>829</v>
+      </c>
+      <c r="L110" t="s">
+        <v>830</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s">
+        <v>831</v>
+      </c>
+      <c r="O110" t="s">
+        <v>67</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>2</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>584</v>
+      </c>
+      <c r="X110" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>833</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>834</v>
+      </c>
+      <c r="J111" t="s">
+        <v>835</v>
+      </c>
+      <c r="K111" t="s">
+        <v>836</v>
+      </c>
+      <c r="L111" t="s">
+        <v>837</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>584</v>
+      </c>
+      <c r="X111" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>7180</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>839</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>840</v>
+      </c>
+      <c r="J112" t="s">
+        <v>841</v>
+      </c>
+      <c r="K112" t="s">
+        <v>690</v>
+      </c>
+      <c r="L112" t="s">
+        <v>842</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>584</v>
+      </c>
+      <c r="X112" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>843</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_25.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="950">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Monica C</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>T2025IHmichaelo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r586829893-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>jeanettestretch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r581128239-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Theodora C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r560546285-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>allytinaly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r557195034-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>I think you guys need to work on customer service and having the people act more professional like bigger hotels do. Because I think the staff can be a little rude sometimes and need to be more courteous to guests in general. Ive stayed here a couple of times and each time the staff doesn't make me feel very welcomed. More</t>
   </si>
   <si>
+    <t>nljtravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r541981093-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Check was smooth and very friendly. Our 2 "queen" room was VERY cramped. It was a corner room with a stand up shower. We were traveling with 2 small children, that I did note in the special request area of the reservation. A tub would have been ideal for bathing. However we were so exhausted after dealing with all the LA traffic I was not in the mood to move. All in all the pool was ice cold even though it is advertised as a "heated pool". Very disappointing for the children. The beds are lumpy. It was so cramped that it was hard to walk around our room! This is an expensive Inn for a place to lay your heda, and that is all. Nothing AT ALL up to date or fancy about it. Location is convenient. Parking is not. Breakfast was very minimal. But better than nothing. I will not stay here again. $165 is a ridiculous amount for a below average place to only be able to sleep in. Also there are bums all over the neighborhood. Pretty scary when traveling with small children, however most of LA/Hollywood does have bums hanging out all over. Pretty sad.More</t>
   </si>
   <si>
+    <t>jackie92101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r523920474-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>Liked the service, but loved the room (and AC)!  I was able to park easily and close to my room instead of the trek I normally experience with a parking garage, lobby, elevator ride and hallway just to have a smoke or get something from the car.  It is in a cool neighborhood with a variety of shopping, restaurants, etc.More</t>
   </si>
   <si>
+    <t>Brian H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r523495533-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>Nice comfortable clean rooms with good facilities. Staff are helpful and friendly,  public transport on bus to Santa Monica and bus to downtown la cheap and easy to get to. Breakfast is basic but there are many places to get alternative breakfast. A good place to stay.More</t>
   </si>
   <si>
+    <t>Ken N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r499401190-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -366,6 +393,9 @@
     <t>I was pleasantly surprised that the room was very clean and well-appointed (I stayed in room 112) with safe and reasonably-priced parking out back. Comfortable bed, clean bathroom with nice hot water and great supplies,and I was super pleased that there was a fridge in the room! Check-in was quick and pleasant, the front desk guy on duty when I checked in after 10pm couldn't have been nicer!I didn't take advantage of the included continental breakfast, but it looked reasonable enough, considering the price of the room! Just a great overall experience!More</t>
   </si>
   <si>
+    <t>Lisa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r483662385-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>This hotel offers so much more than what it looks like outside. The rooms look recently renovated, they are smart tidy and offer the same kind of style and comfort you would expect from a big chain such as the holiday Inn. The reception staff were knowledgeable and helpful. The hotel breakfast was good too, for a continental. However could do with being restocked more often. The hotel has great links into the main centre of LA via bus and Santa Monica. Perfect if you don't want to stay too close to the hustle and bustle.More</t>
   </si>
   <si>
+    <t>Kaye Anne N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r466388878-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -420,6 +453,9 @@
     <t>I came to the inn for a job orientation for a few days and my stay was fantastic! Thanks to Emelda who was so helpful, friendly, and kind. They had well decorated and very clean rooms, made you feel right at home. More</t>
   </si>
   <si>
+    <t>E and C P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r466372228-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -438,6 +474,9 @@
     <t>stayed 2 nights this month. Booked b/c larger chain hotels I usually book were all booked. Got to room late. At first seemed strange there appeared to be a lot of men - mostly younger- in (viewable if window left open or block out drape not pulled)-.  Next AM at free breakfast realized they were all very clean cut-- probably Morman missionary students from the Mormon Temple which is directly across the streetAlthough no elevator--- and I had a lot of luggage/ business things-- room was updated: new appearing wallpaper, bedding, mattress, bath counters etc - and what I ESPECIALLY APPRECIATE/ what is often missing from major USA chains like Hilton/ Marriott: hand bars in the shower to prevent slips when showering.More</t>
   </si>
   <si>
+    <t>BruinontheGo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r450863999-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -465,6 +504,9 @@
     <t>I have stayed at the Azul Inn several times, although mostly with it's previous owners/name. The Azul Inn is in a great location situated nicely between Century City/Bev Hills and Westwood. This area of LA, as anyone who lives there or visits will tell you, is among the most expensive areas of the city. It is hard to find a room for less than $150/night and this is a great attraction of the Azul Inn (AI), the low prices. In it's previous life, the hotel has always had cleanliness issues and often smells of mildew. I stopped staying at this hotel but after new management came in, I figured I'd give it a try again. It certainly looks nicer on the outside. Service has always been good. But, again, the same problem. Mildew smell even with the A/C blasting.  On this trip I found 2 roaches as well, one on my bed. Ugh! I did complain to the staff and was offered a discount which was kind but not my goal. I'm rooting for this hotel to get it's act together. But, at this point I strongly recommend against staying there.More</t>
   </si>
   <si>
+    <t>Janell W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r449194912-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -489,6 +531,9 @@
     <t>My family and I traveled from out of state to Los Angeles for appointments with the Australian Consulate-General.  I was looking for a place to stay overnight before our appointments.  This is an expensive area for hotels.  I am so grateful we found the Azul Inn with its affordable prices. The Azul Inn is 1.8 miles from the consulate’s office (literally across the street from the LDS Los Angeles California temple), and had very reasonable rates.  The owners have put money into the property that they didn’t have to on small touches that were unexpected and appreciated, including updated furniture.  The bathrooms are small with showers and no tubs, but have been updated and are nice.  There are mini fridges in the room, and in-room safes which I liked.  The towels were higher quality than I expected as were the toiletries.  While the Inn is motel style, opening to the outside instead of a hall corridor and you are close to the street so you hear traffic, the staff were extremely helpful and attentive.  I was very surprised and pleased with the quality of the Inn and am very happy we found this property!More</t>
   </si>
   <si>
+    <t>larryresick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r448601283-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -513,6 +558,9 @@
     <t>Cheap place to sleep and shower and that's about it.  Thin walls made the room noisy.  But it was clean and safe.  Charged $10 for parking and then there were no spots.  They did say they would refund it when we had to park on the streetMore</t>
   </si>
   <si>
+    <t>Rincon8510</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r443890129-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -534,6 +582,9 @@
     <t>Friendly, hard working staff and nicely appointed rooms, free breakfast, and ample parking ($10).  Rooms have modern furniture and remodeled bathrooms.  Easy access to many LA attractions, from the beach to UCLA, Hollywood, etc.More</t>
   </si>
   <si>
+    <t>Zoila M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r441624013-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -552,6 +603,9 @@
     <t>Good location, one night stay for my son's eye surgery, we couldn't shower in the morning because there wasn't hot water, didn't tell us about the free continental breakfast  upon our arrival either, it says free parking, yet the guy at the front desk charged me $10,00 parking fee.More</t>
   </si>
   <si>
+    <t>sassyviolin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r440211086-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -579,6 +633,9 @@
     <t>although the location is convenient, when we arrived, they gave us the room key of an already occupied room. we opened the door, and that persons stuff and valuables were out in the open. they had not checked-out at all. luckily, we did not run into the guest. the breakfast was ok, but definitely not a healthy breakfast. plastic wrapped muffins, bagels, bread for toast, and pancake machine. staff was friendly enough. you still had to pay 10dollars a day parking.More</t>
   </si>
   <si>
+    <t>derekandkelsey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r434843927-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -606,6 +663,9 @@
     <t>One night into our three night stay so far and we wish we could just check out now and move somewhere else. Pros: Good for the budget traveller.. although, at almost $200US per night, I'd hardly consider that budget.. but this is LA. Plenty of parking, but it comes at $10/night.Cons: The room stinks, although efforts have been made to renovate. The breakfast is meagre. They have a beautiful big fruit juice machine that dispenses no juice. The pool states it opens at 9am, but at 10am when we went to try it out, it was locked. It also appeared quite dirty. It is loud here. We were perhaps in the room farthest away from Santa Monica Blvd and traffic woke us up in the morning. Well, the traffic plus some loser cranking Bon Jovi and singing at the top of his lungs somewhere in the motel at 8:30 am.I understand that this is not the Hotel Roosevelt. But, in comparison, the Roosevelt is well worth the price.More</t>
   </si>
   <si>
+    <t>mikeleedrake</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r433677565-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -627,6 +687,9 @@
     <t>The hotel location and room were quite good actually. The service was so bad I had to rate the experience a 1. When we arrived we were not greeted warmly at all. The receptionist gave us our room key and when we took it to the room it did not work. We went down to the front desk and had to grab her as she was getting into her car to let her know the key did not work. She gave us a new key and when we went back to try the new key it did not work again. When we went back down she was gone. We waited outside the lobby for 20 minutes until she returned. She gave us another key and this one did not work as well. When we went back down she was helping the other guests that had arrived during the 20 minutes she was gone. Over an hour from our arrival time at the hotel we were actually in our hotel room.More</t>
   </si>
   <si>
+    <t>taffPerthWA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r426257677-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -651,6 +714,9 @@
     <t>A positive... room was spacious and clean.  Negatives....pool was dirty, we had a homeless guy decided to sleep on the bench outside our room and he clearly took a wash in the pool as the staff were pulling his thongs out of there in the morning. Had to pay to park the car at the hotel. Give it a missMore</t>
   </si>
   <si>
+    <t>NCF1968</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r419202256-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -678,6 +744,9 @@
     <t>Stayed here in August for 1 night. Was ok and clean but were not impressed by first appearances. It was in the middle of nowhere.  Were no local places nearby to walk and go out to eat. Staff were very nice though and gave good advice. Breakfast was ok.  Wouldn't stay again though would rather pay more money and stay somewhere with more appeal.More</t>
   </si>
   <si>
+    <t xml:space="preserve">AlbertNijn </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r413486434-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -705,6 +774,9 @@
     <t>I guess the philosophy is this...ok, the rooms are ugly and then pool can hardly be called a pool...the staff try their best but they are clearly seasonal and largely unprepared...and some of them are also a bit arrogant...The breakfast is desolating and the walls are cheap...But you're in West LA, few miles from Santa Monica....So...what else can you expect for 100 bucks...?More</t>
   </si>
   <si>
+    <t>johndstewartsr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r405273817-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -729,6 +801,9 @@
     <t>The Azul Inn is a motel. The exterior is very poorly kept.  If you are looking for a place to sleep it's just okay.  The room smells from a leak that has been there for sometime.   The carpet had not been thoroughly vacuumed from a prior stay.  The shower was nice with plenty of pressure.  The breakfast is pathetic.  There is no waffle maker anymore and the selection is limited.  Toaster refused to finish toasting bagel and the decaf wasn't available.This is a safe neighborhood with easy access.  I would not come back nor recommend.  Stay at your own risk.More</t>
   </si>
   <si>
+    <t>dietitiantothestars</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r387277168-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -753,6 +828,9 @@
     <t>Seriously horrible. This place has gone downhill big time. I stayed here about 3 years ago for a couple of weeks, that how nice it used to be. This time, I didn't make it much past check-in time. Plus the front desk staff were super snooty. STAY AWAY from this hotel!!More</t>
   </si>
   <si>
+    <t>Heather G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r381639274-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -780,6 +858,9 @@
     <t>This is a very nice hotel.  Room is clean and modern.  Staff was very friendly.  Off street parking for an additional ten dollar fee and breakfast is included. They have a pool, tho we did not use it.  In a safe area.More</t>
   </si>
   <si>
+    <t>Joepure</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r374929464-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -802,6 +883,9 @@
   </si>
   <si>
     <t>Not OMG awful, but I have to say that the experience of 3 nights at the Azul Inn convinced me that almost anything else in the WLA area would have been a better selection. The photos I saw had little to do with what I saw. The facilities are poorly kept - I mean dirty! Litter everywhere. My room was clean although the toilet seat was broken and the shower dripped water all night and that the room is generally stuffy. Rooms have decent lights and furniture. And the bathroom was very clean. However, you can't turn a sow's ear into a silk purse: this place was originally a TravelLodge, a rival to Motel 6 - it shows. If it was a 100/night hotel it would be OK but at nearly double that... forget it. Oh, the included "continental" breakfast was served in surroundings that were just unclean. Service is at a bargain level as well. The only smiles I saw were from the housekeepers who always said hello.More</t>
+  </si>
+  <si>
+    <t>lloyd n</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r364565636-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
@@ -837,6 +921,9 @@
 The positives:  It is directly across Santa Monica Blvd. from the Los Angeles LDS edifice, easy off, easy on to Santa Monica Blvd., only 5 minutes in light traffic (if that ever happens during the day) to Santa Monica Blvd. and Wilshire Blvd., breakfast was continental style and nothing to brag or complain about . . . except the awesome pancake machine (magic like the French Fry vending machine at the Boise Airport)  and the staff was cordial and working the best they could with what...I was seeking an affordable hotel (read less than $200) close to Beverly Hills. The Azul Inn did meet the price point but lacked in all other areas except "friendly personnel."This hotel was advertised, on their website, as a "boutique hotel, a well-kept West Los Angeles secret and charming."All three of those claims are a stretch of the English language.  First, I would call the Azul Inn a "motel" rather than "hotel" as all the rooms open to either the pool area or a parking lot.  The first room I was assigned had been used since the daily cleaning.  The second room was as clean as could be expected from a motel that appears to have been reincarnated from a  retired TravelLodge Motel.  The entire property is sorely in need of a power washing and some refurbishment.  I was also taken back that the Azul Inn charged $10 for basically alley parking.The positives:  It is directly across Santa Monica Blvd. from the Los Angeles LDS edifice, easy off, easy on to Santa Monica Blvd., only 5 minutes in light traffic (if that ever happens during the day) to Santa Monica Blvd. and Wilshire Blvd., breakfast was continental style and nothing to brag or complain about . . . except the awesome pancake machine (magic like the French Fry vending machine at the Boise Airport)  and the staff was cordial and working the best they could with what they've got.If the price was closer or under $100 per night, I would give this motel an average (3) rating.More</t>
   </si>
   <si>
+    <t>Clara Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r363973072-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -858,6 +945,9 @@
     <t>I stayed there for 11 nights and it was very good!! The room was exactly as it appeared in the pictures. It was suuuper clrean. It was very comfortable, with lots of facilities like AC, heater, TV, radio, wifi, coffee &amp;tea machine, fridge, iron... I never managed to make the safe work but I didn't ask for help either ^^ The pool was great and the included breakfast too. The bathroom was good and no old at all. I liked all the included toiletries. The place was noisy at night depending on the days. The stuff where friendly and helpful. I would go back again.More</t>
   </si>
   <si>
+    <t>Nolaughingmatter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r359499185-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -885,6 +975,9 @@
     <t>The interior rooms are well built and decorated beautifully. Very clean and spacious. Nice breakfast. Neat and clean establishment. Good location near buses and slightly residential area and not many homeless people seen. Loses a star as outside slightly shabby and doesn't do justice to whats inside. Lovely helpful staffMore</t>
   </si>
   <si>
+    <t>sdlove23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r347945604-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -910,6 +1003,9 @@
   </si>
   <si>
     <t>It's a very nice hotel,  been updraded since last time I was here about 2 years go. Close to driving distance of Santa Monica Pier, easy freeway access. Friendly staff, clean location. Parking is great as well. Serve breakfest in the mornings, coffee maker in room so that is good. I Recommend!More</t>
+  </si>
+  <si>
+    <t>janziff</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r343826758-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
@@ -961,6 +1057,9 @@
 So let me compare it with a very fancy-shmancy hotel we stayed in not too long ago where a quadruple espresso was — $40. Four shots of coffee at $10 each shot. Where the staff behaved as though I was doing them a favor by staying there. Where the room was clean and lovely and very chintzy. And where parking on the hotel grounds was $50 a night (for which I would have expected the car to have a garage of its own, and a full service car wash and vacuum etc etc. but no….) The...I guess it depends on what you're looking for:Polite and friendly staff - check.Clean/spotless bathroom - checkComfortable bed - checkBright lights and cheerful room - checkFree wifi - checkFree parking - checkFree breakfast - checkThat's not bad for the great rate we got through booking.com and we enjoyed the stay so much we extended for an additional five nights. It is extraordinary value for money.Hotel's location is superb, close to everything in Century City, the Mormon Temple, good food, great coffee shops, supermarkets etc. Hotel's exterior - well, it looks fairly awful. It's a renovated Travelodge and it shows. The walkways have been painted but the walls and room doors are that sad hospital blue-grey - and it simply looks depressed. There's a small swimming pool - but it's January and I'm not a masochist.So let me compare it with a very fancy-shmancy hotel we stayed in not too long ago where a quadruple espresso was — $40. Four shots of coffee at $10 each shot. Where the staff behaved as though I was doing them a favor by staying there. Where the room was clean and lovely and very chintzy. And where parking on the hotel grounds was $50 a night (for which I would have expected the car to have a garage of its own, and a full service car wash and vacuum etc etc. but no….) The hotel grounds were immaculate. Lovely manicured beds of flowers, beautiful in every way. And the second was 4x the price of the first. Which will I return to - the Azul, absolutely, positively.More</t>
   </si>
   <si>
+    <t>Rob K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r342837194-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -985,6 +1084,9 @@
     <t>Admitted, the looks of the hotel at the corner of Santa Monica Avenue is not that great.The entrance of the look like a ordinary motel.But the price quality is really good.The bathroom was very clean, the beds good the sleep on.Quite close to the 405.More</t>
   </si>
   <si>
+    <t>q547</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r332145144-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1012,6 +1114,9 @@
     <t>Stayed here recently as I had an early morning visit to the passport office. While it doesn't look anything special from the outside I was pleasantly surprised by the rooms.They were spotlessly clean, well equipped with new furnishings and very well maintained. The staff at check in and check out were friendly and helpful and were very accommodating.It was a surprising trip as I didn't expect such a high standard for the $150 I paid for a room.More</t>
   </si>
   <si>
+    <t>Linda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r331832744-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1036,6 +1141,9 @@
     <t>The hotel has been open by new owners. Very nice rooms extremely clean very helpful had a slight error on our bill but corrected immediately would stay here anytime it's absolutely top notch for someone that is on a bit of a budget and is looking for top quality lodgingMore</t>
   </si>
   <si>
+    <t>SisterWaWa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r325368079-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1057,6 +1165,9 @@
     <t>Had a good stay at Azul. We didn't like the smell when we first walked in the room, but the office staff was very pleasant. The free parking was a definite  plus. I would recommend it for a last minute short stay.More</t>
   </si>
   <si>
+    <t>jeremyc07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r320409961-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1075,6 +1186,9 @@
     <t>Great place and very well priced.  It is centrally located between Santa Monica and Hollywood.  Its also has very easy access to the interstate and restaurants.  Traffic can be a bit crazy sometimes and watch out for the merge in front of the hotel.  The was almost an accident from people not stopping at the stop sign.  A++ More</t>
   </si>
   <si>
+    <t>StephanieChacon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r319508801-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1096,6 +1210,9 @@
     <t>The location is near a lot of attractions,  the rooms are spacious, beds are comfy.  I loved being able to take a dip in the pool!It is right on the side of a busy road so don't complain because once you get into bed you can't hear a thing.More</t>
   </si>
   <si>
+    <t>jenmac0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r317770993-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1117,6 +1234,9 @@
     <t>We stayed here in August as a family of 4 for 6 nights. It was very well located for most things. The room was very clean and well equipped. Cleaners did a great job every day. Although it's not the most attractive from the outside the rooms were nice and breakfast was great. It had a lot of choice with cereals, fruit, yoghurt, toast, bagels, muffins, buns and my kids loved the pancake making machine. The staff were very helpful. Especially Kevin.More</t>
   </si>
   <si>
+    <t>roleb5856</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r314899458-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1135,6 +1255,9 @@
     <t>Check in was great. Kevin on reception was really helpful and welcoming. Our room was on the first floor facing the main road but noise was never an issue during our stay. The room was spacious, clean and the bathroom adequate. There was air conditioning in the room which was fortunate as the temperature reached 36c while were there.There was tea making in the room but hot and cold beverages were available 24/7 in reception. The area is very local and not in the tourist trail but only about a 15 minute walk to the nearest pick up for the Hop on Hop off tour bus. The swimming pool was clean and very cold but still inviting after a hard days sightseeing. Breakfast was plentiful and varied.Great place to stay.More</t>
   </si>
   <si>
+    <t>Igor M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r311843367-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1159,6 +1282,9 @@
     <t>The room was small but recently renovated. The carpet and bedding seemed to be new, no smell. It was clean and quiet. The breakfast was decent compared to similar level, with yogurt and fruit. There was coffee in the lobby at any time, although I did not try it. No microwave in the room but they let you use the one in the breakfast area.All in all, overpriced, of course, but good for my business purpose.More</t>
   </si>
   <si>
+    <t>deterius</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r311458993-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1177,6 +1303,9 @@
     <t>Everything about this hotel is good, for the price the location is good- and for LA you can walk to a lot of restaurants. I will stay again! One suggestion is the lobby looks much shabbier than the rest of the hotel, don't let distract you. For the management; get some warm lighting lightbulbs, a couple of bushes and some lounge music on 10$ speakers inside the office and you're more or less there. More</t>
   </si>
   <si>
+    <t>carorules</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r309494894-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1195,6 +1324,9 @@
     <t>Not a fancy place, but conveniently located for the price. From the outside, it doesn't look that great but the rooms are nice enough and clean. The rooms have been updated not so long ago, but they are not brand new. Our room was located on the second level (no elevator) but facing the boulevard which can be noisy. I recommend earplugs if you are a light sleeper. I think our room was very spacious, but I am not sure they are all that way. The free breakfast was good enough, it was a good way to start the day. It was pretty well located also and that is a must in LA considering the traffic. I'd recommend it for a few nights, but probably not for a long stay.More</t>
   </si>
   <si>
+    <t>Betty P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r304811976-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1213,6 +1345,9 @@
     <t>We stayed at this hotel for two nights. It was clean, and price included breakfast, which was enough to get one going. The pool was a nice break from the heat.   Air conditioner can be big loud.  The location is close to Santa Monica ( we walked there!) yes it's about 10km but walking allows you to see other parts of this place.   The gentleman at check-in counter does not appear to talk much, my husband with his funny humor git him going.  Nice. More</t>
   </si>
   <si>
+    <t>Elisa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r303554010-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1231,6 +1366,9 @@
     <t>It was so convenient to UCLA and the room was quite nice.  Breakfast was average but they had a really cool pancake machine - perfectly adequate.  Room was modern and clean, prices not bad for this area.More</t>
   </si>
   <si>
+    <t>gizzycat2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r298948457-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1249,6 +1387,9 @@
     <t>We stayed here for 2 nights whilst on a road trip. The hotel is in a good location if you have a car to explore as most people would in LA. It was clean and the room was comfortable with a good and fairly modern bathroom more than adequate for my husband and I and our son. It is located on a busy road but we were not bothered by any noise. We had no issues parking while we were there. The breakfast was basic but good with the usual buffet offerings. The staff were very friendly and offered helpful suggestions on places to see during our stay. Highly recommended for a stop over/base to explore More</t>
   </si>
   <si>
+    <t>Jéssica Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r298109920-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1273,6 +1414,9 @@
     <t>I stayed at this hotel with my boyfriend during 4 days in LA and i can say it is well located, with a honest breakfast and great and big rooms. What i liked the most was that we didnt pay for parking and that the beds were really big. I would recommed for those who want to enjoy the city and dont need a lot of ammenities. More</t>
   </si>
   <si>
+    <t>Melissa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r298050200-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1291,6 +1435,9 @@
     <t>We stayed at this place first night in America after not having slept for close to 48hrs from an international flight and not being allowed to check in until late afternoon. I'm actually thankful for this sleepless state as I think if we weren't so physically exhausted we may not have slept as we did. The motel is on a fairly busy road and our room was next to the cleaners/laundry room. We were lucky enough to get a car space but there is very limited parking and the surrounding street parking is also limited. However room was clean, wifi worked and the breakfast served was the usual American motel fare. More</t>
   </si>
   <si>
+    <t>jeff g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r282999370-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1318,6 +1465,9 @@
     <t>I stayed there in june 2015 thru the veterans administration who contract with veterans for lodging who travel long distance for treatment at the veterans hospital which is close by.The room was clean, but hot and stuffy, the air was loud, and no circulation even with the window open. I parked in the lot facing santa monica blvd and there are cameras facing the lot from two different locations. my car was swiped on the bumper when either the car next to me was pulling out or in, $1000.00 worth of damage. The motel refuses to provide a copy of the disc for my review. The property manager Jeff Simon of L.A. hotels stated "this isnt our first  rodeo". what a terrible way to treat a guest. god for bid what if some kind of assault happened and management refused to provide documentation, its not the best part of town. very loud lots of traffic. I have attempted to contact management by all means available with no response. what a way to treat guests let alone veterans who stood up to protect you and now need medical treatment, and you are adding to their problems. Sincerely, Jeff GMore</t>
   </si>
   <si>
+    <t>Nora V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r278909700-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1339,6 +1489,9 @@
     <t>My husband &amp; I checked in late June 8, 2015- the hotel is obviously old &amp; outdated, but based on most reviews, we assumed it would be all right for a quick stay. The room had an overwhelming smell of Clorox- we were exhausted after a long drive, so for "fresh air" opened the window (to the "lull" of traffic on busy Santa Monica Blvd) and fell asleep- I awakened the next morning, walked through the pretty neighborhood (soon to be the only redeeming part of the stay) to get bagels, and returned to the room &amp; pulled the bed sheet down low to lie down &amp; read &amp; enjoy a bagel, only to find a wide, long smear of human feces down the side of the fitted sheet- repulsive! I pulled the sheet off &amp; took it to the man at the desk and stated as an RN, I know feces are a health hazard- a breach of infection control- and should have been noticed by housekeeping! The man at the desk said I should have reported it the night before, so "too late for a refund."  I said whether I discovered feces smeared sheets five minutes after checking in or five minutes before checking out, I am justified a refund! He told me to contact Expedia- which I did, the Expedia rep stated they weren't able to refund my payment &amp; called the desk herself, and called me...My husband &amp; I checked in late June 8, 2015- the hotel is obviously old &amp; outdated, but based on most reviews, we assumed it would be all right for a quick stay. The room had an overwhelming smell of Clorox- we were exhausted after a long drive, so for "fresh air" opened the window (to the "lull" of traffic on busy Santa Monica Blvd) and fell asleep- I awakened the next morning, walked through the pretty neighborhood (soon to be the only redeeming part of the stay) to get bagels, and returned to the room &amp; pulled the bed sheet down low to lie down &amp; read &amp; enjoy a bagel, only to find a wide, long smear of human feces down the side of the fitted sheet- repulsive! I pulled the sheet off &amp; took it to the man at the desk and stated as an RN, I know feces are a health hazard- a breach of infection control- and should have been noticed by housekeeping! The man at the desk said I should have reported it the night before, so "too late for a refund."  I said whether I discovered feces smeared sheets five minutes after checking in or five minutes before checking out, I am justified a refund! He told me to contact Expedia- which I did, the Expedia rep stated they weren't able to refund my payment &amp; called the desk herself, and called me back stating Azul Inn desk still refused a refund. I contacted the City Attorney &amp; Santa Monica Health Department to file a complaint.  I went back to the Azul Inn's desk and told the man my actions.  He stated he would "talk to the manager again when the manager was there."  We left and have not been contacted and are out $184!  Azul Inn is the dirtiest hotel and worst service I have ever experienced.More</t>
   </si>
   <si>
+    <t>Michele T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r277426118-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1360,6 +1513,9 @@
     <t>A perfect "inn" for a night. The rooms were quite clean even if the rest of the place seemed not. Easy to find and easy to park the car just on the back of the place. A short drive away from Hollywood, Beverly Hills and Santa Barbara.More</t>
   </si>
   <si>
+    <t>Bumble B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r266136735-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1381,6 +1537,9 @@
     <t>As we pulled up to the hotel, I was uninspired. It looked old, run down, and not very clean. When we checked it, the receptionist was welcoming and directed us to park in the back of the hotel where there was still parking. When we entered our rooms, I changed my mind: it didn't look that bad on the inside. The room was just as good as a Hilton or Marriott hotel and also had all the features/amenities. There was free wifi, a TV, a work desk, plenty of outlets, a closet, a coffee machine, AC/heater, and all the basic toiletries were there. The shower was a stand-in shower (not a tub) and looked pretty clean. The room was pretty spacious as well. In the morning there was free, continental breakfast: cereal, muffins, croissants, juice, pancakes (pancake machine).It is also located very conveniently next to Interstate 405 and 10, Santa Monica Boulevard (which goes to Beverley Hills and Hollywood), and is close to UCLA. Overall, this hotel may look bad on the outside, but lacks nothing on the inside and in terms of location.More</t>
   </si>
   <si>
+    <t>percy763</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r264674965-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1399,6 +1558,9 @@
     <t>We've stayed here before because of its location, and were hoping that the new ownership would have improved things. But we were not impressed. We were directed to a dark, dingy room on the first floor. When we went in, we found a housekeeper lying on the bed watching TV and the room was a mess. We went back to the front desk and asked for a 2nd floor room but was told there were none (yet the place seemed empty). We were given the room next door to the first one, also in a dark corridor - it had a broken screen to the alley outside. Given the heat, we wanted to leave the window open for some fresh air but felt unsafe. Slept there one night and moved to another hotel for the rest of our stay.More</t>
   </si>
   <si>
+    <t>mhzaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r262190236-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1420,6 +1582,9 @@
     <t>This hotel satisfied mainly our expectations; The cleanness was the main positive feature of this hotel, besides its good location due to convenient access to Westwood neighbourhood.  Negative points:1. Breakfast was not something special and was simple. It could be better. 2. There was a young guy at the reception with an unacceptable and rather rude attitude. In general, I recommend this hotel.More</t>
   </si>
   <si>
+    <t>Alison S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r246693994-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1441,6 +1606,9 @@
     <t>We chose the Azul Inn for its close proximity to Westwood where our son is staying whilst studying at UCLA, we stayed for 2 nights. It was also handy for catching the bus to Hollywood via Beverley Hills. Overall we were happy with the motel, the room was clean and well appointed. The decor was pleasant and the bathroom clean and modern. Parking at the motel was not a problem. Breakfast was adequate, I particularly enjoyed the pancakes from the pancake making machine but the pastries were not always as fresh as I would have liked. There was a room (actually more of a lean-to) off the lobby in which to eat breakfast but it was cold and smelled damp so it was not a pleasant experience. We would have preferred to eat breakfast in our room but didn't fancy the prospect of juggling hot drinks and paper plates up the concrete steps. Overall,it was good value for money and it satisfied our needsMore</t>
   </si>
   <si>
+    <t>Nadine R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r231502319-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1462,6 +1630,9 @@
     <t>Nice rooms, new carpet and furniture. Breakfast was okay! Very nice and friendly staff at the reception. The street in front of the motel is loud, but it is okay. Free parking and in front of the Motel is a bus stop, which drives directly to Santa Monica Pier. More</t>
   </si>
   <si>
+    <t>JanieBello</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r229429192-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1483,6 +1654,9 @@
     <t>This was a very convenient place to stay - easy to get to Santa Monica beach and centre as well as Hollywood/Sunset Boulevard.  Very clean and well decorated.  Front desk staff were averagely helpful (I think we just got the 1 elderly guy that couldn't have cared less).  Breakfast very average but filled the gap.  Although on the main rd, our room was relatively quiet.  Good, safe area.  Very pleasant stay.More</t>
   </si>
   <si>
+    <t>Nanthahala</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r221018681-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1501,6 +1675,9 @@
     <t>We stayed two nights in July 2014 and for our needs it was perfect.  Friendly staff and a convenient location with plenty of parking space. The only thing I felt a bit uncomfortable with was coming to our room after dark. The place is not closed off and i felt a bit uneasy walking the stairs rushing to my room.  But it seemed like a safe neighborhood and i assume it was my own feeling more than anything.  The room was very clean and fresh,  nicely decorated. Overall a great stay. More</t>
   </si>
   <si>
+    <t>Neecy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r220758866-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1519,6 +1696,9 @@
     <t>Azul Inn is an old economy motel that has been renovated with a real retrograde feel.  Conveniently located and fairly easy access right off the 405 Freeway.  Very reasonable rates for the area.  The staff is friendly and helpful, they have a nice swimming pool, and it's surprisingly quiet for being right on Santa Monica Blvd.  Parking is a little tight, but (and pay attention here) IT'S FREE!  This is my choice for future stays in the area.More</t>
   </si>
   <si>
+    <t>Kathy_Quimby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r220721490-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1534,6 +1714,9 @@
     <t>We weren't sure when we booked what Azul Inn would be like, but it turned out to be right around the corner from where I had been attending a conference and only a short drive from the Getty, Santa Monica, and the airport. In addition there are great places to eat, most of them reasonably priced, on Westwood Blvd. The breakfast buffet was decent, the room was comfortable, and overall we'd stay here again. The one down-side was a bed that was too soft for our backs.More</t>
   </si>
   <si>
+    <t>USAsvenskan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r216249808-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1552,6 +1735,9 @@
     <t>We were very happy with our stay. For a reasonable price, we got a great room in a central area. The breakfast was good although carb heavy. The room was ok size, clean, updated but a bit noisy. We could hear traffic and the neighbors...More</t>
   </si>
   <si>
+    <t>camamare</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r204842839-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1571,6 +1757,9 @@
   </si>
   <si>
     <t>This was the second time we stayed here. My boyfriend had surgery at the VA in West L.A., and the VA offers vouchers for people who live further than 50 miles. The room was clean, and the staff was very accomodating. Our room had a king bed, it was comfortable. The back of the room looked out into a parking area and an apartment complex. If we opened the windows it got a bit loud -- especially the day the trash truck came! Otherwise, the location is perfect for people visiting Los Angeles -- it's between Century City/Beverly Hills to the east and Santa Monica to the west. To the north you have UCLA and Westwood Village. The very beautiful Mormon Temple is directly across the street.The breakfast bar gets a big crowded -- because everything offered is in a small, crowded space. However, the fruit was fresh, they offer bagels and pancakes. The coffee was good. By the way, I may have left my coffee mug there -- I'm wondering if mgmnt found it? It doesn't really matter -- I've already bought a new one!Anyway, for anyone visiting L.A. on a budget, I'd recommend it.More</t>
+  </si>
+  <si>
+    <t>pattayainsider</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r204037894-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
@@ -1595,6 +1784,9 @@
 There was a nice clean small pool, a few vending machines, and a nice breakfast offered in the lobby, included in the room rate.  I suspect there isn't too much extra parking, so if you arrive a night you might have a problem, but the lobby told me they would tell me where to find it.  There is no convenience store in the immediate area, about a 15 minute walk...Very pleasantly surprised here!  All of the rooms appear to have been recently renovated, so on the inside, it looked very new and very clean.  I had a queen bed room, space was a bit tight.  I saw a king bed room, and it looked about 20% bigger, where there was a little room to walk around inside the room.  The bathroom was very compact, but all brand new, and all sparkling clean.  Nice amenities provided.  Really great water pressure in the shower.  There was a small refrigerator, and nice coffee setup, and a nice big flat screen t.v. with lots of cable channels including HBO.  I didn't hear any noise from my neighbors, but I suspect that the insulation is not the best possible, and I did hear people walking around upstairs on the 2nd floor.  Most of that is drowned out by the air conditioning unit, which is on the loud side.  The bed was reasonably comfortable, but the linens and towels were not the best possible quality/thickness.  There was a nice clean small pool, a few vending machines, and a nice breakfast offered in the lobby, included in the room rate.  I suspect there isn't too much extra parking, so if you arrive a night you might have a problem, but the lobby told me they would tell me where to find it.  There is no convenience store in the immediate area, about a 15 minute walk away I think, to Westwood Boulevard where there are gas stations.  The location is very safe, so despite the rooms being open to the street, it's as safe an area as you will find in Los Angeles.  The manager told me they are full every night, and I suspect that is true, compared to prices of other hotels nearby, which can easily be twice the price.  I love that the parking is free, which saves a lot of money.More</t>
   </si>
   <si>
+    <t>hayoka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r197992013-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1616,6 +1808,9 @@
     <t>I stayed here because of the reasonable price and was a little let down by the feel of this hotel.  I planned on staying 10 nights but checked out after the first, since I didn't feel very secure there.  The rooms all open to the street, it's noisy and run down, with a musty smell in the room.  It was OK for one night but I won't stay there in the future since I found better rates (UCLA discounts) at nicer hotels in the area.More</t>
   </si>
   <si>
+    <t>energizeranimal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r197429533-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1634,6 +1829,9 @@
     <t>Great location between Santa Monica Pier and the park above the bluffs.  Its near Venice Beach and Century City Westfield Mall.  It is an older hotel that has been refurbished nicely.  The staff is cordial enough until you get to know them and then they are very nice especially Haqu.  We travel here for medical treatment for my wife and he always makes sure she gets a bath tub as most rooms have showers. We very much appreciate him. It is within walking distance to many ethnic restaurants including Persian, Mexican, Chinese, Italian, Pizza, Mexican and American that I know and have visited.More</t>
   </si>
   <si>
+    <t>Bay_Area_Maximo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r194567601-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1655,6 +1853,9 @@
     <t>If your purpose of finding a place is to be near the LDS temple in LA, you've hit the jackpot. Right across the street, with easy walking access, you can't do better than this hotel.  The hotel itself is pretty uninspiring. It's a refurbished (to some degree) older property, and it doesn't take long to realize refurbishing only goes so far. It served its purpose without fanfare. It was clean enough, parking was sufficient, and breakfast was decent. If you're going to the LDS temple, I highly recommend it. If you just need to be in the area, I would suggest looking at alternatives and compare. This is not a bad place, and it is not a great place. BTW, hotel staff was not warm and fuzzy. They did the job efficiently, but with no personal touch. Like the property itself, they were all about function.More</t>
   </si>
   <si>
+    <t>Paula G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r189812598-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1676,6 +1877,9 @@
     <t>Needed a hotel close to the Mormon Temple in Los Angeles.  This is directly across the street and easy to find from the freeway.  Even though it is an older property, the interior renovation is very well done.  Ample continental breakfast (I didn't try the pancake machine, but it might be fun!).  Even though I was alone, I felt secure here, and was able to park my car just steps away from my room.  A lot if interesting restaurants within easy driving distance.  Had a much better stay here than at a Marriott Courtyard the next night.More</t>
   </si>
   <si>
+    <t>LIM879</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r188632640-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1697,6 +1901,9 @@
     <t>We needed a place between LAX &amp; the French consulate for a late night flight and early morning appointment.  This place fit the bill exactly.  It was clean &amp; quiet (our window did face the back, rather than Santa Monica Blvd), the room was updated &amp; spotless, and there was a pleasant continental breakfast in the morning.  It surely saved us from horrific morning freeway traffic.More</t>
   </si>
   <si>
+    <t>StaticMind2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r185640931-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1724,6 +1931,9 @@
     <t>Horrific experience. We reached at around 4:30 PM (check in time 3:00 PM) only to understand that our rooms were not ready. The manager (most pathetic I have ever seen), didn't even share this with us. We stand in front of the room to get another hostile treatment from the janitor. The manager told my wife that I was lying (Screw him).I would never recommend this place to anyone.More</t>
   </si>
   <si>
+    <t>jlbcable</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r182037072-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1745,6 +1955,9 @@
     <t>This hotel has had a big makeover in the last few years. The name has changed, went through different management and is much better. When I first stayed years ago it was a Motel6 and since then I was hesitant on staying again. This time it was surprisingly good. I felt leaving my car. I have stayed three times and the only complaint I have is needs more water pressure in shower. Other than that very comfortable and very quiet!More</t>
   </si>
   <si>
+    <t>Hao J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r181038504-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1766,6 +1979,9 @@
     <t>It's almost the cheapest hotel near UCLA. The room is clean, the bed is comfortable. In summer, the swiming pool is clean. The complimentary breakfast is not bad. Parking is very convinient. The receptionists are also friendly.  More</t>
   </si>
   <si>
+    <t>Jenna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r179862982-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1787,6 +2003,9 @@
     <t>Recently re-decorated Inn/motel. Good clean rooms, flat screen tv, coffee/fridge facilities. We took a shot on this place after some mixed reviews (I believe these reviews were before re-model) For the price, you can't argue. If you want a spacious room that is cleaned daily and in an ideal location, this is the place for you. Continental breakfast is actually very good -  side door does open out for more room -eat as much as you like. Staff are friendly. If you don't have a car (we didn't) you will rely on buses - 10 min walk to the left for main bus stops -you also pass a 7-11. 20 min journey to santa monica (big blue bus ideal) or 30 mins to downtown la - you can then catch another bus to Farmers Market or Hollywood. We had plenty of evenings out and felt comfortable walking around at night.We are returning to the Azul inn next week to end our stay in LA.More</t>
   </si>
   <si>
+    <t>FranklyMrBillShankly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r174399439-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1811,6 +2030,9 @@
     <t>I stayed here last December for five nights and thoroughly enjoyed my stay. The location is perfect for UCLA and much cheaper than surrounding hotels if booked in advance. The staff are extremely friendly and attentive, especially Hector on reception. I reported that the Wifi was down and it was fixed within the hour. Housekeeper was rather persistent for her tip but that didn't detract from the stay and the room was very clean. The only downside was the noise from the traffic but this is Santa Monica Blvd so was expected. Would stay again.More</t>
   </si>
   <si>
+    <t>RodrigoCL773</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r173982916-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1832,6 +2054,9 @@
     <t>No frills hotel, nice location, budget hotel. If you are looking for a hotel near Santa Monica, and close to LA main attractions this is the place. Is the cheapest decent place that you will find in santa Monica. The hotel has been renovated recently. Would stay again!More</t>
   </si>
   <si>
+    <t>Jennifer A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r173434527-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1853,6 +2078,9 @@
     <t>This is a take it or leave it motel.  Don't think it's worth the price we paid which was $135 a night.  It's clean and a place to put your head down but nothing else really.  The pancake machine is the best part.More</t>
   </si>
   <si>
+    <t>jona1977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r172296291-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1871,6 +2099,9 @@
     <t>Spent 1 night at the Azul Inn last week.  Exactly what my wife and I needed.  A comfortable place, free parking, and a clean room.  Was not noisy at all, and the bed was comfortable.  Enjoyed the free WiFi in the room.  They do serve a continental breakfast in the lobby, but we opted to go to IHOP instead.More</t>
   </si>
   <si>
+    <t>Tobi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r166184894-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1895,6 +2126,9 @@
     <t>Although the bed was comfortable and clean, it was not what I expected from reading their description of their hotel.  The rooms for the most part faced a busy street and was somewhat noisy even into the night.  There is no elevator and the steps to the second floor are very sharp and steep and dangerous in my opinion especially for those that might have muscle or joint problems esp. having to lug the suitcases up the stairs.  The ad says climate controlled which in most hotels means that the air conditioning is thermostatically controlled but this is not.  Its the old fashion room noisy air conditioner under the window.  The internet they provide for you is slow and I could not even get Southwest Early boarding pass from it.  The continental breakfast they provide is very limited to rolls and cereal and pancakes that basically you make yourself.  The staff was not very friendly or helpful either day or night.  There is parking as it says but a lot of the customers think that pulling in and taking up two places is ok and then you have to report them and whether its taken care of not is questionable.  The last thing was I found a cockroach in the bathroom at night which I had to chase to kill and when there is one, you know the rest I think, there are more.  I reported it and they said...Although the bed was comfortable and clean, it was not what I expected from reading their description of their hotel.  The rooms for the most part faced a busy street and was somewhat noisy even into the night.  There is no elevator and the steps to the second floor are very sharp and steep and dangerous in my opinion especially for those that might have muscle or joint problems esp. having to lug the suitcases up the stairs.  The ad says climate controlled which in most hotels means that the air conditioning is thermostatically controlled but this is not.  Its the old fashion room noisy air conditioner under the window.  The internet they provide for you is slow and I could not even get Southwest Early boarding pass from it.  The continental breakfast they provide is very limited to rolls and cereal and pancakes that basically you make yourself.  The staff was not very friendly or helpful either day or night.  There is parking as it says but a lot of the customers think that pulling in and taking up two places is ok and then you have to report them and whether its taken care of not is questionable.  The last thing was I found a cockroach in the bathroom at night which I had to chase to kill and when there is one, you know the rest I think, there are more.  I reported it and they said they would spray my room the next day.  Whether they did or not, is unknown but I did not see another but it was unsettling.  Granted it is an old building that was I believe at one time Travel lodge so don't expect anything fancy..  There is nothing to do within walking distance not even a 7 11.  Westwood Blvd. is about a ten minute walk and not much at that end of it.  Closet is ok,  There are dressers for clothes, a hairdryer and iron and board.  Room itself is adequate but sorry I would not stay there again.  The only nice part was the housekeepers did an adequate job of cleaning and making the bed with comfortable sheets and no bed bugs, believe me I have checked.    If you have no problems with steep steps and don't care about the rest, cost is reasonable but you get what you pay for so keep it in mind.More</t>
   </si>
   <si>
+    <t>Angie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r166054493-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1913,6 +2147,9 @@
     <t>This is my second time at the Azul, and everything was exactly the same which is a good thing! Clean room, bed more comfortable than my own, and no noise. Wide screen TV and cable, free wifi, and computer in the lobby, with printer.  The bathroom was nice and good closet space. I really enjoyed my stay, they also serve cereal, pancakes, bagles/pasteries and very good coffee and tea selection. The location is really convenient, for the price it cant get any better. More</t>
   </si>
   <si>
+    <t>Late_Apex_014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r162911674-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1931,6 +2168,9 @@
     <t>Pros:  Nice decor, excellent large flat-screen TV, good location, good pricing with advance booking, free wifi.Cons:  On a busy street (Santa Monica Blvd) so it was somewhat noisy, the carpeting in our unit looked clean but my socks were filthy after a couple of hours, barely adequate parking, no fan in bathroom made for a damp feeling in the room I was just not able to eliminate (even with the A/C running continuously), outdated online booking interface, SLOW wifi.More</t>
   </si>
   <si>
+    <t>Roger L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r158611648-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1952,6 +2192,9 @@
     <t>Spent one night and found the value quite good. The rooms are well kept and bed was very comfortable. The outside appearance is not so great, but don't let if fool you. Hotel is within walking distance of a number of very casual restaurants.More</t>
   </si>
   <si>
+    <t>119alexs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r158501694-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1970,6 +2213,9 @@
     <t>The Azul Inn ended up being a great place to stay.  The location was great and the beds were the most comfortable I've ever slept in.  I hated waking up!  It does looks shady from the outside but the rooms inside are nice and clean.  Worth the price.More</t>
   </si>
   <si>
+    <t>Richard William G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r151259311-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1991,6 +2237,9 @@
     <t>Much, much better than the Stars Inn and the Little Inn down the street.  Spend a little extra money and stay here. The beds are comfortable and the bathrooms are clean.  Recent remodel greatly improved property.Negatives-  parking difficult and no elevator to second floor/ forget the free coffee etc... that was terrible - go to Starbucks down the street instead.  But, the location is great - We have business in Westwood and the  hotels in Westwood charge a fortune.  This place is a bargain and quite comfortable.More</t>
   </si>
   <si>
+    <t>Lady_Xin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r150703303-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2015,6 +2264,9 @@
     <t>Over charge, give you a price, then when you leave they over charge your credit card &amp; when you call them they don't care about helping you. i would never stay there again!!.. The room was not clean, the heater didn't work, &amp; most of all you couldn't sleep because it was too loud.More</t>
   </si>
   <si>
+    <t>Railgun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r144203007-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2033,6 +2285,9 @@
     <t>I've been living in different hotels in WLA from Hilton to travelodge. I saw the ad on ucla's website and came here. Conclusively, Azul inn is the cleanest motel---cleaner than those 4 stars, trust me! The outside looks meh but every part of the room is extremely clean because it's newly renovated. The only complaint is the parking lot and the price. If they lower the price there will be no vacancies...It has the cleanest bathroom and the most comfortable bed! Ucla students have 10% off! If you are tired of those hotel chains, try this one. You won't regret...More</t>
   </si>
   <si>
+    <t>travelure</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r139660577-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2054,6 +2309,9 @@
     <t>All rooms redone late fall last year, so we definitely enjoyed our spiffy room with all the amenities ... shower is excellent ... HOPEFULLY the fairly dismal breakfast area will be the next to get "facelifted."  It needs it.  Location in Westwood (W LA) is excellent and just minutes from major attractions such as Beverly Hills, Hollywood, Malibu ... UCLA, etc.  Also, even though we had a car, it was nice to be able to walk a bit to some locations.  Manager (an expat NYer) was exceptionally efficient and helpful.More</t>
   </si>
   <si>
+    <t>SleepyNess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r136867460-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2072,6 +2330,9 @@
     <t>We chose Azul for its proximity to a close friend's wedding. At first, we didn't want to judge Azul Inn by its cover. The room seemed clean and the person at the front desk was friendly. It wasn't until we arrived back after the wedding that we were very unpleasantly surprised.The first thing we noticed was that both our luggages were unzipped. Not only unzipped but all compartments inside were unzipped as well. After logging a complaint to the front desk and checking our valuables we got ready for bed only to notice the bathroom hadn't even been cleaned. The towels were still originally where we left them and there was still a disgusing bloodstain on the shower curtain (attached pic to follow). Unfortunately since we're here for a wedding we still have a night with the Azul Inn however we feel so violated that not only did we tell the front desk we'd be writing a negative review online but we're going to lock all of our belongings in the car tomorrow when we leave. It's very unfortunate that the safe in the room is the only thing that made me feel safe.More</t>
   </si>
   <si>
+    <t>ozlem-burak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r135835581-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2093,6 +2354,9 @@
     <t>We stayed at azul inn with a group of friends for our visit in LA. It has a convenient location if you have a car, the parking area is free and we always had a place everynight. It has a small pool which can be used for sunbathing but we didnt used it. The rooms are really nicely decorated, we have stayed at the two queen bed room and it was quite spacey. Bathroom is also new and nice although a bit small. There were no bedbugs as mentioned like the other travellers. Thanks that I didnt read the comments about the bedbugs before we went.For the breakfast, there wasnt much choise, but it was the best in our entire trip. There was coffee, decaf, variety of tea choises, orange and apple juices, corn flakes, bagels, cinnamon rolls, muffins, cream cheese, jam, apple and banana. People were nice and helpful. Price is a bit high for this kind of motel, it was $131, for two double bedroom. But it was nice and clean and at a good location for traveling around LA. More</t>
   </si>
   <si>
+    <t>AKHtravellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r134672711-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2111,6 +2375,9 @@
     <t>We stayed at the Azul Inn twice during our visit to Los Angeles as it was close to the activities we had planned. The first stay we were right on the santa Monica blvd side and it was so loud all throughout the day and night, which made it next to impossible to sleep!!The price was pretty steep for what you get, I would expect a motel like this to charge around $100 a night, as the noise is really loud from the road, and the walls are pretty thin... We could hear the room next door talking.The second stay we were out the back of the motel and it was better noise wise at night time, until 6am in the morning when the diggers behind the motel at a construction site started up and did not stop until later on...The front desk staff were helpful when we asked questions, as we are from NZ we did not know where anything was, and we were here over 4th of July, so they gave us some suggestions on where to go, and were always helpful with where to eat and ordering taxis...Would stay again as we know the area now, but would hope that the price drops a bit...More</t>
   </si>
   <si>
+    <t>palmimp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r133377313-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2132,6 +2399,9 @@
     <t>OK ! I first booked a Kimpton hotel few blocks away from this hotel and then changed it !Anyway, I am not comparing this one to a Kimpton hotel, but overall it was a good stay.The room is clean and updated. The free parking is a HUGE plus, cause we had two cars. The location is great. Can't be better for me. I just grabbed a cup of tea from the breakfast bar, but it was usual breakfast. It is interesting that somebody said he skipped it because it wasn't organic !! I am not sure even Ritz-Carlton offers organic food for free ! The lobby is not as clean as the room and has a strange smell. Also the front-desk had problem with communication. If you want to be in the area and don't want to spend a lot of money book this motel. It is not disappointing at all !More</t>
   </si>
   <si>
+    <t>NewToIowa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r132849034-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2150,6 +2420,9 @@
     <t>Great location in the heart of Westwood, close to everything, yet not too close to the crowd. A nice little motel, the decor is quite tastefully done and could easily pass for some 3.5 star chains I stayed. HD flat panel TV, Free parking, free breakfast, free internet, though not really usable. They do give out WiFi password generously, but the connection is so bad that I only checked email once and then gave up completely. We also spent our last night without hot water, so no shower. The linen also feels thin and cheap. Overall, decent stay for the price (booked it during a promotion for $90/night), but not the $129 standard rate as posted on their website.More</t>
   </si>
   <si>
+    <t>Michele S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r131584589-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2168,6 +2441,9 @@
     <t>The cleanest bathrooms I've ever seen,  quiet rooms, comfortable bed, good breakfast, friendly professional staff, an excellent value overall.More</t>
   </si>
   <si>
+    <t>namastemystic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r129679343-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2187,6 +2463,9 @@
   </si>
   <si>
     <t>Adorable decor, great amenities, quiet, nice linens, great helpful staff, free parking, good price.  From the outside you can not tell how great it is on the inside.  Even the toiletries are high quality.  Definitely don't judge a book by its cover.  Great value!More</t>
+  </si>
+  <si>
+    <t>dk4socal</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r129364572-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
@@ -2218,6 +2497,9 @@
 I requested a quiet room away from the street noise.  They accommodated...I stayed here recently when I had a job interview in Century City.  I wanted a location that was close by.  The Azul Inn is just down the road from Century City on Santa Monica Blvd., a few minutes drive.  The location was convenient.  I got an affordable rate on Hotwire, which mentioned free parking, free breakfast and WI-FI available.  Good value.The Azul Inn is basically a renovated motel.  The building's exterior isn't in great condition and it looks like a motel.  However, the rooms are newly renovated with mid-century modernesque furnishings, flat screen TV, and are in good condition.  This was a convenient home base from which I did a lot of prepping for my interview in the hotel room.The Asian female hotel desk clerk at checkin was busy, stressed and not in a good mood.  Guests did not receive a friendly welcome.The free wi-fi was not working when I got to my room.  I went downstairs to the lobby, they said they had recently reset the connection and to try it again in a few minutes.  Then it worked fine.  However, late that evening it stopped working again and wasn't working when I woke up the next morning.  I asked them to restart the router again, waited, but it still didn't work.  Fortunately, I was able to access the internet using my smartphone.I requested a quiet room away from the street noise.  They accommodated my request, however, a large building was being constructed behind the hotel.  Due to this huge erection, enthusiastic jackhammering took place beginning at 7 am and they were still going at it strong when I checked out.The mattress was a very comfortable and high quality Simmons Beautyrest WorldClass.  I only know this because I accidentally yanked the sheet off the mattress during the middle of the night ;)There were a number of eateries within a convenient distance.  I walked 5-10 minutes to a healthy chicken / Indian restaurant near the corner of Westwood and Santa Monica Blvd. for dinner.  I didn't partake of the free breakfast in the morning because it was coffee (which I don't drink), tea (didn't like the quality of the tea), carbs (which I try to avoid, especially when I don't want a food coma), Minute Maid juices from a machine (I prefer fresh squeezed or not from concentrate juices), and non-organic fruit.  I don't expect a free breakfast to be gourmet, and I was fine driving down to Westwood and Pico to Junior's where I ordered breakfast and lunch to go.  The desk clerk at checkout was accommodating and agreed to let me to check out later than usual since I didn't need to be in Century City until 2 PM.   I would recommend staying here for convenience and value, if you don't mind the temporary daytime construction noise.  Don't count on the WI-FI working the entire time.  Bring your smartphone if you need internet access.More</t>
   </si>
   <si>
+    <t>tkroll1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r123276906-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2237,6 +2519,9 @@
   </si>
   <si>
     <t>You will not even get close to this nice of a place to stay in w.los angeles for the price ILL BE BACK.More</t>
+  </si>
+  <si>
+    <t>Ashley M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r119404950-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
@@ -2280,6 +2565,9 @@
 This is the best hotel you'll find in this location, unless you have a fat wallet and want to spend over $300 a night at some of...I needed a room nearby the Beverly Hilton (obviously, I can't spend the $300+ it costs to get a room there). I came across the Azul Inn and booked a room, expecting it to be a complete pit. However, I was pleasantly surprised by how cute and clean the room was! As the previous poster said the hallways are a bit shabby, yes, but unless you are planning to sleep in the the hallway corridor, I wouldn't worry about it. My room was totally cute and it has the following benefits:1) Um..free parking. Where else can you get that in the Beverly Hills area? 2) Close location to major hotels/attractions3) Friendly front desk staff (usually people that work at motels are super-rude. The guy that checked us in couldn't have been nicer)4) Free breakfast (it's not the Ritz, but they had a nice selection of danish, juice and coffee. And it's free...so stop complaining people, geez!) The rooms are all decorated in a mid-century modern-esque theme, which I loved. The beds were comfy and the room was huge (for a motel). The area is a bit sketchy if you head toward the freeway, but, again, unless you're planning to wander the streets around the motel at night, you'll be fine. This is the best hotel you'll find in this location, unless you have a fat wallet and want to spend over $300 a night at some of the ritzy places.More</t>
   </si>
   <si>
+    <t>mrsoLosAngeles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r118544249-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2307,6 +2595,9 @@
     <t>The rooms have been refurbished to a nice standard, very clean and cool furnishings.They should clean up out side as it is disgraceful. Horrid old stinky carpets and filth. You think you will catch something nasty by walking in the corridors. I know they are still mid refurb but they should do something!!!!As for the staff...so unprofessionally run. The Leslie Chow lookalike/soundalike is so rude......If Doug calls... I've checked out!!!More</t>
   </si>
   <si>
+    <t>Califrank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r116143168-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2334,6 +2625,9 @@
     <t>Okay, they have some brandnew rooms. Clean. But that is what I EXPECT from a Motel/Hotel! But from the outside this Motel (Ex-Travelodge) looks like a horror-motel! Ugly, unsafe, stinky, dark hallways, and 60(?) years old carpets. This place is a horror! Every Motel 6 all over America is MUCH better!!!!! And the price for a room. Starts from 114 Dollar and up!!!! Plus tax!!!! ha ha ha ha, who is so damn stupid to pay that? Okay, I was..... Never again.More</t>
   </si>
   <si>
+    <t>oz_flashpackers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r104450291-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2355,6 +2649,9 @@
     <t>this place was ok, suited what we needed - a cheaper place to stay in west la.  some staff were helpful +++, some staff were far from helpful (the asian lady who worked at the front desk was not helpful).  we had the upgraded larger room.  close to restaurants and a 7/11 just down the road.  our friends parked their car here with no issues.  it seems like a bit of a dodgey area, but generally it seems quiet safe.More</t>
   </si>
   <si>
+    <t>ldamaris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r102580014-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2373,6 +2670,9 @@
     <t>The Hotel is no longer called Travelodge. It is now called "AZUL INN". The Hotel is  2 miles from UCLA &amp; about 5 miles from Santa Monica Pier. From the outside very dirty and smelly, but from the inside it was clean. We tried to check in at 11:30am and was denied by the Front Desk Clerk. We were not allowed to check in until 1:30p even after we had told the clerk we had a wedding to attend to at 4pm. We booked a non smoking room but the smoke from other rooms went through the vents anyways, so it was like we were having second hand smoke. The price we paid for one night including taxes was $100.58 for single queen bed.More</t>
   </si>
   <si>
+    <t>passiflorabear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r49010578-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2397,6 +2697,9 @@
     <t>We visited LACMA, Beverly Hills, Westwood, Santa Monica, and the Getty Center, so the motel's location was convenient.  Our room opened to Santa Monica Blvd, so it was a bit noisy, but it was a good, no-frills room with free wifi at a decent price.  The complimentary breakfast was appreciated--pastries, bagels, coffee, and juices.More</t>
   </si>
   <si>
+    <t>Zara_S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r27548584-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2418,6 +2721,9 @@
     <t>the hotel was very clean with lots of parking space. but it was TOO NOISY (near fire station). and again the tv for one of the neighbors was too loud and they had party from 11pm to 4am.!!! I asked the front desk 2 times to take care of that, but they did NOTHING. I had to go and knock their door. they were so drunk.More</t>
   </si>
   <si>
+    <t>lazym0nkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r15759704-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2439,6 +2745,9 @@
     <t>Spent one nite in there, great location, nice staff, the place is reasonably clean but a little worn out.Great for a good night sleep and a shower, expect nothing more.Rates are very affordable considering the location.More</t>
   </si>
   <si>
+    <t>luicap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r12477924-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2457,6 +2766,9 @@
     <t>located near westwood - lots of good restaurants - this is a fine stop after a long intercontinental flight. Book a room fronting the backyard so there´s not much noise from the street.some rooms have beds with plastic mats which make you sweat. we put them awaywe´ve been to the travelodge twice and we will come back on our next trip to death valley.More</t>
   </si>
   <si>
+    <t>sltravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r8040311-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2478,6 +2790,9 @@
     <t>We booked this hotel since it was close to UCLA. When we arrived at 4 pm, we were given keys to go to the room. When we went to the room, it was not ready and maid was still cleaning it. We were asked to wait another 30 minutes. Finally when we got the room, the toilet was not working. I had to call at least 5 times for them to come and fix it. They kept coming and say it is done but it was not fixed. Finally manager came and he said it is fixed and it was not. Four of us had to use the office toilet until about 9 pm. Never agian I will saty in this hotel.More</t>
   </si>
   <si>
+    <t>julie93405</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r7870034-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2494,6 +2809,9 @@
   </si>
   <si>
     <t>We spent one night in a room with two beds.  They were advertized as queens, but I would guess they were more like doubles.  While the room &amp; bathroom were small, I could see the management had done all they could to equip it with conveniences for the guest.   There was a coffee maker, hair dryer, large television, laundry bag, shower head with massage options,  etc.  The carpet and linens were in good shape.   The location was great and we didn't notice the noise from the street since we had our fan on in the room.  We didn't use the pool or eat at the continental breakfast but both looked good.   If you're looking for a place with a great location at an affordable price, I would recommend it.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d82633-r5440619-Azul_Inn_West_Los_Angeles-Los_Angeles_California.html</t>
@@ -3110,43 +3428,47 @@
       <c r="A2" t="n">
         <v>7180</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>15985</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3164,50 +3486,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7180</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>151738</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3225,50 +3551,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7180</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>151739</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3286,50 +3616,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7180</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>151740</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3347,50 +3681,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7180</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>151741</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3412,56 +3750,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7180</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>151742</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -3479,56 +3821,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7180</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>151743</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3546,56 +3892,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7180</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>104</v>
       </c>
-      <c r="L9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
-      </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3607,56 +3957,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7180</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>21448</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3668,56 +4022,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7180</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>813</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3733,56 +4091,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7180</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>151744</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3794,56 +4156,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7180</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>151745</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3861,56 +4227,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7180</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>151746</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3928,56 +4298,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7180</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>151747</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3993,56 +4367,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7180</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>151748</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4054,56 +4432,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7180</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>151749</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -4121,56 +4503,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7180</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>151750</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -4188,56 +4574,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X18" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7180</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>151751</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4253,56 +4643,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7180</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>151752</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -4320,56 +4714,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7180</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>151753</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4387,56 +4785,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7180</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>151754</v>
+      </c>
+      <c r="C22" t="s">
+        <v>223</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -4454,56 +4856,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7180</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>151755</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4515,56 +4921,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7180</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>151756</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4576,56 +4986,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7180</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>151757</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4637,56 +5051,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7180</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>151758</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4702,56 +5120,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="X26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="Y26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7180</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4769,56 +5191,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="X27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="Y27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7180</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>151759</v>
+      </c>
+      <c r="C28" t="s">
+        <v>280</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="J28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="K28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4834,56 +5260,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="X28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7180</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>151760</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4901,56 +5331,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7180</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>151761</v>
+      </c>
+      <c r="C30" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4962,56 +5396,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="X30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7180</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>151762</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5023,56 +5461,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="X31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7180</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>151763</v>
+      </c>
+      <c r="C32" t="s">
+        <v>317</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5084,56 +5526,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7180</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>151764</v>
+      </c>
+      <c r="C33" t="s">
+        <v>327</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5149,56 +5595,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="X33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7180</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>3393</v>
+      </c>
+      <c r="C34" t="s">
+        <v>337</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="L34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="O34" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5210,56 +5660,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7180</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>151765</v>
+      </c>
+      <c r="C35" t="s">
+        <v>346</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="O35" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5275,56 +5729,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7180</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>9870</v>
+      </c>
+      <c r="C36" t="s">
+        <v>356</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5336,56 +5794,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7180</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>151766</v>
+      </c>
+      <c r="C37" t="s">
+        <v>365</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5397,56 +5859,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X37" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7180</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>151767</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5468,56 +5934,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X38" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7180</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>151768</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5535,56 +6005,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X39" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7180</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>151769</v>
+      </c>
+      <c r="C40" t="s">
+        <v>388</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="J40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="K40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="L40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5600,56 +6074,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X40" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7180</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>151770</v>
+      </c>
+      <c r="C41" t="s">
+        <v>396</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="J41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="K41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="L41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5667,56 +6145,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X41" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7180</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>151771</v>
+      </c>
+      <c r="C42" t="s">
+        <v>403</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="J42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="L42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5732,56 +6214,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="X42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="Y42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7180</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>151772</v>
+      </c>
+      <c r="C43" t="s">
+        <v>412</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5803,56 +6289,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X43" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7180</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>151773</v>
+      </c>
+      <c r="C44" t="s">
+        <v>419</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5870,56 +6360,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X44" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7180</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>151774</v>
+      </c>
+      <c r="C45" t="s">
+        <v>426</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="J45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="K45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5931,56 +6425,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X45" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7180</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>151775</v>
+      </c>
+      <c r="C46" t="s">
+        <v>433</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="J46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="O46" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5998,56 +6496,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X46" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7180</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>151776</v>
+      </c>
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="O47" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6059,56 +6561,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X47" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7180</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>151777</v>
+      </c>
+      <c r="C48" t="s">
+        <v>447</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="J48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="K48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="L48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6120,56 +6626,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="X48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="Y48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7180</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>15342</v>
+      </c>
+      <c r="C49" t="s">
+        <v>456</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="J49" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="K49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="L49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6181,56 +6691,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="X49" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7180</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>76156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>463</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="L50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6248,56 +6762,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="X50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="Y50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7180</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>110334</v>
+      </c>
+      <c r="C51" t="s">
+        <v>473</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="J51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="O51" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6315,56 +6833,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="X51" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="Y51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7180</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C52" t="s">
+        <v>481</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="J52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="K52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="L52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="O52" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6382,56 +6904,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="X52" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7180</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>151778</v>
+      </c>
+      <c r="C53" t="s">
+        <v>489</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="J53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="K53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="O53" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6447,56 +6973,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="X53" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="Y53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7180</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>151779</v>
+      </c>
+      <c r="C54" t="s">
+        <v>497</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="J54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="K54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="L54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="O54" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6508,56 +7038,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X54" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7180</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>151780</v>
+      </c>
+      <c r="C55" t="s">
+        <v>504</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="J55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="K55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="L55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6575,56 +7109,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X55" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>7180</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>18604</v>
+      </c>
+      <c r="C56" t="s">
+        <v>512</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="J56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="K56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="L56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="O56" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6636,56 +7174,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X56" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>7180</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>66680</v>
+      </c>
+      <c r="C57" t="s">
+        <v>520</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="J57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="K57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="L57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6707,56 +7249,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X57" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>7180</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>151781</v>
+      </c>
+      <c r="C58" t="s">
+        <v>528</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="J58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="K58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="L58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6772,56 +7318,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X58" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>7180</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>151782</v>
+      </c>
+      <c r="C59" t="s">
+        <v>536</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="J59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="K59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="L59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="O59" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6833,56 +7383,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X59" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>7180</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>151783</v>
+      </c>
+      <c r="C60" t="s">
+        <v>543</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="J60" t="s">
+        <v>546</v>
+      </c>
+      <c r="K60" t="s">
+        <v>547</v>
+      </c>
+      <c r="L60" t="s">
+        <v>548</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
         <v>487</v>
       </c>
-      <c r="K60" t="s">
-        <v>488</v>
-      </c>
-      <c r="L60" t="s">
-        <v>489</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4</v>
-      </c>
-      <c r="N60" t="s">
-        <v>436</v>
-      </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6900,56 +7454,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X60" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>7180</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>151784</v>
+      </c>
+      <c r="C61" t="s">
+        <v>550</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="J61" t="s">
+        <v>546</v>
+      </c>
+      <c r="K61" t="s">
+        <v>553</v>
+      </c>
+      <c r="L61" t="s">
+        <v>554</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
         <v>487</v>
       </c>
-      <c r="K61" t="s">
-        <v>493</v>
-      </c>
-      <c r="L61" t="s">
-        <v>494</v>
-      </c>
-      <c r="M61" t="n">
-        <v>4</v>
-      </c>
-      <c r="N61" t="s">
-        <v>436</v>
-      </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6965,56 +7523,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X61" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>7180</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>151785</v>
+      </c>
+      <c r="C62" t="s">
+        <v>556</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="J62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="K62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="L62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7026,56 +7588,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X62" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>7180</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>151786</v>
+      </c>
+      <c r="C63" t="s">
+        <v>563</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>502</v>
+        <v>564</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="J63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="K63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="L63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="O63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7097,56 +7663,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X63" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>7180</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>26338</v>
+      </c>
+      <c r="C64" t="s">
+        <v>571</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="J64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="K64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="L64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7168,56 +7738,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X64" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>7180</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>151787</v>
+      </c>
+      <c r="C65" t="s">
+        <v>578</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="J65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="K65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="L65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="O65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -7239,56 +7813,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X65" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>7180</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>151788</v>
+      </c>
+      <c r="C66" t="s">
+        <v>586</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="J66" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="K66" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="L66" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="O66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7310,56 +7888,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X66" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y66" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>7180</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>151789</v>
+      </c>
+      <c r="C67" t="s">
+        <v>593</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="J67" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="K67" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="L67" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7381,56 +7963,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X67" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y67" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>7180</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>13818</v>
+      </c>
+      <c r="C68" t="s">
+        <v>601</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="J68" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="K68" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="L68" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7452,56 +8038,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X68" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y68" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>7180</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>151790</v>
+      </c>
+      <c r="C69" t="s">
+        <v>609</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="J69" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="K69" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="L69" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="O69" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7523,56 +8113,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X69" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y69" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>7180</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>151791</v>
+      </c>
+      <c r="C70" t="s">
+        <v>617</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="J70" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="K70" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="L70" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="O70" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -7594,56 +8188,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="X70" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="Y70" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>7180</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>151792</v>
+      </c>
+      <c r="C71" t="s">
+        <v>627</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="J71" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="K71" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="L71" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="O71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7655,56 +8253,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="X71" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="Y71" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>7180</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>151793</v>
+      </c>
+      <c r="C72" t="s">
+        <v>635</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="J72" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="K72" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="L72" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="O72" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7716,56 +8318,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="X72" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="Y72" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>7180</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>76779</v>
+      </c>
+      <c r="C73" t="s">
+        <v>643</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="J73" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="K73" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="L73" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7787,47 +8393,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="X73" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="Y73" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>7180</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>151794</v>
+      </c>
+      <c r="C74" t="s">
+        <v>651</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="J74" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="K74" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="L74" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -7854,56 +8464,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X74" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y74" t="s">
-        <v>586</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>7180</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>151795</v>
+      </c>
+      <c r="C75" t="s">
+        <v>660</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="J75" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="K75" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="L75" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="O75" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7925,56 +8539,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X75" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y75" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>7180</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>5430</v>
+      </c>
+      <c r="C76" t="s">
+        <v>668</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="J76" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="K76" t="s">
-        <v>597</v>
+        <v>672</v>
       </c>
       <c r="L76" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -7996,56 +8614,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X76" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y76" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>7180</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>151796</v>
+      </c>
+      <c r="C77" t="s">
+        <v>676</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>601</v>
+        <v>677</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>602</v>
+        <v>678</v>
       </c>
       <c r="J77" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="K77" t="s">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="L77" t="s">
-        <v>605</v>
+        <v>681</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8067,56 +8689,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X77" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y77" t="s">
-        <v>606</v>
+        <v>682</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>7180</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>151797</v>
+      </c>
+      <c r="C78" t="s">
+        <v>683</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
       <c r="J78" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="K78" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="L78" t="s">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="O78" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -8138,47 +8764,51 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="X78" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="Y78" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>7180</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>73996</v>
+      </c>
+      <c r="C79" t="s">
+        <v>692</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="J79" t="s">
-        <v>617</v>
+        <v>695</v>
       </c>
       <c r="K79" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="L79" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -8205,56 +8835,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y79" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>7180</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>151798</v>
+      </c>
+      <c r="C80" t="s">
+        <v>699</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
       <c r="J80" t="s">
-        <v>623</v>
+        <v>702</v>
       </c>
       <c r="K80" t="s">
-        <v>624</v>
+        <v>703</v>
       </c>
       <c r="L80" t="s">
-        <v>625</v>
+        <v>704</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="O80" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8276,56 +8910,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y80" t="s">
-        <v>626</v>
+        <v>705</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>7180</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>8252</v>
+      </c>
+      <c r="C81" t="s">
+        <v>706</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="J81" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="K81" t="s">
-        <v>630</v>
+        <v>710</v>
       </c>
       <c r="L81" t="s">
-        <v>631</v>
+        <v>711</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8347,56 +8985,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="X81" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="Y81" t="s">
-        <v>633</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>7180</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>151799</v>
+      </c>
+      <c r="C82" t="s">
+        <v>714</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="J82" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="K82" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="L82" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8418,56 +9060,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X82" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y82" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>7180</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>151800</v>
+      </c>
+      <c r="C83" t="s">
+        <v>721</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="J83" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="K83" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="L83" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="O83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8489,47 +9135,51 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X83" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y83" t="s">
-        <v>646</v>
+        <v>728</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>7180</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>151801</v>
+      </c>
+      <c r="C84" t="s">
+        <v>729</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
       <c r="J84" t="s">
-        <v>649</v>
+        <v>732</v>
       </c>
       <c r="K84" t="s">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="L84" t="s">
-        <v>651</v>
+        <v>734</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
@@ -8556,47 +9206,51 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="X84" t="s">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Y84" t="s">
-        <v>654</v>
+        <v>737</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>7180</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>151802</v>
+      </c>
+      <c r="C85" t="s">
+        <v>738</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="J85" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="K85" t="s">
-        <v>658</v>
+        <v>742</v>
       </c>
       <c r="L85" t="s">
-        <v>659</v>
+        <v>743</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -8623,56 +9277,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="X85" t="s">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="Y85" t="s">
-        <v>660</v>
+        <v>744</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>7180</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>151803</v>
+      </c>
+      <c r="C86" t="s">
+        <v>745</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="J86" t="s">
-        <v>663</v>
+        <v>748</v>
       </c>
       <c r="K86" t="s">
-        <v>664</v>
+        <v>749</v>
       </c>
       <c r="L86" t="s">
-        <v>665</v>
+        <v>750</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>666</v>
+        <v>751</v>
       </c>
       <c r="O86" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8694,47 +9352,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X86" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y86" t="s">
-        <v>667</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>7180</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>151804</v>
+      </c>
+      <c r="C87" t="s">
+        <v>753</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>668</v>
+        <v>754</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="J87" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
       <c r="K87" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="L87" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
@@ -8761,56 +9423,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X87" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y87" t="s">
-        <v>673</v>
+        <v>759</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>7180</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>151805</v>
+      </c>
+      <c r="C88" t="s">
+        <v>760</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="J88" t="s">
-        <v>676</v>
+        <v>763</v>
       </c>
       <c r="K88" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
       <c r="L88" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="O88" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8822,56 +9488,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X88" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y88" t="s">
-        <v>680</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>7180</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>151806</v>
+      </c>
+      <c r="C89" t="s">
+        <v>768</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>681</v>
+        <v>769</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>682</v>
+        <v>770</v>
       </c>
       <c r="J89" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="K89" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="L89" t="s">
-        <v>685</v>
+        <v>773</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>2</v>
@@ -8893,56 +9563,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X89" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y89" t="s">
-        <v>686</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>7180</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>151807</v>
+      </c>
+      <c r="C90" t="s">
+        <v>775</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>687</v>
+        <v>776</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>688</v>
+        <v>777</v>
       </c>
       <c r="J90" t="s">
-        <v>689</v>
+        <v>778</v>
       </c>
       <c r="K90" t="s">
-        <v>690</v>
+        <v>779</v>
       </c>
       <c r="L90" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>692</v>
+        <v>781</v>
       </c>
       <c r="O90" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8964,56 +9638,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X90" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y90" t="s">
-        <v>693</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>7180</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>151808</v>
+      </c>
+      <c r="C91" t="s">
+        <v>783</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="J91" t="s">
-        <v>696</v>
+        <v>786</v>
       </c>
       <c r="K91" t="s">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="L91" t="s">
-        <v>698</v>
+        <v>788</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>692</v>
+        <v>781</v>
       </c>
       <c r="O91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -9035,47 +9713,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X91" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y91" t="s">
-        <v>699</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>7180</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>31564</v>
+      </c>
+      <c r="C92" t="s">
+        <v>790</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>700</v>
+        <v>791</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>701</v>
+        <v>792</v>
       </c>
       <c r="J92" t="s">
-        <v>702</v>
+        <v>793</v>
       </c>
       <c r="K92" t="s">
-        <v>703</v>
+        <v>794</v>
       </c>
       <c r="L92" t="s">
-        <v>704</v>
+        <v>795</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -9102,56 +9784,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X92" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y92" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>7180</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>151809</v>
+      </c>
+      <c r="C93" t="s">
+        <v>797</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>706</v>
+        <v>798</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>707</v>
+        <v>799</v>
       </c>
       <c r="J93" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="K93" t="s">
-        <v>709</v>
+        <v>801</v>
       </c>
       <c r="L93" t="s">
-        <v>710</v>
+        <v>802</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>711</v>
+        <v>803</v>
       </c>
       <c r="O93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9173,56 +9859,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X93" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y93" t="s">
-        <v>712</v>
+        <v>804</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>7180</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>151810</v>
+      </c>
+      <c r="C94" t="s">
+        <v>805</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>713</v>
+        <v>806</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>714</v>
+        <v>807</v>
       </c>
       <c r="J94" t="s">
-        <v>715</v>
+        <v>808</v>
       </c>
       <c r="K94" t="s">
-        <v>716</v>
+        <v>809</v>
       </c>
       <c r="L94" t="s">
-        <v>717</v>
+        <v>810</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>718</v>
+        <v>811</v>
       </c>
       <c r="O94" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9244,56 +9934,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X94" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y94" t="s">
-        <v>719</v>
+        <v>812</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>7180</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>151811</v>
+      </c>
+      <c r="C95" t="s">
+        <v>813</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>720</v>
+        <v>814</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="J95" t="s">
-        <v>722</v>
+        <v>816</v>
       </c>
       <c r="K95" t="s">
-        <v>723</v>
+        <v>817</v>
       </c>
       <c r="L95" t="s">
-        <v>724</v>
+        <v>818</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>725</v>
+        <v>819</v>
       </c>
       <c r="O95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9315,56 +10009,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X95" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y95" t="s">
-        <v>726</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>7180</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C96" t="s">
+        <v>821</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>727</v>
+        <v>822</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
       <c r="J96" t="s">
-        <v>729</v>
+        <v>824</v>
       </c>
       <c r="K96" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
       <c r="L96" t="s">
-        <v>731</v>
+        <v>826</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>732</v>
+        <v>827</v>
       </c>
       <c r="O96" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9386,56 +10084,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>733</v>
+        <v>828</v>
       </c>
       <c r="X96" t="s">
-        <v>734</v>
+        <v>829</v>
       </c>
       <c r="Y96" t="s">
-        <v>735</v>
+        <v>830</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>7180</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>151812</v>
+      </c>
+      <c r="C97" t="s">
+        <v>831</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>736</v>
+        <v>832</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>737</v>
+        <v>833</v>
       </c>
       <c r="J97" t="s">
-        <v>738</v>
+        <v>834</v>
       </c>
       <c r="K97" t="s">
-        <v>739</v>
+        <v>835</v>
       </c>
       <c r="L97" t="s">
-        <v>740</v>
+        <v>836</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>741</v>
+        <v>837</v>
       </c>
       <c r="O97" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -9457,56 +10159,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>742</v>
+        <v>838</v>
       </c>
       <c r="X97" t="s">
-        <v>743</v>
+        <v>839</v>
       </c>
       <c r="Y97" t="s">
-        <v>744</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>7180</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>151813</v>
+      </c>
+      <c r="C98" t="s">
+        <v>841</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="J98" t="s">
-        <v>747</v>
+        <v>844</v>
       </c>
       <c r="K98" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
       <c r="L98" t="s">
-        <v>749</v>
+        <v>846</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>750</v>
+        <v>847</v>
       </c>
       <c r="O98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -9524,56 +10230,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>751</v>
+        <v>848</v>
       </c>
       <c r="X98" t="s">
-        <v>752</v>
+        <v>849</v>
       </c>
       <c r="Y98" t="s">
-        <v>753</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>7180</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>151814</v>
+      </c>
+      <c r="C99" t="s">
+        <v>851</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>754</v>
+        <v>852</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>755</v>
+        <v>853</v>
       </c>
       <c r="J99" t="s">
-        <v>756</v>
+        <v>854</v>
       </c>
       <c r="K99" t="s">
-        <v>757</v>
+        <v>855</v>
       </c>
       <c r="L99" t="s">
-        <v>758</v>
+        <v>856</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>759</v>
+        <v>857</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9595,56 +10305,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X99" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y99" t="s">
-        <v>760</v>
+        <v>858</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>7180</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>151815</v>
+      </c>
+      <c r="C100" t="s">
+        <v>859</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>761</v>
+        <v>860</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>762</v>
+        <v>861</v>
       </c>
       <c r="J100" t="s">
-        <v>763</v>
+        <v>862</v>
       </c>
       <c r="K100" t="s">
-        <v>764</v>
+        <v>863</v>
       </c>
       <c r="L100" t="s">
-        <v>765</v>
+        <v>864</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>759</v>
+        <v>857</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9666,56 +10380,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X100" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y100" t="s">
-        <v>766</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>7180</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>151816</v>
+      </c>
+      <c r="C101" t="s">
+        <v>866</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>767</v>
+        <v>867</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>768</v>
+        <v>868</v>
       </c>
       <c r="J101" t="s">
-        <v>769</v>
+        <v>869</v>
       </c>
       <c r="K101" t="s">
-        <v>770</v>
+        <v>870</v>
       </c>
       <c r="L101" t="s">
-        <v>771</v>
+        <v>871</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>772</v>
+        <v>872</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9737,56 +10455,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>773</v>
+        <v>873</v>
       </c>
       <c r="X101" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y101" t="s">
-        <v>774</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>7180</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>151817</v>
+      </c>
+      <c r="C102" t="s">
+        <v>875</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>775</v>
+        <v>876</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="J102" t="s">
-        <v>777</v>
+        <v>878</v>
       </c>
       <c r="K102" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="L102" t="s">
-        <v>779</v>
+        <v>880</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>780</v>
+        <v>881</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9808,56 +10530,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X102" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y102" t="s">
-        <v>781</v>
+        <v>882</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>7180</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>151818</v>
+      </c>
+      <c r="C103" t="s">
+        <v>883</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>782</v>
+        <v>884</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>783</v>
+        <v>885</v>
       </c>
       <c r="J103" t="s">
-        <v>784</v>
+        <v>886</v>
       </c>
       <c r="K103" t="s">
-        <v>785</v>
+        <v>887</v>
       </c>
       <c r="L103" t="s">
-        <v>786</v>
+        <v>888</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>787</v>
+        <v>889</v>
       </c>
       <c r="O103" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9879,47 +10605,51 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X103" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y103" t="s">
-        <v>788</v>
+        <v>890</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>7180</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>151819</v>
+      </c>
+      <c r="C104" t="s">
+        <v>891</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>789</v>
+        <v>892</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>790</v>
+        <v>893</v>
       </c>
       <c r="J104" t="s">
-        <v>791</v>
+        <v>894</v>
       </c>
       <c r="K104" t="s">
-        <v>792</v>
+        <v>895</v>
       </c>
       <c r="L104" t="s">
-        <v>793</v>
+        <v>896</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
@@ -9936,56 +10666,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X104" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y104" t="s">
-        <v>794</v>
+        <v>897</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>7180</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>151820</v>
+      </c>
+      <c r="C105" t="s">
+        <v>898</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>795</v>
+        <v>899</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>796</v>
+        <v>900</v>
       </c>
       <c r="J105" t="s">
-        <v>797</v>
+        <v>901</v>
       </c>
       <c r="K105" t="s">
-        <v>798</v>
+        <v>902</v>
       </c>
       <c r="L105" t="s">
-        <v>799</v>
+        <v>903</v>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>800</v>
+        <v>904</v>
       </c>
       <c r="O105" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -10007,47 +10741,51 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X105" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y105" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>7180</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>151821</v>
+      </c>
+      <c r="C106" t="s">
+        <v>906</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>802</v>
+        <v>907</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>803</v>
+        <v>908</v>
       </c>
       <c r="J106" t="s">
-        <v>804</v>
+        <v>909</v>
       </c>
       <c r="K106" t="s">
-        <v>805</v>
+        <v>910</v>
       </c>
       <c r="L106" t="s">
-        <v>806</v>
+        <v>911</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
@@ -10072,47 +10810,51 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X106" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y106" t="s">
-        <v>807</v>
+        <v>912</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>7180</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>913</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>808</v>
+        <v>914</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>809</v>
+        <v>915</v>
       </c>
       <c r="J107" t="s">
-        <v>810</v>
+        <v>916</v>
       </c>
       <c r="K107" t="s">
-        <v>811</v>
+        <v>917</v>
       </c>
       <c r="L107" t="s">
-        <v>812</v>
+        <v>918</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -10137,47 +10879,51 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X107" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y107" t="s">
-        <v>813</v>
+        <v>919</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>7180</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>913</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>814</v>
+        <v>920</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>815</v>
+        <v>921</v>
       </c>
       <c r="J108" t="s">
-        <v>816</v>
+        <v>922</v>
       </c>
       <c r="K108" t="s">
-        <v>817</v>
+        <v>923</v>
       </c>
       <c r="L108" t="s">
-        <v>818</v>
+        <v>924</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
@@ -10202,47 +10948,51 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X108" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y108" t="s">
-        <v>819</v>
+        <v>925</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>7180</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>913</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>820</v>
+        <v>926</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>821</v>
+        <v>927</v>
       </c>
       <c r="J109" t="s">
-        <v>822</v>
+        <v>928</v>
       </c>
       <c r="K109" t="s">
-        <v>823</v>
+        <v>929</v>
       </c>
       <c r="L109" t="s">
-        <v>824</v>
+        <v>930</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
@@ -10259,56 +11009,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X109" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y109" t="s">
-        <v>825</v>
+        <v>931</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>7180</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>913</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>826</v>
+        <v>932</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>827</v>
+        <v>933</v>
       </c>
       <c r="J110" t="s">
-        <v>828</v>
+        <v>934</v>
       </c>
       <c r="K110" t="s">
-        <v>829</v>
+        <v>935</v>
       </c>
       <c r="L110" t="s">
-        <v>830</v>
+        <v>936</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>831</v>
+        <v>937</v>
       </c>
       <c r="O110" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10328,47 +11082,51 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X110" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y110" t="s">
-        <v>832</v>
+        <v>938</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>7180</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>913</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>833</v>
+        <v>939</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>834</v>
+        <v>940</v>
       </c>
       <c r="J111" t="s">
-        <v>835</v>
+        <v>941</v>
       </c>
       <c r="K111" t="s">
-        <v>836</v>
+        <v>942</v>
       </c>
       <c r="L111" t="s">
-        <v>837</v>
+        <v>943</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
@@ -10393,47 +11151,51 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X111" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y111" t="s">
-        <v>838</v>
+        <v>944</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>7180</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>913</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>839</v>
+        <v>945</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>840</v>
+        <v>946</v>
       </c>
       <c r="J112" t="s">
-        <v>841</v>
+        <v>947</v>
       </c>
       <c r="K112" t="s">
-        <v>690</v>
+        <v>779</v>
       </c>
       <c r="L112" t="s">
-        <v>842</v>
+        <v>948</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
@@ -10450,13 +11212,13 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="X112" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Y112" t="s">
-        <v>843</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
